--- a/finetuning/it_datasets/qa_dataset/qa_it_el jem_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_el jem_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA127"/>
+  <dimension ref="A1:AB127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -655,14 +660,65 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out CAFE RADHOUEN at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. 
-This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. 
-With a rating of 5.0, it's a must-visit spot.</t>
+          <t>CAFE RADHOUEN is a cafe located in el jem, Tunisia (37.2291348, 9.9224329). It has a 5.0 rating based on 1 review and offers a variety of cafe-related services.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Question: Can you recommend a highly rated cafe in El Jem known for its exceptional cafe atmosphere and diverse selection?</t>
+          <t>Day Plan:
+Morning: Visit the stunning Ancien amphitheatre d'El Jem, a renowned historical site with a rich past.
+Mid-Morning: Explore the vibrant local market, Souk El Jem, where you can find unique souvenirs and fresh produce.
+Midday: Savor the authentic flavors of Tunisian cuisine at El Jem, a highly-rated restaurant offering a delectable array of local dishes.
+Afternoon: Relax and rejuvenate at a traditional Moroccan spa, indulging in a refreshing Hammam experience.
+Evening: Join a guided tour of the El Jem railway station, a vital transportation hub with a fascinating history.
+Night: Dine at Fratello PIZZERIA, renowned for its delicious pizzas and warm ambiance. Afterward, enjoy a leisurely stroll along Menzel Jemil Sud, a charming neighborhood with beautiful scenery.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jledou is a top-rated cafe in El Jem, Tunisia. It offers a cozy atmosphere and serves delicious coffee and pastries. The cafe is located at 7PW4+H88 Cafe Jledou, El Jem and its coordinates are (35.2937636, 10.7107671).
+El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -764,14 +820,65 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe ahbeb located at 7080 No-Hope St, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 03:30-00:00. To get there, use these GPS coordinates: (37.2291348, 9.9224329). For more details, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipNxXv5yBN1wn_WAfu0e2Ti0hFSMNzKgmjuhlVKf=w408-h906-k-no.</t>
+          <t>Cafe ahbeb is a cafe located at 7080 No-Hope St, Menzel Jemil. It offers a wide variety of food and drinks, as well as free Wi-Fi and a friendly atmosphere. The cafe is open from 3:30 AM to midnight, and is closed on Sundays. Cafe ahbeb is a great place to relax and enjoy a cup of coffee or tea.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in El Jem can you visit Cafe ahbeb, a top-rated destination with a 4.8 rating, ideal for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the Amphitheatre d'El Jem, a UNESCO World Heritage site and one of the largest and best-preserved Roman amphitheaters in existence.
+Mid-Morning: Visit the El Jem Museum, which houses a collection of artifacts and displays on the history and culture of El Jem and the surrounding region.
+Midday: Try local cuisine at Le Bonheur 2, a renowned restaurant with a 4.3-star rating known for its authentic Tunisian dishes and excellent service.
+Afternoon: Visit the Starligt SARL leather goods factory to witness the craftsmanship and artistry of local artisans, and perhaps purchase a unique souvenir.
+Evening: Enjoy a relaxing stroll along the picturesque Rimel Beach, soaking in the stunning sunset views and the sound of the waves crashing on the shore.
+Night: Dine at FASTFOOD ZAYZAFOUNA, a language-based specialty restaurant famous for its unique tongue-based dishes and lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.
+Le Bonheur 2, located in El Jem, is a renowned restaurant with a 4.3-star rating based on 24 reviews. Coordiantes are 35.3002338, 10.7166679. Place ID is ChIJE0ysKYP8ARMR8JMxHyAqTBY.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -873,14 +980,65 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Sunday Coffee located at 6VPW+GH3 Sunday Coffee, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It offers a wide selection of coffee drinks, as well as a variety of pastries and snacks. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at 6VPW+GH3 Sunday Coffee, Menzel Jemil, and can be contacted at +216 52 948 386.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a top-rated café with a 5.0 rating, known for its exceptional café offerings?</t>
+          <t>**Day Plan:**
+**Morning:** Explore The Ancient Amphitheater of El Jem, a remarkable Roman relic with impressive architectural features and a rich historical significance.
+**Mid-Morning:** Visit Grillades mshwy for a delicious and authentic Tunisian breakfast to kickstart your day.
+**Midday:** Explore the vibrant El Jem market, where you can soak up local culture and find unique souvenirs and local handicrafts.
+**Afternoon:** Relax and rejuvenate at Residence Nour errimel MJ, where you can indulge in a refreshing dip in the pool or bask in the sun.
+**Evening:** Experience local cuisine at Restaurant El Hana, known for its delectable dishes, friendly atmosphere, and proximity to the El Jem Amphitheater.
+**Night:** End the day with a memorable stargazing experience at Ain Bittar, where the crystal-clear water and serene surroundings create a perfect setting for a magical night under the stars.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+bonjour Cafe is a cafe located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080, Tunisia, with coordinates (37.23744, 9.9221347). The cafe has a rating of 4.0 and offers a variety of coffee and tea drinks.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -982,15 +1140,65 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great place to grab a coffee, head to cafe Ali Ouni. 
-Located at cafe Ali Ouni, Menzel Jemil 7080, this top-rated cafe is perfect for coffee lovers. 
-With a 5.0 rating, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. 
-For more details, call them at 94 283 039.</t>
+          <t>Cafe Ali Ouni is a highly-rated (5-star) cafe located in Menzel Jemil, near el jem. It has great reviews and is known for being a cafe with a focus on providing a relaxing and enjoyable experience for its guests.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in el jem can you find the highly-rated Cafe Ali Ouni, known for its exceptional coffee?</t>
+          <t>Day Plan:
+Morning: Explore Dar El Jem, a charming cafe and art museum in El Jem, soaking in the local culture and admiring the artistic creations.
+Mid-Morning: Delight your taste buds with a tantalizing lunch at Restaurant Rhouma, savoring the delectable flavors of traditional Tunisian cuisine.
+Midday: Witness the grandeur of the ancient Ancien amphithéâtre d'El Jem, an impressive historical site that offers a glimpse into the region's rich past.
+Afternoon: Embark on a culinary adventure at Fratello PIZZERIA in Menzel Jemil, indulging in the delectable flavors of authentic Italian pizzas.
+Evening: Unwind and rejuvenate at Cafe Paris, a cozy tea room in Menzel Jemil, sipping on fragrant teas and engaging in lively conversations with locals.
+Night: Experience the vibrant atmosphere of Rimel Beach Menzel Jemil, enjoying a refreshing drink while reveling in the picturesque coastal views.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar El Jem is a place in El Jem, Tunisia (coordinates: 35.501506575272, 11.065588006004). This place is a cafe that also offers art museum and artist studio services. It is open from 7am to 12am. You can contact them by phone at +216 98 277 634. They also have a website at http://www.micromosaictunisia.com/. Dar El Jem has received 65 reviews and is rated 4.7 out of 5 stars.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1304,65 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a delicious meal, check out Restaurant El Hana located at 7PW5+65C Restaurant El Hana, El Jem. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:00-17:00. To get there, use these GPS coordinates: 33.561917, -7.608013. For more details, visit their website at https://www.google.com/maps/place/Restaurant+El+Hana/data=!4m7!3m6!1s0x1301fc9d10e2ad11:0x7d66122b4b385a16!8m2!3d35.2955726!4d10.7078781!16s%2Fg%2F11cn9sfmks!19sChIJEa3iEJ38ARMRFlo4SysSZn0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 576 417.</t>
+          <t>Restaurant El Hana is a 4.7-rated restaurant in El Jem, Tunisia. It offers a wide range of dishes, including salads, brochettes, grillades, and poulet. The restaurant is known for its great food, friendly staff, and beautiful view of the nearby amphitheater. It is open from 9am to 5pm, closed on Mondays, and is located at 7PW5+65C, El Jem.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (rating: 4.7) in El Jem that caters to Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Amphitheater of El Jem, a well-preserved Roman monument that showcases the architectural grandeur of the past.
+Mid-Morning: Trying local cuisine at Fast food Rhouma, a popular restaurant offering a variety of traditional Tunisian dishes.
+Midday: Visiting the Hotel Julius, a luxurious hotel offering cozy accommodations and an elegant setting for a delightful lunch amidst serene surroundings.
+Afternoon: Enjoying recreational activities at Rimel Beach Menzel Jemil, a beach club with a private beach, swimming pool, restaurant, and bar, perfect for relaxation and leisure.
+Evening: Shopping at Starlight SARL, a highly-rated manufacturer of leather goods, offering a wide selection of exquisite products to enhance your wardrobe or find unique souvenirs.
+Night: Experiencing cultural immersion at FASTFOOD ZAYZAFOUNA, a language-based specialty restaurant celebrated for its tongue-based dishes, providing an authentic taste of local flavors and culinary traditions.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jledou is a top-rated cafe in El Jem, Tunisia. It offers a cozy atmosphere and serves delicious coffee and pastries. The cafe is located at 7PW4+H88 Cafe Jledou, El Jem and its coordinates are (35.2937636, 10.7107671).
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1211,12 +1472,65 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Dar El Jem located at Ave Farhat Hached. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe, Musee d'art, Atelier d'artiste to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.501506575272, 11.065588006004. For more details, visit their website at http://www.micromosaictunisia.com/ or call them at 98 277 634.</t>
+          <t>Dar El Jem is a place in El Jem, Tunisia (coordinates: 35.501506575272, 11.065588006004). This place is a cafe that also offers art museum and artist studio services. It is open from 7am to 12am. You can contact them by phone at +216 98 277 634. They also have a website at http://www.micromosaictunisia.com/. Dar El Jem has received 65 reviews and is rated 4.7 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a highly-rated destination that features both a café and art attractions like a museum and artist's studio?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, marveling at its architectural grandeur and historical significance.
+Mid-Morning: Visit the Grillades mshwy restaurant and savor the authentic flavors of Tunisian grilled dishes.
+Midday: Relax and rejuvenate at the Rimel Beach Menzel Jemil, indulging in sunbathing, swimming, and soaking up the coastal vibes.
+Afternoon: Embark on a shopping expedition at the Starlight SARL, renowned for its exquisite leather goods and traditional craftsmanship.
+Evening: Witness the vibrant ambiance of Cafe Paris, relishing the aromatic teas and coffees while immersing yourself in the local culture.
+Night: Experience the culinary delights of FASTFOOD ZAYZAFOUNA, tantalizing your taste buds with their specialty tongue-based dishes.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a local cafe located in el jem, Tunisia. It has a rating of 5.0.
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1322,12 +1636,65 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Le Bonheur located at 7PV5+238 Restaurant Le Bonheur, C87, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on []. To get there, use these GPS coordinates: 46.034288, 4.0738428. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Le+Bonheur/data=!4m7!3m6!1s0x1301fc9dda8cc9ad:0x53a3104c3f24a621!8m2!3d35.2925252!4d10.7076891!16s%2Fg%2F1pp2tzkb_!19sChIJrcmM2p38ARMRIaYkP0wQo1M?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 976 655.</t>
+          <t>Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>What is the name and address of the top-rated restaurant in El Jem known for its Restaurant categories and a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ancient Amphitheater of El Jem, marveling at its grandeur and architectural wonders.
+Mid-Morning: Indulge in local flavors at Fast Food Rhouma, savoring traditional Tunisian dishes.
+Midday: Visit the El Jem railway station, an important transportation hub, and capture its architectural beauty.
+Afternoon: Relax and enjoy the sun-soaked shores of Rimel Beach Menzel Jemil, enjoying the serenity of the beach and cooling off in the refreshing waters.
+Evening: Immerse yourself in the vibrant atmosphere of El Jem Voyage, booking tours to explore the region's hidden gems.
+Night: Explore Grillades mshwy's delectable grilled cuisine, tantalizing your taste buds with authentic flavors.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lwy'm is a cafe located in el jem, Tunisia. It is open from 5am to midnight and has a 4.5-star rating on Google. The cafe has 11 reviews and offers a variety of food and drinks. It is located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1433,12 +1800,65 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Diar El Jem located at 7MXR+X6X Restaurant Diar El Jem, Av. Hedi Chaker, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, call them at 27 444 700.</t>
+          <t>Restaurant Diar El Jem is a restaurant located in El Jem, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at 7MXR+X6X, El Jem, Tunisia. It is open from 09:00 to 00:00, and is closed on Sundays. The restaurant has a rating of 4.0 out of 5 on Google Maps.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>What highly rated restaurant in El Jem offers an impressive selection of dining options, leaving a lasting impression with a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem
+Mid-Morning: Visit Espase marmara q`@ 'frH mrmr@ marble quarry
+Midday: Try local cuisine at Grillades mshwy restaurant
+Afternoon: Relax with a swim at Rimel Beach Menzel Jemil
+Evening: Enjoy scenic views at Ocean Beach Rimel
+Night: Engage in cultural immersion at FASTFOOD ZAYZAFOUNA restaurant</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mqh~ lqySr** is a cafe located in Menzel Jemil, Tunisia at the coordinates (37.2291348, 9.9224329). It has a rating of 4.0 based on 1 review. The cafe offers a variety of items, including coffee, tea, and pastries. It is also a popular spot for locals to gather and socialize.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1544,12 +1964,65 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Venus located at 7PX4+388 Cafe Venus, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Venus/data=!4m7!3m6!1s0x1301fc83335746cb:0x383d2430c3033ca2!8m2!3d35.2976549!4d10.7058344!16s%2Fg%2F1ptw1zz67!19sChIJy0ZXM4P8ARMRojwDwzAkPTg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 408 841.</t>
+          <t>Café Venus is a highly-rated (4.4/5) cafe situated in El Jem, Tunisia (coordinates: 35.3, 10.71667). It offers a cozy ambiance, where customers can enjoy their delectable offerings. Café Venus operates daily from 6 AM to 11 PM, providing extended hours for those seeking a delightful start or end to their day. The cafe's focal point is on providing a memorable dining experience, making it an ideal destination for individuals and groups seeking a superb gastronomic adventure.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in El Jem can you indulge in highly rated Café options at Café Venus, open during extended hours and accessible via GPS coordinates or website?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of El Jem Amphitheater, a UNESCO World Heritage Site.
+Mid-Morning: Visit the Musée Archéologique d'El Jem to learn about the history of the amphitheater and the surrounding area.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant Ghali, known for its authentic cuisine.
+Afternoon: Relax and enjoy the sun at Rimel Beach Menzel Jemil, a popular beach club with a private beach and swimming pool.
+Evening: Take a guided tour of the Espase marmara q`@ 'frH mrmr@ marble quarry to learn about the process of marble quarrying.
+Night: Experience the vibrant nightlife at Starlight SARL, a highly-rated manufacturer of leather goods.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Cafe Kacem" is a cafe located in el jem. Its coordinates are (35.3, 10.71667).
+Restaurant Ghali is a highly-rated restaurant in Menzel Jemil, Tunisia, located at the coordinates (37.23744, 9.9221347) with a 5.0 rating based on 3 reviews. This restaurant offers a dining experience from 9:00 AM to 11:00 PM every day of the week, specializing in its Restaurant category.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1651,12 +2124,65 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great restaurant, check out Le Bonheur 2 located at 7PX4+6Q7 Le Bonheur 2. This top-rated destination offers a range of categories to choose from, perfect for restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-22:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Le+Bonheur+2/data=!4m7!3m6!1s0x1301fc8329ac4c13:0x164c2a201f3193f0!8m2!3d35.2980465!4d10.7069371!16s%2Fg%2F11c3_b2vv6!19sChIJE0ysKYP8ARMR8JMxHyAqTBY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le Bonheur 2, located in El Jem, is a renowned restaurant with a 4.3-star rating based on 24 reviews. Coordiantes are 35.3002338, 10.7166679. Place ID is ChIJE0ysKYP8ARMR8JMxHyAqTBY.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated restaurant in el jem with a rating of 4.3 that offers a range of categories in its menu?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a UNESCO World Heritage Site that is one of the best-preserved Roman amphitheaters in the world.
+Mid-Morning: Visit the El Jem Voyage travel agency to book a guided tour of the amphitheater and learn about its fascinating history.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant Ghali, which offers a variety of local dishes and has a 5.0 rating on Google Maps.
+Afternoon: Take a relaxing stroll through the charming El Jem market, where you can browse local handicrafts and souvenirs.
+Evening: Indulge in a memorable dinner at Ocean Beach Rimel, a western restaurant with a 5.0 rating and a 24-hour营业时间.
+Night: Experience the lively nightlife at Cafe ahbeb, a top-rated cafe that offers a warm and inviting ambiance and a variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover the charming "Cafe ahbeb", a top-rated cafe nestled in the heart of el jem. Whether you're seeking a delectable coffee break or a relaxing evening out, Cafe ahbeb welcomes you with open arms. Located at 37.2291348 latitude and 9.9224329 longitude, this hidden gem offers a warm and inviting ambiance.
+Restaurant Ghali is a highly-rated restaurant in Menzel Jemil, Tunisia, located at the coordinates (37.23744, 9.9221347) with a 5.0 rating based on 3 reviews. This restaurant offers a dining experience from 9:00 AM to 11:00 PM every day of the week, specializing in its Restaurant category.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1762,15 +2288,65 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Rhouma located at 7PV6+H79 Restaurant Rhouma, Ave Taleb Mhiri, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3, 10.71667. 
-For more details, visit their website or call them at 55 550 020.</t>
+          <t>Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant in El Jem that's a favorite among Restaurant enthusiasts and boasts a range of dining options?</t>
+          <t>Day Plan:
+Morning: Explore the historical Ancient Amphitheater of El Jem, a UNESCO World Heritage site, and admire its impressive size and architectural features.
+Mid-Morning: Visit the nearby El Jem Museum to learn about the history and significance of the amphitheater and the city of El Jem.
+Midday: Enjoy a delightful lunch at Restaurant El Hana, renowned for its exceptional food and stunning views of the amphitheater.
+Afternoon: Immerse yourself in the local flavors at Rimel Land, a highly-rated seafood restaurant serving freshly caught delicacies.
+Evening: Take a leisurely stroll through the charming streets of Menzel Jemil, exploring its vibrant markets, cafes, and local shops for souvenirs and unique finds.
+Night: Relax and unwind with a traditional Tunisian dinner at Chez Ali or indulge in delectable seafood options at Ocean Beach Rimel, while enjoying the captivating atmosphere of the seaside.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ali Ouni is a highly-rated cafe located in Menzel Jemil, Tunisia. It offers a range of cafe-style food and drinks, and has a cozy and inviting atmosphere. The cafe is located at the coordinates (37.23744, 9.9221347), in the city of el jem.
+Restaurant El Hana is a 4.7-rated restaurant in El Jem, Tunisia. It offers a wide range of dishes, including salads, brochettes, grillades, and poulet. The restaurant is known for its great food, friendly staff, and beautiful view of the nearby amphitheater. It is open from 9am to 5pm, closed on Mondays, and is located at 7PW5+65C, El Jem.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1872,12 +2448,65 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in El Jem and looking for a delicious pizza, check out Restaurant Pizzeria Rome located at 7PX4+4QG. This top-rated spot is perfect for pizza lovers and offers a range of choices to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 41.8513181, 12.2008956. For more details, visit their website or call them at 21 176 394.</t>
+          <t>Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find Restaurant Pizzeria Rome, a highly-rated pizza spot with a rating of 4.2 in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancien amphitheatre d'El Jem, a UNESCO World Heritage site.
+Mid-Morning: Visit El Jem Voyage to book a guided tour of the city and its surroundings.
+Midday: Try local cuisine at Grillades mshwy, known for its grilled dishes.
+Afternoon: Enjoy some outdoor activities like swimming or sunbathing at Rimel Beach Menzel Jemil.
+Evening: Take a guided tour of the historic Espase marmara q`@ 'frH mrmr@ marble quarry.
+Night: Experience the vibrant atmosphere of Cafe Paris and indulge in delicious tea and coffee while mingling with locals.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar El Jem is a place in El Jem, Tunisia (coordinates: 35.501506575272, 11.065588006004). This place is a cafe that also offers art museum and artist studio services. It is open from 7am to 12am. You can contact them by phone at +216 98 277 634. They also have a website at http://www.micromosaictunisia.com/. Dar El Jem has received 65 reviews and is rated 4.7 out of 5 stars.
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1983,14 +2612,65 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Pizzeria El Capo located at 7PV5+R78 Pizzeria El Capo, Ave Habib Bourguiba, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 16:00-04:00. To get there, use these GPS coordinates: 36.8500785, 10.2632786. For more details, call them at 98 210 762.</t>
+          <t>Pizzeria El Capo is a restaurant located in el jem, Tunisia. Known for its delicious pizzas, the restaurant stays open late to serve customers from 4 p.m. to 4 a.m. It is highly rated, averaging 4.9 stars out of 5, and has received numerous positive reviews for its pizza. The restaurant's exact latitude and longitude are 36.8500785 and 10.2632786, respectively.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a popular restaurant in El Jem with a high rating that caters to Restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman Amphitheater of El Jem
+Mid-Morning: Visit the nearby El Jem Railway Station
+Midday: Try local cuisine at Cafe Venus, known for its delectable fare
+Afternoon: Enjoy the scenic views at Rimel Beach Menzel Jemil
+Evening: Participate in the cultural immersion at the Espase marmara q`@ 'frH mrmr@ marble quarry
+Night: Relax with a quiet evening tea at Cafe Paris</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.
+La Grillade is a restaurant located in Menzel Jemil, Tunisia, offering a variety of dining options. It has a rating of 4.8 and is open from 9:00 AM to 5:00 PM. The restaurant's exact address is 7080 No-Hope St, Menzel Jemil, and its coordinates are (37.2291348, 9.9224329).
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2088,12 +2768,71 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you are in el jem and looking for a great Cafe, check out Cafe Jledou located at 7PW4+H88, Cafe Jledou, El Jem. This top-rated destination is perfect for Cafe lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.2937636, 10.7107671.</t>
+          <t>Cafe Jledou is a top-rated cafe in El Jem, Tunisia. It offers a cozy atmosphere and serves delicious coffee and pastries. The cafe is located at 7PW4+H88 Cafe Jledou, El Jem and its coordinates are (35.2937636, 10.7107671).</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with GPS coordinates 35.2937636, 10.7107671 that is specifically designed for Cafe enthusiasts in El Jem?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient ruins of **El Jem Amphitheater**, a well-preserved Roman landmark with impressive architectural features.
+**Mid-Morning:**
+* Try local cuisine at **Pizza le Coin**, a highly-rated restaurant known for its delightful culinary experience.
+**Midday:**
+* Visit the **Cafe Paris** in Menzel Jemil, a popular tea room known for its delicious tea and coffee offerings.
+**Afternoon:**
+* Enjoy scenic views at **Rimel Beach Menzel Jemil**, a beach club offering a private beach, swimming pool, and a relaxing atmosphere.
+**Evening:**
+* Experience cultural immersion at the **Espase marmara q`@ 'frH mrmr@** marble quarry, learning about the process of marble quarrying and admiring the finished products.
+**Night:**
+* Dine at **Grillades mshwy**, a restaurant offering a variety of grilled dishes and a 4.0 rating on Google Maps.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe mozart, located in Menzel Jemil (37.247972094479, 9.909795160753), is a popular spot among locals. This cafe has a 4.3-star rating and opens 24 hours a day, making it convenient for customers to visit anytime. Unfortunately, not much information on the cafe's menu or specialties is available, but it is undoubtedly a well-received establishment in the area.
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2203,13 +2942,71 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Fast food Rhouma located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on ['dimanche']. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website 
-at http://eljem.com/ or call them at 98 277 525.</t>
+          <t>Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>If you're craving some delicious restaurant cuisine while exploring El Jem, where can you find a highly-rated spot with a 4.7 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the well-preserved Ancient Amphitheater of El Jem, marveling at its size and architectural brilliance.
+**Mid-Morning:**
+- Enjoy a delicious breakfast at Café Venus, a highly-rated cafe known for its cozy ambiance and delightful offerings.
+**Midday:**
+- Try the local specialties at Grillades mshwy, a restaurant renowned for its grilled dishes.
+**Afternoon:**
+- Relax and soak up the sun at Rimel Beach Menzel Jemil, enjoying the amenities and admiring the beautiful scenery.
+**Evening:**
+- Visit Fratello PIZZERIA in Menzel Jemil for a delectable pizza dinner accompanied by picturesque views.
+**Night:**
+- Experience the lively atmosphere and enjoy the vibrant nightlife at Ocean Beach Rimel, a western restaurant open 24 hours a day.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Venus is a highly-rated (4.4/5) cafe situated in El Jem, Tunisia (coordinates: 35.3, 10.71667). It offers a cozy ambiance, where customers can enjoy their delectable offerings. Café Venus operates daily from 6 AM to 11 PM, providing extended hours for those seeking a delightful start or end to their day. The cafe's focal point is on providing a memorable dining experience, making it an ideal destination for individuals and groups seeking a superb gastronomic adventure.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2307,12 +3104,65 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Cafe, check out Cafe Bacchus located at 7PW5+43G Cafe Bacchus, Ave Habib Bourguiba, El Jem. This highly-rated spot has a rating of 4.4 and is a must-visit for all coffee enthusiasts! The cafe offers a range of categories to choose from, ensuring there's something for everyone. To get there, use these GPS coordinates: (36.8296533, 10.3141717). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bacchus/data=!4m7!3m6!1s0x1301fc9d0f8cf537:0xc668d6feccb275a1!8m2!3d35.2953099!4d10.70769!16s%2Fg%2F11cn6pclxt!19sChIJN_WMD538ARMRoXWyzP7WaMY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Bacchus is a 4.4-rated cafe located in Ave Habib Bourguiba, El Jem, Tunisia. It has a wide variety of food and drinks to offer, and is a popular spot for locals and tourists alike. The cafe is open 7 days a week, and has a great atmosphere for relaxing and socializing.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a highly-rated Cafe with GPS coordinates and a website?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of El Jem Voyage for a glimpse into Tunisia's rich history.
+Mid-Morning: Indulge in local flavors at Pizza le coin, known for its authentic Italian cuisine.
+Midday: Immerse yourself in the history of the renowned Ancien amphitheatre d'El Jem, a marvel of Roman architecture.
+Afternoon: Relax and enjoy the sun at Rimel Beach Menzel Jemil, a popular beach club offering a scenic escape.
+Evening: Experience the vibrant nightlife at Cafe Paris, a cozy tea room with an inviting atmosphere.
+Night: Savor a traditional Tunisian dinner at Grillades mshwy, known for its grilled delicacies.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lqySr is a cafe located in Menzel Jemil, Tunisia. It offers a wide range of coffee and tea, as well as light snacks and pastries. The cafe is located in a convenient location, just a short walk from the city center.
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2410,12 +3260,65 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated Cafe, check out Cafe Bentaja located at 7PM3+GJW Cafe Bentaja, P1, El Jem. With a 4.0 rating, it's a must-visit spot for Cafe lovers. To get there, use these GPS coordinates: 35.2937636, 10.7107671.</t>
+          <t>**Cafe Bentaja** is a highly rated cafe located in El Jem, Tunisia. Its exact address is 7PM3+GJW P1. Customers praise the cafe's cozy ambiance and friendly staff. Although there is no explicit mention of its menu or offerings, the main category is listed as "Cafe." Therefore, visitors can expect to enjoy various beverages and light refreshments at Cafe Bentaja.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Cafe (4.0) in el jem with GPS coordinates of 35.2937636, 10.7107671?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a well-preserved Roman amphitheater built in the 3rd century AD.
+Mid-Morning: Visit the El Jem Voyage travel agency to book a guided tour of the amphitheater and learn about its history and significance.
+Midday: Try local cuisine at Grillades mshwy, a restaurant offering a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps.
+Afternoon: Enjoy scenic views at Rimel Beach Menzel Jemil, a popular beach club located in el jem, Tunisia.
+Evening: Experience cultural immersion at the Menzel Jemil Sud, a place in the northern part of Tunisia known for its historical ruins and beautiful beaches.
+Night: Relax with a stay at Hotel resto Dar Ammar, a popular hotel located in El Jem offering a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de la jeunesse is a highly rated cafe in el jem with a rating of 4.3 based on 4 reviews. It is located at 6WM8+8RH Cafe de la jeunesse, Impasse de Sousse, Menzel Jemil and is open from 06:00 to 21:00.
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2525,14 +3428,65 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a cozy spot to relax, check out Pause cafe located at 8P25+CGH Pause cafe. 
-This top-rated destination is perfect for Cafe lovers and has a rating of 4.7. 
-It's open during these hours: 07:00-23:00. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, call them at 55 403 404.</t>
+          <t>Pause cafe is a cafe located in El Jem, Tunisia. It is open from 7am to 11pm, and its specialty is coffee. The cafe has a 4.7-star rating on Google and has received 6 reviews.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cozy spot for Cafe lovers with a rating of 4.7 in El Jem?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Amphitheater d'El Jem
+Mid-Morning: Trying local cuisine at Restaurant Le Bonheur
+Midday: Visiting the El Jem Railway Station and shopping for leather goods at Starlight SARL
+Afternoon: Relaxing with a massage at Hotel Resto Dar Ammar
+Evening: Enjoying scenic views at Rimel Beach Menzel Jemil
+Night: Participating in a traditional cultural event at Espace marmara q`@ 'frH mrmr@</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Machmoun is a cafe located in El Jem, Tunisia. It is open 24 hours a day and has a rating of 4.2 stars out of 5 stars. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. It is located at (36.8883133, 10.3087339).
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2634,12 +3588,71 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Cafe Machmoun located at P1, El Jem. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can visit any time you like. To get there, use these GPS coordinates: 36.8883133, 10.3087339.</t>
+          <t>Cafe Machmoun is a cafe located in El Jem, Tunisia. It is open 24 hours a day and has a rating of 4.2 stars out of 5 stars. The cafe offers a variety of food and drinks, including coffee, tea, pastries, and sandwiches. It is located at (36.8883133, 10.3087339).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe open 24/7 with a range of cafe options in el jem?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ancient ruins of the Ancien amphitheatre d'El Jem, a UNESCO World Heritage Site.
+**Mid-Morning:**
+- Visit the nearby Dar El Jem cafe, which offers panoramic views of the amphitheater.
+**Midday:**
+- Savor local cuisine at Restaurant Ghali, renowned for its Italian dishes.
+**Afternoon:**
+- Relax and swim at Rimel Beach Menzel Jemil, a popular beach club with amenities like a private beach, pool, and restaurant.
+**Evening:**
+- Enjoy a scenic walk through Menzel Jemil Sud, known for its beautiful beaches and historic ruins.
+**Night:**
+- Dine at Rimel Land, a highly-rated seafood restaurant in Menzel Jemil, el jem, Tunisia.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.
+Restaurant Ghali is a highly rated (5.0 / 5) restaurant located at 7080 No-Hope St, Menzel Jemil, Tunisia. It offers a wide range of dishes and services, and its specialties include pizza, pasta, and other Italian dishes. The restaurant is open from 09:00 to 23:00 on all days of the week and is easily accessible by car.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2737,14 +3750,65 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out El jem located at 6PW4+69 El jem, El Hencha. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.1232091, 10.7415639. For more details, visit their website at  or call them at .</t>
+          <t>El Jem is a restaurant in El Jem, Tunisia. It is located at 35.1232091, 10.7415639 and has a rating of 4.8 out of 5. El Jem offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is known for its friendly staff and its relaxed atmosphere.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Which highly-rated restaurant destination in El Jem, known for its exceptional culinary options, can be found at the coordinates 35.1232091, 10.7415639?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient Roman amphitheater, Ancien amphitheatre d'El Jem, and learning about its historical significance.
+Mid-Morning: Trying local cuisine at Fast food Rhouma, known for its delectable dishes and high ratings.
+Midday: Visiting the beautiful marbled quarry, Espase marmara q`@ 'frH mrmr@, to witness the process of marble extraction.
+Afternoon: Relaxing with a rejuvenating experience at Ain el Hanech's natural spring, soaking in the tranquil ambiance.
+Evening: Enjoying a romantic sunset dinner at Ocean Beach Rimel, savoring delicious food while relishing the breathtaking views.
+Night: Participating in the lively atmosphere of El Jem Voyage, booking local tours and immersing in the cultural charm of the area.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2846,12 +3910,71 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to check out, visit Cafe Kacem at 7PW4+4MW Cafe Kacem, Rue Ali Belhareth, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website https://www.google.com/maps/place/Caf%C3%A9+Ka%C3%A7em/data=!4m7!3m6!1s0x1301fc9ce32c4b75:0x7911cdda8a1db588!8m2!3d35.2953597!4d10.7066972!16s%2Fg%2F11cn2m4_3h!19sChIJdUss45z8ARMRiLUditrNEXk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Cafe Kacem" is a cafe located in el jem. Its coordinates are (35.3, 10.71667).</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in El Jem can you indulge in top-rated cafe experiences at Cafe Kacem?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring the well-preserved Roman amphitheater, The Ancient Amphitheater of El Jem, which offers a glimpse into the grandeur of the Roman Empire and showcases impressive architectural features.
+**Mid-Morning:**
+- Trying local cuisine at Fast food Rhouma, a popular restaurant in El Jem offering a variety of dishes and highly rated for its taste and quality.
+**Midday:**
+- Visiting the El Jem Museum, which houses a collection of artifacts and exhibits that provide insights into the history and culture of El Jem and the surrounding region.
+**Afternoon:**
+- Enjoying recreational activities at Rimel Beach Menzel Jemil, a popular beach club featuring a private beach, swimming pool, restaurant, and bar, providing ample opportunities for relaxation and enjoyment.
+**Evening:**
+- Experiencing cultural immersion at the El Jem Amphitheatre, where visitors can attend concerts, shows, or other cultural events held within the ancient Roman structure, creating a unique and memorable ambiance.
+**Night:**
+- Dining at Grillades mshwy, a restaurant specializing in grilled dishes and highly rated for its flavorful offerings, ensuring a satisfying culinary experience to end the day.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a 5-star rated cafe located in Menzel Jemil, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is open from 6am to midnight, seven days a week, and offers free WiFi to its customers. Sunday Coffee is located at coordinates 37.2291348, 9.9224329.
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2957,12 +4080,65 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you find yourself in el jem and seeking a delightful coffee experience, head to Cafe Messadia at 7QX8+VHQ. This highly acclaimed cafe is a haven for coffee enthusiasts, serving a range of exquisite coffee creations. Rated an impressive 5.0, it is a must-visit spot for coffee lovers. The cafe is open 24 hours a day, so you can savor your favorite coffee anytime you desire. For more information and to plan your visit, check out their website or call them at 97 291 378.</t>
+          <t>Cafe Messadia is a cozy cafe located in El Jem, Tunisia. The cafe offers a wide variety of coffee, tea, and pastries. They also serve breakfast, lunch, and dinner. Cafe Messadia is located at 7QX8+VHQ and is open 24 hours a day. The cafe is rated 5.0 stars on Google and has received rave reviews from customers.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>What is the name of the highly acclaimed cafe in El Jem that offers a delightful coffee experience 24 hours a day?</t>
+          <t>Day Plan:
+Morning: **Exploring El Jem's Ancient Amphitheater**
+Mid-Morning: **Trying local cuisine at Restaurant Rhouma**
+Midday: **Visiting the Espase marmara q`@ 'frH mrmr@ marble quarry**
+Afternoon: **Enjoying the seaside at Rimel Beach Menzel Jemil**
+Evening: **Relaxing with a massage at Residence Nour errimel MJ**
+Night: **Participating in a traditional Tunisian dinner party at FASTFOOD ZAYZAFOUNA**</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Experience the vibrant ambiance of Cafe Hmoudi, located on Hopelessness Blvd in Menzel Jemil. This 5-star-rated cafe caters to your caffeine cravings with its convenient 24-hour operation. Enjoy the delicious offerings in a cozy and inviting atmosphere, making it the perfect spot for a coffee break or a relaxing evening out.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3060,14 +4236,65 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Boulangerie Patisserie Issam Eddine located at 7PR3+WJV Boulangerie Patisserie Issam Eddine, C87, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Boulangerie+P%C3%A2tisserie+Issam+Eddine/data=!4m7!3m6!1s0x1301fc9bffffffff:0xc6a90ed728b700ec!8m2!3d35.2923748!4d10.7040332!16s%2Fg%2F11dz5653rd!19sChIJ_____5v8ARMR7AC3KNcOqcY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Boulangerie Patisserie Issam Eddine is a restaurant located in El Jem, Tunisia. It's rated 4.0 stars based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant destination with a diverse selection of dining options in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman amphitheater, El Jem Amphitheatre
+Mid-Morning: Try local cuisine at Restaurant El Hana, known for its friendly service and reasonable prices.
+Midday: Visit the Menzel Jemil Sud, a land mass with an average rating of 4.1.
+Afternoon: Enjoy scenic views at Rimel Beach Menzel Jemil, a popular beach club with a private beach and a swimming pool.
+Evening: Participate in a guided tour of the Ancien amphitheatre d'El Jem, a renowned historical site.
+Night: Relax with a traditional hammam (Turkish bath) experience at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Buvette namouchi is a cafe located in el jem, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is located at 37.23744°N, 9.9221347°E.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3165,12 +4392,77 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out cafe terrasse located at 7PJ3+GMX cafe terrasse, El Jem. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9678941, -6.8292498.</t>
+          <t>Cafe terrasse is a cafe located in El Jem, Tunisia. It offers a variety of beverages and snacks, and is a popular spot for locals and tourists alike. The cafe is located at coordinates (33.9678941, -6.8292498).</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated (5.0) cafe destination for Cafe lovers in el jem, as indicated by GPS coordinates 33.9678941, -6.8292498?</t>
+          <t>Day Plan:
+Morning: Exploring the awe-inspiring Ancien amphitheatre d'El Jem, a testament to ancient Roman grandeur.
+Mid-Morning:
+- Immerse yourself in the local flavors by trying traditional cuisine at Restaurant Pizzeria Rome.
+- Stroll through the bustling streets of El Jem, discovering hidden gems and local markets.
+- Capture stunning panoramic views of the city from a scenic viewpoint.
+Midday:
+- Relish a delightful lunch with a panoramic view of the amphitheater at Cafe Paris.
+- Take a guided tour of the amphitheater, unraveling its fascinating history.
+Afternoon:
+- Enjoy a rejuvenating dip in the outdoor pool at Hotel Julius.
+- Partake in outdoor activities at Rimel Beach Menzel Jemil, soaking up the sun and indulging in water sports.
+Evening:
+- Savory your dinner at Grillades mshwy, renowned for its flavorful grilled dishes.
+- Experience the vibrant nightlife at Ocean Beach Rimel, reveling in live music and dancing the night away.
+Night:
+- Unwind and relax with a soothing massage at a local spa.
+- Immerse yourself in cultural exploration at the El Jem Museum, showcasing the region's rich history and heritage.
+- Conclude the day with a leisurely walk beneath the starlit sky, reflecting on the unforgettable memories created.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Bentaja** is a highly rated cafe located in El Jem, Tunisia. Its exact address is 7PM3+GJW P1. Customers praise the cafe's cozy ambiance and friendly staff. Although there is no explicit mention of its menu or offerings, the main category is listed as "Cafe." Therefore, visitors can expect to enjoy various beverages and light refreshments at Cafe Bentaja.
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3268,14 +4560,69 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Debbabi located at 7PX5+552 Cafe Debbabi, C93, El Jem. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Debbabi/data=!4m7!3m6!1s0x1301fc82ce898a69:0x717a0d7bc4f39478!8m2!3d35.2978972!4d10.7079025!16s%2Fg%2F12qfxyyd_!19sChIJaYqJzoL8ARMReJTzxHsNenE?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Café Debbabi**
+**Description:** Located in El Jem, Café Debbabi offers a cozy and welcoming atmosphere for coffee lovers and cafe enthusiasts alike. It is a popular spot for locals and tourists to enjoy a delightful cup of coffee, relax, and socialize.
+**Location:** The café is situated at the convenient location of 7PX5+552 Cafe Debbabi, C93, El Jem. Its coordinates are (35.3, 10.71667).
+**Categories:**
+- Café</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with a variety of options in the El Jem area?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Amphitheater of El Jem
+Mid-Morning: Trying local cuisine at Grillades mshwy
+Midday: Visiting the Espase marmara q`@ 'frH mrmr@ marble quarry
+Afternoon: Enjoying recreational activities at Rimel Beach Menzel Jemil
+Evening: Shopping for leather goods at Starlight SARL
+Night: Relaxing with a traditional tea at Cafe Paris</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hmoudi is a highly-rated cafe located at Hopelessness Blvd, Menzel Jemil. This 24/7 establishment offers a cozy ambiance and a 5-star experience based on 2 reviews.
+Restaurant Diar El Jem is a restaurant located on Av. Hedi Chaker, El Jem, Tunisia, with a rating of 4.0 stars based on 37 reviews. Its main category is Restaurant and it opens from 09:00-00:00. It's located at the coordinates (35.3, 10.71667).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3381,12 +4728,65 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated Cafe, check out mqh~ lwy'm located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil. This must-visit spot has received a rating of 4.5 and is perfect for Cafe lovers. It's open during these hours: 05:00-00:00, so plan your visit accordingly. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, call them at 53 514 762.</t>
+          <t>mqh~ lwy'm, a 4.5-rated cafe, is located in el jem, Tunisia (37.2291348, 9.9224329).</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in el jem can you find a highly-rated Cafe called mqh~ lwy'm, perfect for a visit at any time of day?</t>
+          <t>Day Plan:
+Morning: Explore the captivating ancient ruins of Ancien amphitheatre d'El Jem, immersing yourself in the rich history of the region.
+Mid-Morning: Treat your taste buds to the tantalizing flavors of traditional Tunisian cuisine at Restaurant Le Bonheur, savoring the authentic culinary delights of the country.
+Midday: bask in the sun-kissed shores of Ocean Beach Rimel, taking an invigorating dip or indulging in thrilling water sports.
+Afternoon: Immerse yourself in the vibrant atmosphere of Peage Menzel Jemil, experiencing the bustling energy and local customs of the town.
+Evening: Relish a delectable dinner at Rimel Land, renowned for its exceptional seafood offerings, while relishing the lively ambiance of the restaurant.
+Night: Stargaze under the twinkling canopy of the night sky at Rimel Beach Menzel Jemil, creating unforgettable memories filled with awe and wonder.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lmlwk is a 4.0-rated cafe located in Menzel Jemil, Tunisia. Its exact address is 6WP4+MR mqh~ lmlwk, Menzel Jemil. The cafe does not have a website or a phone number listed, but it does have a featured image on Google Maps. The main category of the cafe is Cafe, and its coordinates are (37.2291348, 9.9224329).
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3488,14 +4888,71 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe ahbeb located at 7080 No-Hope St, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 03:30-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ahbeb/data=!4m7!3m6!1s0x12e2e1563652627b:0x9b0fc3084956a4ff!8m2!3d37.2360147!4d9.9152076!16s%2Fg%2F11hzldb37c!19sChIJe2JSNlbh4hIR_6RWSQjDD5s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Discover the charming "Cafe ahbeb", a top-rated cafe nestled in the heart of el jem. Whether you're seeking a delectable coffee break or a relaxing evening out, Cafe ahbeb welcomes you with open arms. Located at 37.2291348 latitude and 9.9224329 longitude, this hidden gem offers a warm and inviting ambiance.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>What is the unique experience that Cafe ahbeb offers in El Jem, as evident from its high ratings and positive reviews?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring the well-preserved Roman Amphitheater of El Jem, offering a glimpse into the grandeur of the Roman Empire.
+**Mid-Morning:**
+- Strolling through the ancient streets of Menzel Jemil, discovering hidden gems, and immersing in the local culture.
+**Midday:**
+- Trying local cuisine at Restaurant Ghali, known for its authentic and delicious dishes.
+**Afternoon:**
+- Visiting the Rimel Land seafood restaurant, savoring fresh seafood delicacies while enjoying scenic sea views.
+**Evening:**
+- Shopping at Souk El Jem for local crafts, souvenirs, and traditional Tunisian goods.
+**Night:**
+- Relaxing at Ocean Beach Rimel, enjoying live music, and gazing at the mesmerizing ocean under the starry sky.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a 5-star rated cafe located in Menzel Jemil, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is open from 6am to midnight, seven days a week, and offers free WiFi to its customers. Sunday Coffee is located at coordinates 37.2291348, 9.9224329.
+Restaurant Ghali is a highly-rated restaurant in Menzel Jemil, Tunisia, located at the coordinates (37.23744, 9.9221347) with a 5.0 rating based on 3 reviews. This restaurant offers a dining experience from 9:00 AM to 11:00 PM every day of the week, specializing in its Restaurant category.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3597,12 +5054,65 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Cafe, check out Cafe Nafoura located at 6WX5+4RG Cafe Nafoura, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Nafoura/data=!4m7!3m6!1s0x12e2e023a4a5c77b:0xf3f68e4553ba8f4b!8m2!3d37.2478099!4d9.9095643!16s%2Fg%2F11c60p9dck!19sChIJe8elpCPg4hIRS4-6U0WO9vM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Nafoura is a cafe located in Menzel Jemil, el jem, with a 4.7-star rating based on 6 reviews. It is open daily from 5:00 AM to 11:00 PM and offers various amenities such as a phone, website, and even a featured image. It is located at 37.2291348 latitude and 9.9224329 longitude.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe (4.7 stars) with a prime location in el jem, perfect for indulging in local Cafe delicacies?</t>
+          <t>Day Plan:
+Morning: Exploring El Jem Amphitheater
+Mid-Morning: Trying local cuisine at Restaurant Le Bonheur
+Midday: Visiting El Jem Archaeological Museum
+Afternoon: Enjoying a relaxing swim at Rimel Beach Menzel Jemil
+Evening: Participating in a traditional cooking class at FASTFOOD ZAYZAFOUNA
+Night: Experiencing cultural immersion at the Folklore Museum</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Venus is a highly-rated (4.4/5) cafe situated in El Jem, Tunisia (coordinates: 35.3, 10.71667). It offers a cozy ambiance, where customers can enjoy their delectable offerings. Café Venus operates daily from 6 AM to 11 PM, providing extended hours for those seeking a delightful start or end to their day. The cafe's focal point is on providing a memorable dining experience, making it an ideal destination for individuals and groups seeking a superb gastronomic adventure.
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3704,12 +5214,65 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Sunday Coffee located at 6VPW+GH3 Sunday Coffee, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Sunday+Coffee/data=!4m7!3m6!1s0x12e31f4b0b9df513:0x16aa228faad1c54c!8m2!3d37.2364378!4d9.8963052!16s%2Fg%2F11v0rd14dy!19sChIJE_WdC0sf4xIRTMXRqo8iqhY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It's a popular spot for locals and tourists alike, known for its delicious coffee, friendly staff, and cozy atmosphere. The cafe offers a variety of coffee drinks, as well as a selection of pastries and light snacks. It's a great place to relax and enjoy a cup of coffee with friends or get some work done. Sunday Coffee is open from 6am to 12am, 7 days a week.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a highly rated cafe that offers a range of options and stays open until midnight?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a well-preserved Roman amphitheater built in the 3rd century AD.
+Mid-Morning: Visit the Grillades mshwy restaurant and try local grilled dishes.
+Midday: Take a guided tour of the El Jem Voyage travel agency to learn about tour options and book a local experience.
+Afternoon: Relax at the Rimel Beach Menzel Jemil, a popular beach club offering a private beach, swimming pool, and restaurant.
+Evening: Savor dinner at the El Jem Pizza Restaurant, known for its delicious pizzas.
+Night: Head to the Cafe Paris tea room for tea, coffee, and pastries in a relaxed and friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It offers a wide selection of coffee drinks, as well as a variety of pastries and snacks. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at 6VPW+GH3 Sunday Coffee, Menzel Jemil, and can be contacted at +216 52 948 386.
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3811,12 +5374,71 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated cafe, check out Cafe Hmoudi located at Hopelessness Blvd, Menzel Jemil. It's a must-visit spot with a rating of 5.0. It's open 24 hours a day. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hmoudi/data=!4m7!3m6!1s0x12e2e1a099345a11:0xe9a34e220ecf4ae9!8m2!3d37.2356778!4d9.9024962!16s%2Fg%2F11kxhx38p6!19sChIJEVo0maDh4hIR6UrPDiJOo-k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Experience the vibrant ambiance of Cafe Hmoudi, located on Hopelessness Blvd in Menzel Jemil. This 5-star-rated cafe caters to your caffeine cravings with its convenient 24-hour operation. Enjoy the delicious offerings in a cozy and inviting atmosphere, making it the perfect spot for a coffee break or a relaxing evening out.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe open 24 hours a day, located near el jem?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the well-preserved Roman amphitheater at **Ancien amphitheatre d'El Jem**.
+**Mid-Morning:**
+- Visit the **Museum** located at the Dar El Jem cafe to learn about the history of the Roman amphitheater and the surrounding region.
+**Midday:**
+- Try local Tunisian cuisine at **Restaurant Ghali**, which is highly rated for its culinary delights.
+**Afternoon:**
+- Enjoy a guided tour of the **El Jem Voyage** travel agency to learn about booking flights, accommodations, and tours in the area.
+**Evening:**
+- Relax with a cup of tea or coffee at **Cafe Paris** in Menzel Jemil, renowned for its cozy atmosphere.
+**Night:**
+- Experience cultural immersion at the **Starlight SARL** leather goods manufacturer to learn about traditional leatherworking techniques.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.
+Restaurant Ghali is a highly rated dining establishment located in el jem, Tunisia. It has a 5.0 rating based on 3 reviews and is open from 9:00-23:00 every day. Located at the coordinates (37.23744, 9.9221347) on No-Hope St, Restaurant Ghali serves various culinary delights.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3914,12 +5536,65 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out mqh~ lmlwk located at 6WP4+MR mqh~ lmlwk, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x12e2e14491de778d:0x59a809f672abcff2!8m2!3d37.2366836!4d9.9070498!16s%2Fg%2F11shjnfct2!19sChIJjXfekUTh4hIR8s-rcvYJqFk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mqh~ lmlwk is a 4.0-rated cafe located in Menzel Jemil, Tunisia. Its exact address is 6WP4+MR mqh~ lmlwk, Menzel Jemil. The cafe does not have a website or a phone number listed, but it does have a featured image on Google Maps. The main category of the cafe is Cafe, and its coordinates are (37.2291348, 9.9224329).</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe destination with a range of choices in el jem, perfect for Cafe lovers?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of El Jem Amphitheater, a remarkably preserved Roman landmark with its impressive architecture and historical significance.
+Mid-Morning: Indulge in authentic Tunisian cuisine at Restaurant Diar El Jem. Try traditional dishes while enjoying the lively atmosphere and warm hospitality.
+Midday: Immerse yourself in the local culture by visiting the Espase marmara q`@ 'frH mrmr@ marble quarry. Learn about the traditional techniques used to extract and craft this beautiful stone.
+Afternoon: Enjoy a relaxing afternoon at Rimel Beach Menzel Jemil. Soak up the sun, take a refreshing swim, and indulge in the serene beachside ambiance.
+Evening: Embark on a guided tour of Starlight SARL, a renowned manufacturer of exquisite leather goods. Admire their craftsmanship and find unique souvenirs to cherish your visit.
+Night: Experience the vibrant street life of Menzel Jemil. Visit local markets, sample delicious street food, and engage with the friendly locals to immerse yourself in their culture.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lmlwk is a 4.0-rated cafe located in Menzel Jemil, Tunisia. Its exact address is 6WP4+MR mqh~ lmlwk, Menzel Jemil. The cafe does not have a website or a phone number listed, but it does have a featured image on Google Maps. The main category of the cafe is Cafe, and its coordinates are (37.2291348, 9.9224329).
+Restaurant Diar El Jem is a restaurant located on Av. Hedi Chaker, El Jem, Tunisia, with a rating of 4.0 stars based on 37 reviews. Its main category is Restaurant and it opens from 09:00-00:00. It's located at the coordinates (35.3, 10.71667).
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4017,14 +5692,65 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Cafe, check out bonjour Cafe located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347.</t>
+          <t>bonjour Cafe is a cafe located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080, Tunisia, with coordinates (37.23744, 9.9221347). The cafe has a rating of 4.0 and offers a variety of coffee and tea drinks.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a top-rated café known for its diverse café offerings?</t>
+          <t>Day Plan:
+Morning: Explore the El Jem Amphitheater and learn about its rich history.
+Mid-Morning: Visit the Ancien amphitheatre d'El Jem and delve into the history of this iconic landmark.
+Midday: Savor a traditional Tunisian lunch at La Grillade, a restaurant known for its authentic flavors.
+Afternoon: Relax and rejuvenate with a massage or spa treatment at Hotel resto Dar Ammar, a haven of tranquility.
+Evening: Indulge in a seafood feast at Rimel Land, a highly-rated restaurant known for its delectable dishes.
+Night: Experience the vibrant ambiance and local flavors of Menzel Jemil Sud, a popular destination offering a unique glimpse into Tunisian culture.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le News Du Bled is a cafe located in el jem at the coordinates (37.23618, 9.91448). This cafe with a rating of 5.0 is open from Monday to Thursday from 08:00 to 22:00 and is closed on Friday.
+La Grillade is a restaurant located in Menzel Jemil, Tunisia, offering a variety of dining options. It has a rating of 4.8 and is open from 9:00 AM to 5:00 PM. The restaurant's exact address is 7080 No-Hope St, Menzel Jemil, and its coordinates are (37.2291348, 9.9224329).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4126,12 +5852,65 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great place to grab a bite, head to cafe Ali Ouni located at cafe Ali Ouni, Menzel Jemil 7080. This top-rated Cafe is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, visit their website at https://www.google.com/maps/place/cafe+Ali+Ouni/data=!4m7!3m6!1s0x12e2e109effb74b1:0xe0962149e294d0e2!8m2!3d37.236534!4d9.9227794!16s%2Fg%2F11l59tjjc7!19sChIJsXT77wnh4hIR4tCU4kkhluA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 94 283 039.</t>
+          <t>Cafe Ali Ouni is a highly-rated cafe located in Menzel Jemil, Tunisia. It offers a range of cafe-style food and drinks, and has a cozy and inviting atmosphere. The cafe is located at the coordinates (37.23744, 9.9221347), in the city of el jem.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café with a 5.0 rating, perfect for café lovers, located in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, an impressive Roman landmark.
+Mid-Morning: Visit the Menzel Jemil Sud, a highly-rated area known for its beauty and attractions.
+Midday: Try local cuisine at Fratello PIZZERIA, a highly-rated pizzeria known for its delicious food and quick service.
+Afternoon: Enjoy the beach and recreational activities at Rimel Beach Menzel Jemil, a popular beach club offering a private beach, swimming pool, and more.
+Evening: Take a guided tour of the Espase marmara q`@ 'frH mrmr@ marble quarry to learn about the process of marble quarrying and see the finished products.
+Night: Experience cultural immersion at the FASTFOOD ZAYZAFOUNA, a language-based specialty restaurant famous for its tongue-based dishes.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe mozart, located in Menzel Jemil (37.247972094479, 9.909795160753), is a popular spot among locals. This cafe has a 4.3-star rating and opens 24 hours a day, making it convenient for customers to visit anytime. Unfortunately, not much information on the cafe's menu or specialties is available, but it is undoubtedly a well-received establishment in the area.
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4229,12 +6008,65 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out mqh~ lqySr at 6VPX+86X mqh~ lqySr, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>mqh~ lqySr is a cafe located in Menzel Jemil, Tunisia. It offers a wide range of coffee and tea, as well as light snacks and pastries. The cafe is located in a convenient location, just a short walk from the city center.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a 4.0-rated cafe with a range of categories in el jem?</t>
+          <t>Day Plan:
+Morning: Explore El Jem Amphitheater, a well-preserved Roman amphitheater that offers a glimpse into the grandeur of the ancient Roman Empire.
+Mid-Morning: Visit the National Museum of El Jem to learn about the history and culture of the region.
+Midday: Savor local cuisine at Restaurant Pizzeria Rome, known for its delicious pizzas and stunning views of the coastline.
+Afternoon: Relax on the sandy shores of Rimel Beach Menzel Jemil, enjoying the sun and the sea breeze while swimming, sunbathing, or indulging in water sports.
+Evening: Take a guided tour of the El Jem railway station, a vital transportation hub in the region.
+Night: Experience the vibrant nightlife of El Jem at Cafe Paris, a charming tea room popular among locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mesk Ellil, located in el jem, Tunisia, at coordinates (37.23744, 9.9221347), is a popular cafe known for its cozy atmosphere and excellent coffee. With a rating of 4.5 based on 2 reviews, it is a must-try for coffee enthusiasts in the area.
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4328,12 +6160,65 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out CAFE RADHOUEN. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their link at https://www.google.com/maps/place/CAFE+RADHOUEN/data=!4m7!3m6!1s0x12e2e1ad789804c9:0x496cb9334581bc29!8m2!3d37.2383615!4d9.9286513!16s%2Fg%2F11sfbdvygv!19sChIJyQSYeK3h4hIRKbyBRTO5bEk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CAFE RADHOUEN is a highly rated (5.0/5) cafe located in el jem, Tunisia. It is conveniently situated at 37.2291348 latitude and 9.9224329 longitude, making it easily accessible for customers. Unfortunately, there is no additional information available about its menu, ambience or other offerings.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>What highly-rated cafe in El Jem is known for its delectable offerings, making it a top destination for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a well-preserved Roman amphitheater that offers a glimpse into the grandeur of the Roman Empire.
+Mid-Morning: Visit El Jem Voyage, a reputable travel agency, to book a guided tour of historical and cultural sites in the region.
+Midday: Enjoy a delicious lunch at Le Bonheur 2, a renowned restaurant serving authentic Tunisian cuisine with a 4.3-star rating based on positive reviews.
+Afternoon: Head to Rimel Beach Menzel Jemil, a popular beach club offering a private beach, swimming pool, restaurant, and bar.
+Evening: Dine at FASTFOOD ZAYZAFOUNA, a renowned specialty restaurant famous for its unique tongue-based dishes and exceptional 5.0 rating.
+Night: Experience the lively atmosphere of Cafe Paris, a tea room known for its delicious tea, coffee, and pastries, popular among locals and tourists alike.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE RADHOUEN is a highly rated (5.0/5) cafe located in el jem, Tunisia. It is conveniently situated at 37.2291348 latitude and 9.9224329 longitude, making it easily accessible for customers. Unfortunately, there is no additional information available about its menu, ambience or other offerings.
+Le Bonheur 2, located in El Jem, is a renowned restaurant with a 4.3-star rating based on 24 reviews. Coordiantes are 35.3002338, 10.7166679. Place ID is ChIJE0ysKYP8ARMR8JMxHyAqTBY.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4431,14 +6316,65 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, look no further than Cafe al sousi, located at 7 RN8, Menzel Jemil. 
-This top-rated cafe is perfect for those who love a cup of good coffee and offers a range of drinks to choose from. 
-With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+al+sousi/data=!4m7!3m6!1s0x12e2e196d10dddf3:0x2be7c01d247b2c87!8m2!3d37.2441666!4d9.9111301!16s%2Fg%2F11kq4x8446!19sChIJ890N0Zbh4hIRhyx7JB3A5ys?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe al sousi is a local cafe located in el jem, Tunisia. It has a rating of 5.0.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in el jem, known for its excellent coffee and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman amphitheater, Ancien amphitheatre d'El Jem, for a glimpse into the town's rich history.
+Mid-Morning: Satisfy your taste buds with local cuisine at Rimel Land, a highly-rated seafood restaurant known for its delicious dishes.
+Midday: Visit the marble quarry, Espase marmara q`@ 'frH mrmr@, to learn about the process of marble quarrying and admire the stunning marble.
+Afternoon: Relax at the beach club, Rimel Beach Menzel Jemil, and enjoy the private beach, swimming pool, and refreshing drinks.
+Evening: Indulge in a delightful culinary experience at Pizza le Coin, a highly-rated restaurant with a 4.4-star rating and savor the flavors of El Jem.
+Night: Experience the vibrant nightlife scene at Cafe Paris, a popular tea room known for its delicious tea and coffee and enjoy the relaxed and friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+bonjour Cafe is a cafe located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080, Tunisia, with coordinates (37.23744, 9.9221347). The cafe has a rating of 4.0 and offers a variety of coffee and tea drinks.
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4544,12 +6480,65 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Cafe, check out mqh~ lwy'm located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at  or call them at 53 514 762.</t>
+          <t>mqh~ lwy'm is a cafe located in el jem, Tunisia. It is open from 5am to midnight and has a 4.5-star rating on Google. The cafe has 11 reviews and offers a variety of food and drinks. It is located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can I find a highly rated Cafe with an exceptional 4.5 rating in el jem?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, one of the largest and most impressive Roman amphitheaters in the world.
+Mid-Morning: Visit the Cafe Bacchus for a cozy ambiance and a variety of cafe beverages.
+Midday: Try local cuisine at Grillades mshwy, known for its grilled dishes.
+Afternoon: Relax with a day of swimming, sunbathing, and enjoying the amenities at Rimel Beach Menzel Jemil.
+Evening: Enjoy scenic views at the Espase marmara q`@ 'frH mrmr@ marble quarry, known for its high-quality marble.
+Night: Participate in a traditional Tunisian dinner and cultural show at Restaurant Pizzeria Rome.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bacchus is a well-rated cafe located in el jem, Tunisia. It offers a cozy ambiance and a variety of cafe beverages. The cafe is situated at the coordinates (36.8296533, 10.3141717).
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4655,12 +6644,65 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe experience, head to Le News Du Bled located at 6WM6+4PP Le News Du Bled, Menzel Jemil Sud, Menzel Jemil. This highly-rated spot is perfect for cafe enthusiasts. With a rating of 5.0, it's a must-visit destination. It's open during these hours: 08:00-22:00, but closed on vendredis. For more information, visit their website at  or call them at 25 356 984.</t>
+          <t>Le News Du Bled is a cafe located in el jem at the coordinates (37.23618, 9.91448). This cafe with a rating of 5.0 is open from Monday to Thursday from 08:00 to 22:00 and is closed on Friday.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe experience with a 5.0 rating in El Jem?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient ruins of Ancien amphitheatre d'El Jem
+Mid-Morning: Shopping for traditional leather goods at Starlight SARL
+Midday: Trying local cuisine at Restaurant Rhouma
+Afternoon: Relaxing with a coffee at Cafe Paris
+Evening: Exploring Rimel Beach Menzel Jemil
+Night: Enjoying a traditional Tunisian dinner at Grillades mshwy</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.
+Restaurant Rhouma is a restaurant located in the city of el jem. It has a rating of 4.0 based on 23 reviews. The restaurant offers a variety of dishes, including salads, and is open from 11:00 AM to midnight everyday. It has a featured image showcasing the restaurant's ambiance and is situated at the coordinates (35.3, 10.71667).
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4766,12 +6808,65 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great dining experience, check out Pizza le coin located at 6WQ7+R2H Pizza le coin, P8, Menzel Jemil. This top-rated restaurant is perfect for Restaurant lovers and has a rating of 4.4. It's open during these hours: 09:00-21:00, but closed on mercredis. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at or call them at 23 370 383.</t>
+          <t>Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What is the highly recommended restaurant with a 4.4 rating located at GPS coordinates 37.2291348, 9.9224329 in el jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of El Jem Amphitheater, a UNESCO World Heritage Site that offers a fascinating glimpse into Roman history.
+Mid-Morning: Visit the local market in Menzel Jemil to experience the vibrant atmosphere and purchase souvenirs or local delicacies.
+Midday: Try traditional Tunisian cuisine at Restaurant Ghali, a highly-rated restaurant known for its authentic dishes and warm hospitality.
+Afternoon: Relax and rejuvenate at Rimel Beach Menzel Jemil, a popular beach club that offers a private beach, swimming pool, and refreshing beverages.
+Evening: Enjoy a scenic sunset at Menzel Jemil Sud, a serene land mass with stunning views of the surrounding area.
+Night: Embark on a guided tour of Starlight SARL, a local leather goods manufacturer, to learn about traditional craftsmanship and purchase high-quality leather products.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nafoura is a cafe located in Menzel Jemil, Tunisia. It is open from 5:00am to 11:00pm and offers a variety of services including coffee, tea, and snacks. The cafe is located at 6WX5+4RG, Menzel Jemil and has a rating of 4.7.
+Restaurant Ghali is a highly-rated restaurant in Menzel Jemil, Tunisia, located at the coordinates (37.23744, 9.9221347) with a 5.0 rating based on 3 reviews. This restaurant offers a dining experience from 9:00 AM to 11:00 PM every day of the week, specializing in its Restaurant category.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4869,14 +6964,71 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a cozy spot to relax, check out Cafe Paris. 
-This top-rated destination is perfect for tea lovers and offers a range of tea options to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a wide selection of tea options in el jem?</t>
+          <t>Day Plan:
+**Morning**:
+* Explore the ruins of El Jem, a well-preserved Roman amphitheater that stands as a testament to the grandeur of the ancient world.
+**Mid-Morning**:
+* Visit the Musée Archéologique d'El Jem to learn about the history and culture of the region.
+**Midday**:
+* Enjoy a traditional Tunisian lunch at El Jem Voyage, a restaurant specializing in local cuisine.
+**Afternoon**:
+* Relax and rejuvenate with a massage at Hotel resto Dar Ammar, a 4-star hotel with a luxurious spa.
+**Evening**:
+* Participate in a cooking class at FASTFOOD ZAYZAFOUNA, a culinary adventure that allows you to learn the secrets of Tunisian cooking.
+**Night**:
+* Experience the vibrant atmosphere of the Rimel Beach Menzel Jemil, a beach club where you can enjoy live music, dance, and take a refreshing dip in the pool.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de la jeunesse is a highly rated cafe in el jem with a rating of 4.3 based on 4 reviews. It is located at 6WM8+8RH Cafe de la jeunesse, Impasse de Sousse, Menzel Jemil and is open from 06:00 to 21:00.
+El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4978,12 +7130,65 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in el jem seeking a perfect cafe experience, visit Cafe Nafoura in Menzel Jemil. This top-rated spot serves a variety of cafe options, catering to all tastes. With a 4.7 rating, it's a must-try destination. Operating hours are 05:00-23:00, except for specified closure days. To locate it, use these coordinates: (37.2291348, 9.9224329).</t>
+          <t>Cafe Nafoura is a cafe located in Menzel Jemil, Tunisia. It is open from 5:00am to 11:00pm and offers a variety of services including coffee, tea, and snacks. The cafe is located at 6WX5+4RG, Menzel Jemil and has a rating of 4.7.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe serving a diverse range of options in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a well-preserved Roman relic boasting impressive architectural features.
+Mid-Morning: Visit the El Jem Voyage travel agency to plan your adventures and explore the town's rich history and culture.
+Midday: Relish a delectable local lunch at Grillades mshwy, savoring the authentic flavors of Tunisian cuisine.
+Afternoon: Indulge in retail therapy at Starlight SARL, the highly-rated manufacturer of exquisite leather goods, and find unique souvenirs.
+Evening: Take a scenic stroll along Rimel Beach Menzel Jemil, enjoying the tranquility of the shores and embracing the coastal ambiance.
+Night: Embrace the vibrant atmosphere of Ocean Beach Rimel, a western-style restaurant offering a delightful dining experience under the stars.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mesk Ellil, located in el jem, Tunisia, at coordinates (37.23744, 9.9221347), is a popular cafe known for its cozy atmosphere and excellent coffee. With a rating of 4.5 based on 2 reviews, it is a must-try for coffee enthusiasts in the area.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5085,12 +7290,69 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe ahbeb located at 7080 No-Hope St, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 03:30-00:00, but closed on . To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+ahbeb/data=!4m7!3m6!1s0x12e2e1563652627b:0x9b0fc3084956a4ff!8m2!3d37.2360147!4d9.9152076!16s%2Fg%2F11hzldb37c!19sChIJe2JSNlbh4hIR_6RWSQjDD5s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe ahbeb is a cafe located in el jem, Tunisia. It is open from 03:30 pm to midnight, 7 days a week. The cafe serves a variety of food and drinks, and offers free wifi to its customers. Cafe ahbeb is located at 7080 No-Hope St, Menzel Jemil, and can be reached by phone at (216) 54 800 416.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe destination with a wide range of categories in El Jem?</t>
+          <t>Day Plan:
+Morning: Start your day with a rejuvenating morning at Espase marmara q`@ 'frH mrmr@, a marble quarry that offers a glimpse into the process of marble quarrying. Discover the intricate details and history behind this impressive natural resource.
+Mid-Morning: Head to Café Debbabi for a delightful cup of coffee and engage with friendly locals and tourists alike. Savor the cozy and welcoming ambiance while immersing yourself in the local café culture.
+Midday: Immerse yourself in the grandeur of the Ancient Amphitheater of El Jem, a testament to Roman engineering and architectural prowess. Explore this awe-inspiring landmark and imagine the gladiatorial contests and public events that once took place within its walls.
+Afternoon: Indulge in the authentic flavors of local cuisine at Grillades mshwy. Relish the tantalizing grilled dishes and experience the culinary delights of El Jem.
+Evening: Embark on a guided tour of the El Jem Voyage travel agency. Learn about the diverse travel opportunities and destinations available in this region. Plan your future adventures and gather insights from experienced professionals.
+Night: End your day with a relaxing and revitalizing stay at Hotel resto Dar Ammar, a 4.1-star hotel renowned for its exceptional service and comfortable accommodations. Unwind and rejuvenate in the hotel's inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Debbabi**
+**Description:** Located in El Jem, Café Debbabi offers a cozy and welcoming atmosphere for coffee lovers and cafe enthusiasts alike. It is a popular spot for locals and tourists to enjoy a delightful cup of coffee, relax, and socialize.
+**Location:** The café is situated at the convenient location of 7PX5+552 Cafe Debbabi, C93, El Jem. Its coordinates are (35.3, 10.71667).
+**Categories:**
+- Café
+Restaurant Le Bonheur located in El Jem (longitude: 4.0738428, latitude: 46.034288) is rated 4.0 with 39 reviews and offers traditional cuisine.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5192,12 +7454,65 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Cafe de la jeunesse located at 6WM8+8RH Cafe de la jeunesse, Impasse de Sousse, Menzel Jemil. With a rating of 4.3, it's a must-visit spot for Cafe lovers. It's open daily from 06:00-21:00. To get there, use these GPS coordinates: 37.23319654457, 9.917790582365.</t>
+          <t>Cafe de la jeunesse is a highly rated cafe in el jem with a rating of 4.3 based on 4 reviews. It is located at 6WM8+8RH Cafe de la jeunesse, Impasse de Sousse, Menzel Jemil and is open from 06:00 to 21:00.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated cafe with a daily operating schedule in el jem?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of El Jem, discovering hidden gems like Cafe ahbeb for a delightful coffee break.
+Mid-Morning: Immerse yourself in history by visiting the iconic Ancien amphitheatre d'El Jem, a UNESCO World Heritage Site that showcases the grandeur of Roman architecture.
+Midday: Indulge in a culinary adventure at Fratello PIZZERIA, known for its mouthwatering pizzas and warm ambiance.
+Afternoon: Escape to the serene shores of Rimel Beach Menzel Jemil, engaging in sun-soaked relaxation, swimming, or enjoying water sports.
+Evening: Experience the lively atmosphere of Menzel Jemil Sud, exploring its unique offerings and immersing yourself in the local culture.
+Night: Conclude the day by savoring the flavors of local cuisine at Grillades mshwy, renowned for its delectable grilled dishes.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover the charming "Cafe ahbeb", a top-rated cafe nestled in the heart of el jem. Whether you're seeking a delectable coffee break or a relaxing evening out, Cafe ahbeb welcomes you with open arms. Located at 37.2291348 latitude and 9.9224329 longitude, this hidden gem offers a warm and inviting ambiance.
+Le Bonheur 2, located in El Jem, is a renowned restaurant with a 4.3-star rating based on 24 reviews. Coordiantes are 35.3002338, 10.7166679. Place ID is ChIJE0ysKYP8ARMR8JMxHyAqTBY.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5299,12 +7614,65 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Sunday Coffee located at 6VPW+GH3. This top-rated destination is perfect for cafe lovers and has a rating of 5.0. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at  or call them at .</t>
+          <t>Sunday Coffee is a 5-star rated cafe located in Menzel Jemil, Tunisia. It offers a variety of coffee and tea drinks, as well as a selection of pastries and snacks. The cafe is open from 6am to midnight, seven days a week, and offers free WiFi to its customers. Sunday Coffee is located at coordinates 37.2291348, 9.9224329.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can I find a top-rated cafe with exceptional reviews in El Jem that's open late into the evening?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the ancient ruins of Ancien amphitheatre d'El Jem.
+**Mid-Morning:** Visit Rimel Land for a delicious seafood lunch.
+**Midday:** Take a guided tour of El Jem railway station to learn about its historical significance.
+**Afternoon:** Relax and enjoy the beautiful beach at Rimel Beach Menzel Jemil.
+**Evening:** Visit Restaurant El Hana for a traditional Tunisian dinner.
+**Night:** Enjoy a starlit walk along the coastline at Ocean Beach Rimel.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ali Ouni is a highly-rated cafe located in Menzel Jemil, Tunisia. It offers a range of cafe-style food and drinks, and has a cozy and inviting atmosphere. The cafe is located at the coordinates (37.23744, 9.9221347), in the city of el jem.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5406,12 +7774,65 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe mozart located at RN8, Menzel Jemil 7080. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 37.247972094479, 9.909795160753. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+mozart/data=!4m7!3m6!1s0x12e2e1ca76d7b699:0xc0c12c36677a8d01!8m2!3d37.2288061!4d9.922712!16s%2Fg%2F11rwmflv9l!19sChIJmbbXdsrh4hIRAY16ZzYswcA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe mozart, located in Menzel Jemil (37.247972094479, 9.909795160753), is a popular spot among locals. This cafe has a 4.3-star rating and opens 24 hours a day, making it convenient for customers to visit anytime. Unfortunately, not much information on the cafe's menu or specialties is available, but it is undoubtedly a well-received establishment in the area.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a 4.3 rating in El Jem, open 24 hours a day, and perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring Ain Bittar and capturing the beauty of the water source at this picturesque location.
+Mid-Morning: Visit El Jem Voyage and book an exciting tour to delve into the history and culture of el jem.
+Midday: Indulge in a tantalizing meal at Rimel Land, savoring the delectable flavors of their renowned seafood dishes.
+Afternoon: Immerse yourself in the grandeur of the Ancient Amphitheater of El Jem, witnessing the architectural brilliance of the Roman era.
+Evening: Rejuvenate with a delightful relaxation session at Hotel resto Dar Ammar, enjoying the hotel's amenities and the tranquil ambiance.
+Night: Embark on a culinary adventure at FASTFOOD ZAYZAFOUNA, treating your taste buds to their specialty tongue-based dishes.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Ali Ouni is a local cafe located at 37.23744, 9.9221347. It has a rating of 5.0 stars out of 1 review. The cafe is open 7 days a week and offers a variety of food and drinks. It is located in the city of el jem.
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5513,12 +7934,65 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated cafe, check out Cafe Hmoudi located at Hopelessness Blvd, Menzel Jemil. This cafe offers a range of categories to choose from and is perfect for cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Hmoudi/data=!4m7!3m6!1s0x12e2e1a099345a11:0xe9a34e220ecf4ae9!8m2!3d37.2356778!4d9.9024962!16s%2Fg%2F11kxhx38p6!19sChIJEVo0maDh4hIR6UrPDiJOo-k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Hmoudi is a highly-rated cafe located at Hopelessness Blvd, Menzel Jemil. This 24/7 establishment offers a cozy ambiance and a 5-star experience based on 2 reviews.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>If you happen to be in el jem craving a delectable cafe experience, what top-rated cafe awaits you with a 24-hour operating schedule, delectable cuisine, and convenient access through GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the impressive Roman amphitheater, El Jem Amphitheater, for a glimpse into ancient history.
+Mid-Morning: Treat your tastebuds to some local delicacies at Rimel Land, known for its highly-rated seafood dishes.
+Midday: Immerse yourself in the local culture by visiting the Espase marmara q`@ 'frH mrmr@ marble quarry and learn about the process of marble quarrying.
+Afternoon: Head to Rimel Beach Menzel Jemil, a popular beach club, to enjoy the warm sunshine, swim in the pool, and relax on the private beach.
+Evening: Take a leisurely stroll through Menzel Jemil Sud, admiring the authentic Tunisian ambiance and unique local sights.
+Night: Return to Rimell Land for a delightful dinner, savoring the fresh seafood dishes and enjoying the cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It's a popular spot for locals and tourists alike, known for its delicious coffee, friendly staff, and cozy atmosphere. The cafe offers a variety of coffee drinks, as well as a selection of pastries and light snacks. It's a great place to relax and enjoy a cup of coffee with friends or get some work done. Sunday Coffee is open from 6am to 12am, 7 days a week.
+Restaurant Rhouma is a restaurant located in the city of el jem. It has a rating of 4.0 based on 23 reviews. The restaurant offers a variety of dishes, including salads, and is open from 11:00 AM to midnight everyday. It has a featured image showcasing the restaurant's ambiance and is situated at the coordinates (35.3, 10.71667).
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5616,12 +8090,68 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out mqh~ lmlwk located at 6WP4+MR mqh~ lmlwk, Menzel Jemil. This top-rated destination is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%85%D9%84%D9%88%D9%83%E2%80%AD/data=!4m7!3m6!1s0x12e2e14491de778d:0x59a809f672abcff2!8m2!3d37.2366836!4d9.9070498!16s%2Fg%2F11shjnfct2!19sChIJjXfekUTh4hIR8s-rcvYJqFk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mqh~ lmlwk is a Cafe located in Menzel Jemil, Tunisia.
+It is rated 4.0 by its customers and has a featured image of a cozy-looking cafe interior.
+The place offers a variety of amenities including free wifi, a seating area, and a friendly staff.
+The cafe is located at the coordinates (37.2291348, 9.9224329)</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in El Jem, Tunisia, with GPS coordinates and a website for further information?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman amphitheater, Ancien amphitheatre d'El Jem, and marvel at its historical significance.
+Mid-Morning: Visit the nearby market in Menzel Jemil to experience the local culture, interact with friendly vendors, and purchase unique souvenirs.
+Midday: Indulge in the flavorful local cuisine at Grillades mshwy, known for its mouthwatering grilled dishes, while enjoying the vibrant atmosphere.
+Afternoon: Spend a relaxing afternoon at Rimel Beach Menzel Jemil, soaking up the sun, taking a refreshing dip in the sea, or enjoying a scenic stroll along the beach.
+Evening: Immerse yourself in the local ambiance at Cafe Paris, savoring a delightful tea or coffee while indulging in sweet treats.
+Night: Experience the lively nightlife at Pizza le Coin, savoring delicious pizzas and enjoying live music, providing a perfect end to the day</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bacchus is a well-rated cafe located in el jem, Tunisia. It offers a cozy ambiance and a variety of cafe beverages. The cafe is situated at the coordinates (36.8296533, 10.3141717).
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5719,12 +8249,65 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a cozy and welcoming cafe, make sure to visit bonjour Cafe. Located at 6WP8+F2Q bonjour Cafe, No-Hope St, Menzel Jemil 7080, this top-rated destination is perfect for coffee lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347.</t>
+          <t>**bonjour Cafe** is a cafe located in Menzel Jemil, Tunisia, specializing in coffee and other beverages. It boasts a 4.0 rating from 2 reviews, and its coordinates are (37.23744, 9.9221347).</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>For a cozy coffee break while exploring El Jem, what top-rated café at the coordinates 37.23744, 9.9221347 deserves a visit for its welcoming ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancien amphitheatre d'El Jem.
+Mid-Morning: Visit the nearby Rimel Land for a breakfast of fresh seafood.
+Midday: Take a guided tour of Espase marmara q`@ 'frH mrmr@ to learn about the marble quarrying process.
+Afternoon: Enjoy the picturesque views at Menzel Jemil Sud.
+Evening: Experience the local culture at FASTFOOD ZAYZAFOUNA by trying their famous tongue-based dishes.
+Night: Relax with a soothing spa treatment at Hotel resto Dar Ammar.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mesk Ellil, located in el jem, Tunisia, at coordinates (37.23744, 9.9221347), is a popular cafe known for its cozy atmosphere and excellent coffee. With a rating of 4.5 based on 2 reviews, it is a must-try for coffee enthusiasts in the area.
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5822,12 +8405,65 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Mesk Ellil located at 6WJ9+CMG Cafe Mesk Ellil, No-Hope St, Menzel Jemil 7080. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, visit their website at https://www.google.com/maps/place/Cafe+Mesk+Ellil/data=!4m7!3m6!1s0x12e2e197b0e1f225:0x26277783c79defbc!8m2!3d37.2311138!4d9.9191429!16s%2Fg%2F11kr8292wq!19sChIJJfLhsJfh4hIRvO-dx4N3JyY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Mesk Ellil, located in el jem, Tunisia, at coordinates (37.23744, 9.9221347), is a popular cafe known for its cozy atmosphere and excellent coffee. With a rating of 4.5 based on 2 reviews, it is a must-try for coffee enthusiasts in the area.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in El Jem known for its excellent reviews and ambiance, perfect for a relaxing getaway or casual gathering?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, marveling at its impressive size and architectural features.
+Mid-Morning: Visit the El Jem Voyage travel agency to book an afternoon tour of the amphitheater and learn more about its history.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant Pizzeria Rome, savoring the authentic flavors and ambiance.
+Afternoon: Take a guided tour of the Ancient Amphitheater of El Jem, led by an expert guide who can provide insights into its significance and history.
+Evening: Relax with a coffee at Cafe ahbeb, enjoying the cozy atmosphere and friendly service.
+Night: Indulge in a seafood dinner at Rimel Land, known for its delicious food and attentive service.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ahbeb is a cafe located at 7080 No-Hope St, Menzel Jemil. It offers a wide variety of food and drinks, as well as free Wi-Fi and a friendly atmosphere. The cafe is open from 3:30 AM to midnight, and is closed on Sundays. Cafe ahbeb is a great place to relax and enjoy a cup of coffee or tea.
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5925,16 +8561,71 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe al sousi located at 7 RN8, Menzel Jemil. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 37.246816461761, 9.910547433115. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+al+sousi/data=!4m7!3m6!1s0x12e2e196d10dddf3:0x2be7c01d247b2c87!8m2!3d37.2441666!4d9.9111301!16s%2Fg%2F11kq4x8446!19sChIJ890N0Zbh4hIRhyx7JB3A5ys?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where in el jem can you find a highly-rated Cafe offering a wide selection of options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Exploring the ancient El Jem amphitheater, a UNESCO World Heritage Site.
+**Mid-Morning:**
+* Trying local cuisine at Fastfood Rhouma, known for its burgers and sandwiches.
+**Midday:**
+* Visiting Fratello PIZZERIA for a delicious pizza lunch.
+**Afternoon:**
+* Enjoying a relaxing afternoon tea at Cafe Paris.
+**Evening:**
+* Shopping for souvenirs at the local market in Menzel Jemil.
+**Night:**
+* Having dinner at Grillades mshwy, known for its grilled dishes.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Bentaja** is a highly rated cafe located in El Jem, Tunisia. Its exact address is 7PM3+GJW P1. Customers praise the cafe's cozy ambiance and friendly staff. Although there is no explicit mention of its menu or offerings, the main category is listed as "Cafe." Therefore, visitors can expect to enjoy various beverages and light refreshments at Cafe Bentaja.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6036,14 +8727,65 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out cafe Ali Ouni located at cafe Ali Ouni, Menzel Jemil 7080. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, call them at 94 283 039.</t>
+          <t>Café Ali Ouni is a local cafe located at 37.23744, 9.9221347. It has a rating of 5.0 stars out of 1 review. The cafe is open 7 days a week and offers a variety of food and drinks. It is located in the city of el jem.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in El Jem, Tunisia, known for its exceptional offerings and positive reviews?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Amphitheater of El Jem
+Mid-Morning: Trying local cuisine at Restaurant El Hana
+Midday: Relaxing with a swim at Rimel Beach Menzel Jemil
+Afternoon: Enjoying a scenic tour of Espase marmara q`@ 'frH mrmr@, the marble quarry
+Evening: Shopping for unique leather goods at Starlight SARL
+Night: Engaging in a cultural immersion at the Ain Bittar water source</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ali Ouni is a highly-rated cafe located in Menzel Jemil, Tunisia. It offers a range of cafe-style food and drinks, and has a cozy and inviting atmosphere. The cafe is located at the coordinates (37.23744, 9.9221347), in the city of el jem.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6141,12 +8883,65 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out mqh~ lqySr located at 6VPX+86X mqh~ lqySr, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>**mqh~ lqySr** is a cafe located in Menzel Jemil, Tunisia at the coordinates (37.2291348, 9.9224329). It has a rating of 4.0 based on 1 review. The cafe offers a variety of items, including coffee, tea, and pastries. It is also a popular spot for locals to gather and socialize.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe destination, known for its exceptional selection of cafe, located in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the El Jem Amphitheater.
+Mid-Morning: Visit the El Jem Railway Station for its architectural beauty and transportation significance.
+Midday: Enjoy a delicious seafood lunch at Rimel Land, known for its exceptional cuisine.
+Afternoon: Relax and rejuvenate at the private beach and pool of Rimel Beach Menzel Jemil, a popular beach club.
+Evening: Indulge in a memorable dinner at Grillades mshwy, known for its mouthwatering grilled dishes.
+Night: Experience the vibrant nightlife at Ocean Beach Rimel, offering a 24/7 party atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ali Ouni is a highly-rated cafe located in Menzel Jemil, Tunisia. It offers a range of cafe-style food and drinks, and has a cozy and inviting atmosphere. The cafe is located at the coordinates (37.23744, 9.9221347), in the city of el jem.
+Boulangerie Patisserie Issam Eddine is a restaurant located in El Jem, Tunisia. It's rated 4.0 stars based on 2 reviews.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6248,12 +9043,65 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Buvette namouchi located at 7080 No-Hope St, Menzel Jemil. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, visit their website at https://www.google.com/maps/place/Buvette+namouchi/data=!4m7!3m6!1s0x12e2e187243ce50f:0x85af7854eabba0cd!8m2!3d37.2317021!4d9.9183727!16s%2Fg%2F11jq7bbh_6!19sChIJD-U8JIfh4hIRzaC76lR4r4U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 708 504.</t>
+          <t>Buvette namouchi is a cafe located in el jem, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is located at 37.23744°N, 9.9221347°E.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with excellent reviews and a wide variety of options in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a well-preserved Roman amphitheater offering a glimpse into the grandeur of the Roman Empire.
+Mid-Morning: Try local cuisine at Pizzeria El Capo, known for its delicious pizzas and 4.9-star rating.
+Midday: Visit the Rimel Beach Menzel Jemil, a popular beach club offering a private beach, swimming pool, restaurant, and bar.
+Afternoon: Enjoy scenic views at Menzel Jemil Sud, a land mass with an average rating of 4.1.
+Evening: Participate in a guided tour of Hotel resto Dar Ammar, a 4.1-star hotel renowned for its amenities and convenient location.
+Night: Relax with a traditional tea ceremony at Cafe Paris, a tea room with a relaxed and friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ali Ouni is a highly-rated (5-star) cafe located in Menzel Jemil, near el jem. It has great reviews and is known for being a cafe with a focus on providing a relaxing and enjoyable experience for its guests.
+Pizzeria El Capo is a restaurant located in el jem, Tunisia. Known for its delicious pizzas, the restaurant stays open late to serve customers from 4 p.m. to 4 a.m. It is highly rated, averaging 4.9 stars out of 5, and has received numerous positive reviews for its pizza. The restaurant's exact latitude and longitude are 36.8500785 and 10.2632786, respectively.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6347,15 +9195,65 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great spot to satisfy your coffee craving, head to CAFE RADHOUEN located at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. 
-This top-rated destination is perfect for cafe enthusiasts and boasts a 5.0 rating based on 1 review, making it a must-visit spot. 
-To get there, use these GPS coordinates: 37.2291348, 9.9224329. 
-For more details, visit their website at https://www.google.com/maps/place/CAFE+RADHOUEN/data=!4m7!3m6!1s0x12e2e1ad789804c9:0x496cb9334581bc29!8m2!3d37.2383615!4d9.9286513!16s%2Fg%2F11sfbdvygv!19sChIJyQSYeK3h4hIRKbyBRTO5bEk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CAFE RADHOUEN is a highly acclaimed cafe located at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. Known for its exceptional offerings, this cafe has garnered a 5.0 rating from its satisfied patrons. Situated at the coordinates (37.2291348, 9.9224329), CAFE RADHOUEN is conveniently located for both locals and visitors.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a 5.0 rating and the specific GPS coordinates 37.2291348, 9.9224329 when in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of El Jem Amphitheater, one of the largest and most impressive Roman amphitheaters in the world.
+Mid-Morning: Visit Fratello PIZZERIA for a delicious and highly-rated pizza experience in Menzel Jemil.
+Midday: Try local cuisine at Grillades mshwy, a restaurant in El Jem offering a variety of grilled dishes with a 4.0-star rating on Google Maps.
+Afternoon: Enjoy some outdoor activities like swimming or sunbathing at the popular beach club, Rimel Beach Menzel Jemil.
+Evening: Participate in the vibrant atmosphere of Cafe ahbeb, a popular cafe in El Jem serving food, drinks, and offering free Wi-Fi.
+Night: Experience the cultural immersion at Starlight SARL, a highly-rated manufacturer of leather goods in Menzel Jemil with a 5.0-star rating.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ahbeb is a cafe located in el jem, Tunisia. It is open from 03:30 pm to midnight, 7 days a week. The cafe serves a variety of food and drinks, and offers free wifi to its customers. Cafe ahbeb is located at 7080 No-Hope St, Menzel Jemil, and can be reached by phone at (216) 54 800 416.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6461,12 +9359,65 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated hotel, check out Hotel resto Dar Ammar located at R87, El Jem 5160. This destination is perfect for hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: -35.1062488, 138.5069118. For more details, visit their website at http://www.darammar.com/ or call them at 98 235 565.</t>
+          <t>Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a highly rated hotel for your next trip, providing a range of room categories to cater to your needs?</t>
+          <t>Day Plan:
+Morning: Visit the Ancient Amphitheater of El Jem, marveling at its impressive architecture and historical significance.
+Mid-Morning: Explore the bustling Rimel Beach Menzel Jemil, enjoying the vibrant atmosphere and taking a refreshing dip in the Mediterranean Sea.
+Midday: Savor the delectable offerings of Pizza le coin, a highly-rated restaurant known for its diverse culinary options.
+Afternoon: Immerse yourself in the cultural heritage of Menzel Jemil by visiting the Cafe Paris tea room, sampling local tea and coffee while absorbing the quaint ambiance.
+Evening: Embark on a guided tour of the El Jem railway station, gaining insights into its architectural marvels and transportation significance.
+Night: Indulge in an authentic seafood dinner at Rimel Land, renowned for its fresh catch and charming ambiance.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nafoura is a cafe located in Menzel Jemil, Tunisia. It is open from 5:00am to 11:00pm and offers a variety of services including coffee, tea, and snacks. The cafe is located at 6WX5+4RG, Menzel Jemil and has a rating of 4.7.
+Pizza le coin is a highly rated restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of food options, and is open from 09:00-21:00, except on Wednesdays. You can contact them by phone at 23 370 383, or visit their website for more information.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6568,12 +9519,65 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to stay, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. This top-rated destination is perfect for Hebergement lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where is the top-rated Residence Nour errimel MJ located in El Jem, and what distinguishes it as a recommended destination?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Jem Amphitheater
+Mid-Morning: Try local cuisine at El Jem restaurant, known for its traditional Tunisian and international fare.
+Midday: Visit the S/S SHELL MENZEL JEMIL gas station for a quick refill.
+Afternoon: Enjoy scenic views at the picturesque Menzel Jemil Sud.
+Evening: Indulge in a delightful dinner at Rimel Beach Menzel Jemil, a popular spot for weddings and special events.
+Night: Relax and unwind with a peaceful stay at the Hotel resto Dar Ammar, offering a swimming pool and free Wi-Fi.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mesk Ellil, located in el jem, Tunisia, at coordinates (37.23744, 9.9221347), is a popular cafe known for its cozy atmosphere and excellent coffee. With a rating of 4.5 based on 2 reviews, it is a must-try for coffee enthusiasts in the area.
+El Jem is a restaurant in El Jem, Tunisia. It is located at 35.1232091, 10.7415639 and has a rating of 4.8 out of 5. El Jem offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is known for its friendly staff and its relaxed atmosphere.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6679,14 +9683,65 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great hotel, check out Hotel resto Dar Ammar located at R87, El Jem 5160. With a rating of 4.1, it's a top-rated destination for travelers looking for a comfortable stay. The hotel offers a range of amenities including: 
-- Hotel
-To get there, use these GPS coordinates: -35.1062488, 138.5069118. For more details, visit their website at http://www.darammar.com/ or call them at 98 235 565.</t>
+          <t>**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Which hotel in El Jem boasts a 4.1 rating and is conveniently located for travelers seeking comfort?</t>
+          <t>Day Plan:
+Morning: Explore the impressive El Jem Amphitheater, a well-preserved Roman landmark known for its architectural grandeur.
+Mid-Morning: Immerse yourself in the culinary scene by trying local cuisine at Restaurant Rhouma, known for its delectable salads and welcoming atmosphere.
+Midday: Enjoy a relaxing afternoon tea at Cafe Paris, a charming tea room in Menzel Jemil renowned for its ambiance and variety of teas and pastries.
+Afternoon: Engage in outdoor activities at Rimel Beach Menzel Jemil, a popular beach club offering amenities such as a private beach, swimming pool, and dining options, while soaking up the Mediterranean sun.
+Evening: Experience traditional Tunisian flavors at Grillades mshwy, a restaurant specializing in grilled dishes with a 4.0 rating on Google Maps.
+Night: Unwind and relax with a visit to Starlight SARL, a highly-rated manufacturer of exquisite leather goods where you can admire the craftsmanship and make unique purchases.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a local cafe located in el jem, Tunisia. It has a rating of 5.0.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6796,12 +9851,65 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great hotel, consider Hotel Julius located at Av. Taieb Mhiri, El Jem 5160. This 4.3-rated hotel is perfect for travelers and offers a range of amenities to choose from. With 103 reviews, it's a must-visit spot. To get there, use these GPS coordinates: (35.218759, 10.7068024). For more details, visit their website at http://www.julius.tn/ or call them at 73 631 007.</t>
+          <t>The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Which hotel in El Jem, rated 4.3 with 103 reviews and a wide range of amenities, is located at Av. Taieb Mhiri?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman amphitheater, Ancien amphitheatre d'El Jem
+Mid-Morning: Delve into the history of El Jem at El Jem Voyage
+Midday: Savor authentic Tunisian cuisine at Restaurant Diar El Jem
+Afternoon: Relax and enjoy the beach club amenities at Rimel Beach Menzel Jemil
+Evening: Embark on a guided tour of Espase marmara q`@ 'frH mrmr@, a marble quarry
+Night: Indulge in local grilled dishes and a lively atmosphere at Grillades mshwy</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It's a popular spot for locals and tourists alike, known for its delicious coffee, friendly staff, and cozy atmosphere. The cafe offers a variety of coffee drinks, as well as a selection of pastries and light snacks. It's a great place to relax and enjoy a cup of coffee with friends or get some work done. Sunday Coffee is open from 6am to 12am, 7 days a week.
+Restaurant Diar El Jem is a restaurant located in El Jem, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at 7MXR+X6X, El Jem, Tunisia. It is open from 09:00 to 00:00, and is closed on Sundays. The restaurant has a rating of 4.0 out of 5 on Google Maps.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6903,14 +10011,65 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. 
-This top-rated destination is perfect for Hebergement lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where is Residence Nour errimel MJ located, and what is its notable feature that makes it a must-visit spot?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of the Ancien amphitheatre d'El Jem, a renowned historical site with a rating of 4.5.
+Mid-Morning: Explore El Jem, a city known for its beautiful beaches and historic ruins.
+Midday: Try local cuisine at Restaurant Rhouma, which offers a variety of dishes including salads and has a rating of 4.0 with 23 reviews.
+Afternoon: Enjoy a relaxing day at Rimel Beach Menzel Jemil, a popular beach club with a private beach, swimming pool, restaurant, and bar.
+Evening: Participate in the local culture at Cafe Paris, a tea room known for its delicious tea and coffee with a rating of 4.3.
+Night: Take a romantic stroll along the scenic coastline of El Jem, admiring the breathtaking sunset and enjoying the cool evening breeze.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lwy'm is a cafe located in el jem, Tunisia. It is open from 5am to midnight and has a 4.5-star rating on Google. The cafe has 11 reviews and offers a variety of food and drinks. It is located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7012,12 +10171,65 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to stay, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. This top-rated destination is perfect for those looking for accommodation and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated accommodation with a wide range of services in Menzel Jemil, known for its significant historical landmarks?</t>
+          <t>Day Plan:
+Morning: Start your day by visiting the Ancien amphitheatre d'El Jem, an ancient Roman amphitheater with a rating of 4.5 stars (35.3, 10.71667).
+Mid-Morning: Discover the historical significance of El Jem at the El Jem railway station (35.2937636, 10.7107671), an important transportation hub with a 4.3-star rating.
+Midday: Pamper your taste buds with authentic Tunisian cuisine at Grillades mshwy, a highly-rated restaurant specializing in grilled dishes (8M2Q+7R7 Grillades mshwy, El Jem).
+Afternoon: Relish the stunning views and indulge in relaxation at Rimel Beach Menzel Jemil, a private beach club with amenities like a pool, restaurant, and bar.
+Evening: Experience Tunisia's rich culture at Cafe Paris, a popular tea room known for its delicious refreshments (Menzel Jemil, Tunisia).
+Night: Stay immersed in the local vibe by dining at FASTFOOD ZAYZAFOUNA, a specialty restaurant renowned for its tongue-based dishes and a perfect way to end the day on a delightful note (37.235109817823, 9.91707836753).</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe mozart, located in Menzel Jemil (37.247972094479, 9.909795160753), is a popular spot among locals. This cafe has a 4.3-star rating and opens 24 hours a day, making it convenient for customers to visit anytime. Unfortunately, not much information on the cafe's menu or specialties is available, but it is undoubtedly a well-received establishment in the area.
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7119,13 +10331,69 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great place to stay, check out Residence Nour errimel MJ located at 6WX7+CPV Residence Nour errimel MJ, Menzel Jemil. 
-This top-rated destination is perfect for Hebergement lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.253921291909, -6.594112630279. For more details, visit their website at https://www.google.com/maps/place/Residence+Nour+errimel+MJ/data=!4m10!3m9!1s0x12e2e1e5d73ee6ff:0x69efeaeb122dd383!5m2!4m1!1i2!8m2!3d37.2486211!4d9.9142995!16s%2Fg%2F11kfwsc_ty!19sChIJ_-Y-1-Xh4hIRg9MtEuvq72k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 128 000.</t>
+          <t>Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Hebergement destination with GPS coordinates 34.253921291909, -6.594112630279 and a 4.0 rating near El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the historical El Jem Amphitheater, a well-preserved ancient Roman structure.
+Mid-Morning: Visit the Ancien amphitheatre d'El Jem for a deeper dive into the region's rich history and architectural marvels.
+Midday: Indulge in local cuisine at Restaurant Ghali, renowned for its delectable culinary delights.
+Afternoon: Enjoy the tranquil ambiance of Cafe Paris, savoring a delightful cup of coffee or tea amidst locals and tourists.
+Evening: Immerse yourself in the vibrant atmosphere of Starlight SARL, a highly-rated leather goods manufacturer where you can appreciate exquisite craftsmanship.
+Night: Experience the lively ambiance of FASTFOOD ZAYZAFOUNA, a renowned restaurant specializing in tongue-based delicacies.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Debbabi**
+**Description:** Located in El Jem, Café Debbabi offers a cozy and welcoming atmosphere for coffee lovers and cafe enthusiasts alike. It is a popular spot for locals and tourists to enjoy a delightful cup of coffee, relax, and socialize.
+**Location:** The café is situated at the convenient location of 7PX5+552 Cafe Debbabi, C93, El Jem. Its coordinates are (35.3, 10.71667).
+**Categories:**
+- Café
+Restaurant Ghali is a highly rated dining establishment located in el jem, Tunisia. It has a 5.0 rating based on 3 reviews and is open from 9:00-23:00 every day. Located at the coordinates (37.23744, 9.9221347) on No-Hope St, Restaurant Ghali serves various culinary delights.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7223,12 +10491,65 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great train station to visit, check out El Jem located at El Jem. This top-rated destination is perfect for train station lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.2937636, 10.7107671. For more details, visit their website at https://www.google.com/maps/place/El+Jem/data=!4m7!3m6!1s0x1301fc9df77a67fb:0xfd86c94101f7fb35!8m2!3d35.2926775!4d10.7094891!16s%2Fg%2F1tsvw2z3!19sChIJ-2d69538ARMRNfv3AUHJhv0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Where is the top-rated train station in El Jem, perfect for enthusiasts and offering various categories of interest?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Amphitheater of El Jem
+Mid-Morning: Trying local cuisine at Grillades mshwy
+Midday: Relaxing with a massage at the Hotel Julius
+Afternoon: Enjoying scenic views at Rimel Beach Menzel Jemil
+Evening: Participating in a traditional cooking class at Cafe Paris
+Night: Experiencing cultural immersion at the Espase marmara q`@ 'frH mrmr@ marble quarry</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.
+Restaurant El Hana is a 4.7-rated restaurant in El Jem, Tunisia. It offers a wide range of dishes, including salads, brochettes, grillades, and poulet. The restaurant is known for its great food, friendly staff, and beautiful view of the nearby amphitheater. It is open from 9am to 5pm, closed on Mondays, and is located at 7PW5+65C, El Jem.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7330,12 +10651,65 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a fascinating historical site, check out Ancien amphitheatre d'El Jem located at Rue Avicenne, El Jem. This top-rated destination is perfect for history enthusiasts and offers a glimpse into the rich heritage of the region. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Ancien+amphith%C3%A9%C3%A2tre+d%27El+Jem/data=!4m7!3m6!1s0x1301fda6df12444f:0x1a9bc1bb4bad8eed!8m2!3d35.2901454!4d10.7079745!16s%2Fg%2F11h7_tvp5h!19sChIJT0QS36b9ARMR7Y6tS7vBmxo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 630 093.</t>
+          <t>Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>What is the name and location of the top-rated historical site for history enthusiasts in El Jem, known for its ancient Roman architecture?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the El Jem Amphitheatre, a UNESCO World Heritage site.
+Mid-Morning: Visit the Ancien Amphitheatre d'El Jem, a smaller but equally impressive Roman amphitheater.
+Midday: Try local cuisine at Restaurant Pizzeria Rome, known for its delicious pizzas and Italian dishes.
+Afternoon: Enjoy a relaxing afternoon at Rimel Beach Menzel Jemil, a popular beach club with a private beach, swimming pool, and restaurant.
+Evening: Explore the vibrant streets of Menzel Jemil, visit the lively Cafe al sousi for a traditional Tunisian coffee or tea, and shop for local souvenirs at the local market.
+Night: Experience the cultural heritage of Menzel Jemil at the traditional tea room Cafe Paris, known for its cozy atmosphere and authentic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7433,15 +10807,71 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out El Jem Voyage located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem. 
-This top-rated destination is perfect for Agence de voyages lovers. 
-With a rating of 4.5, it's a must-visit spot. 
-For more details, visit their website at https://www.google.com/maps/place/El+Jem+Voyage/data=!4m7!3m6!1s0x1301fc833f7807b7:0x7c91a32bde72274b!8m2!3d35.2988301!4d10.7056359!16s%2Fg%2F11b_3grn4c!19sChIJtwd4P4P8ARMRSydy3iujkXw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination in El Jem that is perfect for those interested in Agence de voyages?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient ruins of **Ancien Amphitheatre d'El Jem** for a glimpse into Roman history.
+**Mid-Morning:**
+* Visit the **El Jem Railway Station**, a vital transportation hub with historical significance.
+**Midday:**
+* Savor a delectable seafood lunch at **Rimel Land**, renowned for its exceptional cuisine.
+**Afternoon:**
+* Relax and enjoy the tranquility of **Ain Bittar**, a natural water source with crystal-clear waters.
+**Evening:**
+* Indulge in traditional grilled dishes at **Grillades mshwy**, known for its authentic flavors.
+**Night:**
+* Experience the lively atmosphere of **Rimel Beach Menzel Jemil**, a popular beach club with a private beach and entertainment options.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**bonjour Cafe** is a cafe located in Menzel Jemil, Tunisia, specializing in coffee and other beverages. It boasts a 4.0 rating from 2 reviews, and its coordinates are (37.23744, 9.9221347).
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7539,12 +10969,65 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Rimel Beach Menzel Jemil located at 7W4G+697 Rimel Beach Menzel Jemil, Menzel Jemil. This top-rated destination is perfect for Pavillon de plage lovers and offers a range of Pavillon de plage to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Rimel+Beach+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e0484f29b989:0x1df8165a672797f0!8m2!3d37.2555499!4d9.9259329!16s%2Fg%2F1v8yzklv!19sChIJibkpT0jg4hIR8JcnZ1oW-B0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated beach destination with numerous Pavillon de plage options in el jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the Roman amphitheater, The Ancient Amphitheater of El Jem.
+Mid-Morning: Visit the Dar El Jem cafe, nestled in the heart of El Jem, for a traditional Tunisian breakfast while admiring the nearby Roman amphitheater ruins.
+Midday: Savor the flavors of local cuisine at Restaurant Rhouma, known for its delicious salads and warm ambiance.
+Afternoon: Take a leisurely stroll through the El Jem market, where you can find unique local crafts and souvenirs.
+Evening: Witness the captivating beauty of a traditional Tunisian dance performance at a local venue.
+Night: Indulge in the serene atmosphere of Ain Bittar, a natural water source where you can unwind and embrace the tranquility of its crystal-clear waters.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.
+Restaurant Rhouma is a restaurant located in the city of el jem. It has a rating of 4.0 based on 23 reviews. The restaurant offers a variety of dishes, including salads, and is open from 11:00 AM to midnight everyday. It has a featured image showcasing the restaurant's ambiance and is situated at the coordinates (35.3, 10.71667).
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7642,10 +11125,67 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Menzel Jemil Sud located at Menzel Jemil Sud, Menzel Jemil. This top-rated destination is perfect for Land mass lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448.</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr"/>
+          <t>Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Exploring the awe-inspiring Ancien amphitheatre d'El Jem
+Mid-Morning: Trying local cuisine at the highly-rated Cafe Venus
+Midday: Visiting the El Jem Voyage travel agency to plan the rest of your trip
+Afternoon: Enjoying a relaxing afternoon tea at Cafe Paris
+Evening: Exploring the lively Rimel Beach Menzel Jemil
+Night: Dining at the top-rated seafood restaurant Rimel Land</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7737,12 +11277,67 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in el jem looking for something fun to do, check out ZI Menzel Jemil located at 6WCP+FMC ZI Menzel Jemil, Natl 8, Menzel Jemil 7080. 
-This top-rated is perfect for lovers and offers a range of to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at or call them at 72 440 758.</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr"/>
+          <t>ZI Menzel Jemil is a business park located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.23618, 9.91448) and can be contacted by phone at 72 440 758. The business park has an overall rating of 4.7 stars based on 9 reviews. It offers a variety of amenities and services to businesses operating within the park.</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of El Jem Amphitheatre, a UNESCO World Heritage Site.
+Mid-Morning: Visit the El Jem railway station, a bustling hub of transportation and a testament to the city's rich history.
+Midday: Savor a traditional Tunisian lunch at Fast food Rhouma, a highly-rated restaurant known for its authentic flavors.
+Afternoon: Relax and soak up the sun at Rimel Beach Menzel Jemil, a scenic beach club offering stunning views and a refreshing escape.
+Evening: Indulge in a luxurious spa treatment at Hotel resto Dar Ammar, a renowned 4.1-star hotel offering a haven of tranquility and rejuvenation.
+Night: Experience the vibrant nightlife at Ocean Beach Rimel, a lively western restaurant known for its lively atmosphere and 24-hour service.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Hmoudi is a highly-rated cafe located at Hopelessness Blvd, Menzel Jemil. This 24/7 establishment offers a cozy ambiance and a 5-star experience based on 2 reviews.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7846,12 +11441,71 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Rimel Land located at 7W39+HX Rimel Land, Menzel Jemil. This top-rated destination is perfect for seafood lovers. With a rating of 4.7, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Rimel+Land/data=!4m7!3m6!1s0x12e2e100035ac19f:0x84365c5361b185c4!8m2!3d37.2538916!4d9.9199854!16s%2Fg%2F11y2yypl5k!19sChIJn8FaAwDh4hIRxIWxYVNcNoQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 230 523.</t>
+          <t>Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you go in el jem for a highly-rated seafood experience open 24 hours a day?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the ancient ruins of El Jem Amphitheatre, a well-preserved Roman wonder.
+**Mid-Morning:**
+* Visit Cafe Machmoun for a leisurely coffee break and enjoy the welcoming ambiance.
+**Midday:**
+* Try local cuisine at Restaurant El Hana, known for its delicious dishes and reasonable prices.
+**Afternoon:**
+* Embark on a guided tour of Espase marmara q`@ 'frH mrmr@, a marble quarry showcasing the process of marble extraction.
+**Evening:**
+* Relax and rejuvenate with a spa treatment at the luxurious Hotel resto Dar Ammar, conveniently located near the amphitheater.
+**Night:**
+* Enjoy dinner at Rimel Land, a highly-rated seafood restaurant. Afterward, head to Starlight SARL for an authentic shopping experience featuring handcrafted leather goods.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Machmoun is a highly-rated cafe located in El Jem, Tunisia. It boasts a 4.2-star rating and is open 24 hours a day. Cafe Machmoun's primary focus is on providing a welcoming ambiance for customers to enjoy a cup of coffee or a bite to eat. It is situated at coordinates (36.8883133, 10.3087339), making it easily accessible to patrons in the area.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7953,15 +11607,65 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ancien amphitheatre d'El Jem located at Rue Avicenne, El Jem. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. 
-For more details, visit their website at https://www.google.com/maps/place/Ancien+amphith%C3%A9%C3%A2tre+d%27El+Jem/data=!4m7!3m6!1s0x1301fda6df12444f:0x1a9bc1bb4bad8eed!8m2!3d35.2901454!4d10.7079745!16s%2Fg%2F11h7_tvp5h!19sChIJT0QS36b9ARMR7Y6tS7vBmxo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 630 093.</t>
+          <t>The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you find an exceptional Site historique destination with a 4.5 rating, located in El Jem, featuring a variety of Site historique options for Site historique enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the magnificent Ancient Amphitheater of El Jem, a well-preserved Roman architectural marvel.
+Mid-Morning: Visit the El Jem Voyage travel agency to book a guided tour of the Amphitheater and learn about its fascinating history.
+Midday: Savor delicious local cuisine at Pizzeria El Capo, renowned for its mouthwatering pizzas.
+Afternoon: Engage in retail therapy at Starlight SARL, a highly-rated leather goods manufacturer, or shop for souvenirs at the local market.
+Evening: Experience the vibrant ambiance of Cafe Paris, a charming tea room perfect for sipping tea and enjoying the company of locals.
+Night: Immerse yourself in the flavors of FASTFOOD ZAYZAFOUNA, a unique restaurant specializing in tongue-based dishes.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE RADHOUEN is a highly rated (5.0/5) cafe located in el jem, Tunisia. It is conveniently situated at 37.2291348 latitude and 9.9224329 longitude, making it easily accessible for customers. Unfortunately, there is no additional information available about its menu, ambience or other offerings.
+Pizzeria El Capo is a highly-rated restaurant located in El Jem, Tunisia, known for its delicious pizzas. With an impressive 4.9 rating out of 13 reviews, it is a popular spot for locals and tourists alike. The restaurant serves mouth-watering pizzas as its specialty, as highlighted by the numerous positive reviews mentioning the dish. Pizzeria El Capo is conveniently situated at 7PV5+R78, Ave Habib Bourguiba, and is open from 4 PM to 4 AM, making it a great option for a late-night treat.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8059,12 +11763,65 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do related to Land mass, check out Menzel Jemil Sud located at Menzel Jemil Sud, Menzel Jemil. This top-rated destination is perfect for Land mass lovers and offers a rating of 4.1. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>What is the top-rated destination in Menzel Jemil that is perfect for Land mass enthusiasts, located at GPS coordinates 37.23618, 9.91448?</t>
+          <t>Day Plan:
+Morning: Explore the breathtaking Ancien amphitheatre d'El Jem, a historical marvel that transports you back in time.
+Mid-Morning: Indulge in local flavors at El Hana, renowned for its delectable salads, brochettes, and grilled chicken.
+Midday: Visit the El Jem Railway Station, a bustling hub of transportation, and take a scenic train ride to Menzel Jemil.
+Afternoon: Enjoy a relaxing afternoon tea at Cafe Paris, known for its charming ambiance and delicious teas.
+Evening: Immerse yourself in the vibrant atmosphere of Rimel Beach Menzel Jemil, offering a private beach, swimming pool, and exquisite dining options.
+Night: Experience a captivating cultural performance at El Jem Amphitheatre, where history comes alive through music and dance.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover the charming "Cafe ahbeb", a top-rated cafe nestled in the heart of el jem. Whether you're seeking a delectable coffee break or a relaxing evening out, Cafe ahbeb welcomes you with open arms. Located at 37.2291348 latitude and 9.9224329 longitude, this hidden gem offers a warm and inviting ambiance.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8170,12 +11927,65 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated Fabricant de maroquinerie destination, check out Starlight SARL located at 6WFQ+38M Starlight SARL, Main Street, Menzel Jemil 7080. This must-visit spot offers a range of Fabricant de maroquinerie to choose from and has a rating of 5.0. It's open during these hours: 08:00-16:00, but closed on samedi, dimanche. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more details, call them at 72 440 753.</t>
+          <t>Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find Starlight SARL, a highly-rated destination for Fabricant de maroquinerie?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of El Jem Amphitheater
+Mid-Morning: Try local cuisine at Grillades mshwy
+Midday: Visit the Hotel Julius for a comfortable lunch and enjoy outdoor pool access
+Afternoon: Enjoy recreational activities at Rimel Beach Menzel Jemil
+Evening: Take a guided tour of Starlight SARL to witness the art of leather craftsmanship
+Night: Relax at Cafe ahbeb with a cup of coffee or tea and unwind after a day filled with exploration</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover the charming "Cafe ahbeb", a top-rated cafe nestled in the heart of el jem. Whether you're seeking a delectable coffee break or a relaxing evening out, Cafe ahbeb welcomes you with open arms. Located at 37.2291348 latitude and 9.9224329 longitude, this hidden gem offers a warm and inviting ambiance.
+Pizzeria El Capo is a highly-rated restaurant located in El Jem, Tunisia, known for its delicious pizzas. With an impressive 4.9 rating out of 13 reviews, it is a popular spot for locals and tourists alike. The restaurant serves mouth-watering pizzas as its specialty, as highlighted by the numerous positive reviews mentioning the dish. Pizzeria El Capo is conveniently situated at 7PV5+R78, Ave Habib Bourguiba, and is open from 4 PM to 4 AM, making it a great option for a late-night treat.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8269,12 +12079,65 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is perfect for Source d'eau lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination perfect for Source d'eau enthusiasts in el jem, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a well-preserved Roman amphitheater built in the 3rd century AD.
+Mid-Morning: Try local cuisine at Cafe Paris, a tea room in Menzel Jemil known for its delicious tea and coffee.
+Midday: Visit the Hotel Julius in El Jem, which offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe.
+Afternoon: Enjoy a relaxing afternoon tea at Ain Bittar, an exceptional water source in the heart of Menzel Jemil with a 4.4-star rating.
+Evening: Experience cultural immersion at Espace marmara q`@ 'frH mrmr@, a marble quarry in El Jem that produces high-quality marble used in various applications.
+Night: Dine at Grillades mshwy, a restaurant in El Jem offering a variety of grilled dishes with a 4.0 rating on Google Maps.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lwy'm, a 4.5-rated cafe, is located in el jem, Tunisia (37.2291348, 9.9224329).
+Le Bonheur 2 is a restaurant located in El Jem, Tunisia, offering a variety of dishes at affordable prices. Situated at coordinates (35.3, 10.71667), the restaurant is open from 9:00 AM to 10:00 PM on weekdays and has received positive reviews from customers, with an average rating of 4.3 out of 5.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8372,14 +12235,69 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Source d'eau, check out Ain Bittar located at Ain Bittar, Menzel Jemil. 
-This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Ain+Bittar/data=!4m7!3m6!1s0x12e2e023a3117117:0xd2807c602f5772c0!8m2!3d37.2479301!4d9.9096116!16s%2Fg%2F1q62mz_rl!19sChIJF3ERoyPg4hIRwHJXL2B8gNI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at +216 21 117 577.</t>
+          <t>Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a highly rated Source d'eau destination with GPS coordinates of 37.2291348, 9.9224329?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Amphitheater of El Jem
+Mid-Morning: Trying local cuisine at Restaurant Rhouma
+Midday: Visiting the El Jem Voyage travel agency to plan further adventures
+Afternoon: Exploring the Rimel Land seafood restaurant for a culinary treat
+Evening: Relaxing with a spa treatment at Hotel resto Dar Ammar
+Night: Participating in a cultural immersion at the Menzel Jemil Sud historical site</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Debbabi**
+**Description:** Located in El Jem, Café Debbabi offers a cozy and welcoming atmosphere for coffee lovers and cafe enthusiasts alike. It is a popular spot for locals and tourists to enjoy a delightful cup of coffee, relax, and socialize.
+**Location:** The café is situated at the convenient location of 7PX5+552 Cafe Debbabi, C93, El Jem. Its coordinates are (35.3, 10.71667).
+**Categories:**
+- Café
+Restaurant Rhouma is a restaurant located in the city of el jem. It has a rating of 4.0 based on 23 reviews. The restaurant offers a variety of dishes, including salads, and is open from 11:00 AM to midnight everyday. It has a featured image showcasing the restaurant's ambiance and is situated at the coordinates (35.3, 10.71667).
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8473,12 +12391,71 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where in el jem can you find a highly-rated (5.0) destination for Source d'eau enthusiasts, located at Ain el Hanech, Menzel Jemil?</t>
+          <t>Day Plan:
+Morning:
+- Exploring the Ancient Amphitheater of El Jem, experiencing its grandeur and architectural significance.
+Mid-Morning:
+- Trying local cuisine at Restaurant Diar El Jem, indulging in authentic Tunisian flavors.
+Midday:
+- Taking a guided tour of El Jem Voyage, learning about the diverse travel options and attractions the town offers.
+Afternoon:
+- Relaxing with a rejuvenating spa treatment at Hotel resto Dar Ammar, soothing away travel fatigue.
+Evening:
+- Participating in a cultural event or activity at the Espase marmara q`@ 'frH mrmr@ marble quarry, witnessing traditional craftsmanship.
+Night:
+- Enjoying scenic views at Rimel Beach Menzel Jemil, capturing the beauty of the coastline and indulging in a romantic ambiance.</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Experience the vibrant ambiance of Cafe Hmoudi, located on Hopelessness Blvd in Menzel Jemil. This 5-star-rated cafe caters to your caffeine cravings with its convenient 24-hour operation. Enjoy the delicious offerings in a cozy and inviting atmosphere, making it the perfect spot for a coffee break or a relaxing evening out.
+Restaurant Diar El Jem is a restaurant located on Av. Hedi Chaker, El Jem, Tunisia, with a rating of 4.0 stars based on 37 reviews. Its main category is Restaurant and it opens from 09:00-00:00. It's located at the coordinates (35.3, 10.71667).
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8572,12 +12549,65 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain Najah at Ain Najah, Menzel Jemil. This top-rated Source d'eau is perfect for Source d'eau lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Ain+Najah/data=!4m7!3m6!1s0x12e2e0693b066cd9:0x24327e0443b3bc78!8m2!3d37.2378838!4d9.9316835!16s%2Fg%2F1hc1v5d8l!19sChIJ2WwGO2ng4hIReLyzQwR-MiQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Source d'eau in el jem, known for its exceptional source d'eau experience?</t>
+          <t>Day Plan:
+Morning: Arrive in Menzel Jemil and explore the vibrant streets
+Mid-Morning: Visit Fratello PIZZERIA for a delicious local pizza
+Midday: Explore the fascinating Ancient Amphitheater of El Jem
+Afternoon: Relax and soak up the sun at Rimel Beach Menzel Jemil
+Evening: Dine at Rimel Land, savoring their delectable seafood dishes
+Night: Experience the vibrant nightlife at one of Menzel Jemil's local clubs</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe terrasse is a cafe located in El Jem, Tunisia. It offers a variety of beverages and snacks, and is a popular spot for locals and tourists alike. The cafe is located at coordinates (33.9678941, -6.8292498).
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8675,14 +12705,65 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Source d'eau, check out Ain Bittar located at Ain Bittar, Menzel Jemil. 
-This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at  or call them at .</t>
+          <t>Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where in el jem can you find a highly rated Ain Bittar that offers a selection of Source d'eau?</t>
+          <t>Day Plan:
+Morning: Explore the awe-inspiring Ancient Amphitheater of El Jem, a testament to Roman architectural prowess.
+Mid-Morning: Immerse yourself in local flavors by trying a delectable seafood dish at Rimel Land, known for its culinary expertise.
+Midday: Head to Le Bonheur 2 and savor a delightful meal, earning it a well-deserved 4.3-star rating.
+Afternoon: Enjoy a relaxing stroll through El Jem, admiring the historic landmarks and vibrant local culture.
+Evening: Indulge in a luxurious Hammam experience at Hotel resto Dar Ammar, a perfect way to unwind after a day of exploration.
+Night: Experience the captivating atmosphere of the Rimel Beach Menzel Jemil, renowned for its scenic beauty and vibrant nightlife.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It offers a wide selection of coffee drinks, as well as a variety of pastries and snacks. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at 6VPW+GH3 Sunday Coffee, Menzel Jemil, and can be contacted at +216 52 948 386.
+Le Bonheur 2, located in El Jem, is a renowned restaurant with a 4.3-star rating based on 24 reviews. Coordiantes are 35.3002338, 10.7166679. Place ID is ChIJE0ysKYP8ARMR8JMxHyAqTBY.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8780,12 +12861,65 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, Menzel Jemil Sud is a must-visit spot. This top-rated destination, located at Menzel Jemil Sud, Menzel Jemil, is perfect for Land mass lovers and offers a range of Land mass to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448.</t>
+          <t>Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in Menzel Jemil can you find a must-visit spot for Land mass enthusiasts, boasting a 4.1 rating and offering a variety of Land mass options?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Roman Amphitheater of El Jem (Known as Ancien amphitheatre d'El Jem)
+Mid-Morning: Trying local cuisine at Restaurant Diar El Jem
+Midday: Visiting the historic site of Espase marmara q`@ 'frH mrmr@, El Jem
+Afternoon: Relaxing with a cup of coffee at Cafe Machmoun
+Evening: Enjoying the scenic views at Rimel Beach Menzel Jemil
+Night: Trying Rimel Land specializing in fresh seafood for dinner.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Machmoun is a highly-rated cafe located in El Jem, Tunisia. It boasts a 4.2-star rating and is open 24 hours a day. Cafe Machmoun's primary focus is on providing a welcoming ambiance for customers to enjoy a cup of coffee or a bite to eat. It is situated at coordinates (36.8883133, 10.3087339), making it easily accessible to patrons in the area.
+Restaurant Diar El Jem is a restaurant located in El Jem, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at 7MXR+X6X, El Jem, Tunisia. It is open from 09:00 to 00:00, and is closed on Sundays. The restaurant has a rating of 4.0 out of 5 on Google Maps.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8883,12 +13017,65 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a refreshing source of water, check out Ain Bittar located at Ain Bittar, Menzel Jemil. This top-rated destination is perfect for nature lovers and offers a peaceful and serene atmosphere to relax and enjoy the beauty of nature. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Question: Where in el jem can you find a highly-rated serene and beautiful natural spring called Ain Bittar with GPS coordinates of 37.2291348, 9.9224329?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the El Jem Amphitheater, one of the largest and most impressive Roman amphitheaters in the world.
+Mid-Morning: Visit the Ain el Hanech natural water source for a refreshing break and enjoy the beautiful scenery.
+Midday: Try local cuisine at Grillades mshwy, a restaurant known for its grilled dishes and high ratings.
+Afternoon: Relax with a massage or spa treatment at Hotel resto Dar Ammar, a popular hotel offering a range of amenities.
+Evening: Enjoy scenic views at Rimel Beach Menzel Jemil, a beach club offering a private beach, swimming pool, and stunning sunsets.
+Night: Experience cultural immersion at a traditional Tunisian music and dance performance at Cafe Mesk Ellil, a cozy cafe with a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Mesk Ellil, located in el jem, Tunisia, at coordinates (37.23744, 9.9221347), is a popular cafe known for its cozy atmosphere and excellent coffee. With a rating of 4.5 based on 2 reviews, it is a must-try for coffee enthusiasts in the area.
+El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8982,12 +13169,71 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is perfect for Source d'eau lovers and offers a range of Source d'eau to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>What is the top-rated destination in el jem with a 5.0 rating, perfect for Source d'eau lovers and offering a range of options to choose from?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Ancient Amphitheater of El Jem, a well-preserved Roman amphitheater built in the 3rd century AD.
+**Mid-Morning:**
+- Visit Dar El Jem Cafe, a unique dining experience offering traditional Tunisian cuisine with views of the Roman amphitheater.
+**Midday:**
+- Enjoy a buffet-style lunch at Hotel resto Dar Ammar, conveniently located near the amphitheater.
+**Afternoon:**
+- Explore the town of El Jem and enjoy the local atmosphere at Cafe Paris.
+**Evening:**
+- Immerse yourself in the local culture at a traditional Tunisian music and dance performance at an event or venue in El Jem.
+**Night:**
+- Relax and unwind with a massage or spa treatment at a local spa or hotel.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9085,12 +13331,65 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Menzel Jemil Sud located at Menzel Jemil Sud, Menzel Jemil. This top-rated destination is perfect for Land mass lovers and offers a range of Land mass to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at  .</t>
+          <t>Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find a top-rated Land mass destination with a 4.1 rating and the name Menzel Jemil Sud?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the impressive Ancien amphitheatre d'El Jem (Ancient Amphitheater of El Jem), a UNESCO World Heritage Site that offers a glimpse into the grandeur of ancient Roman architecture. Take a guided tour to learn about its fascinating history and marvel at its well-preserved structure.
+Mid-Morning: Head to Restaurant Pizzeria Rome for a delicious and authentic Italian lunch. Enjoy a variety of pizzas and other Italian specialties while soaking up the lively atmosphere.
+Midday: Spend your afternoon at Rimel Beach Menzel Jemil, a popular beach club known for its pristine sands, crystal-clear waters, and excellent amenities. Relax on the sun loungers, take a refreshing swim, or engage in water sports like jet skiing or parasailing.
+Afternoon: Experience the authentic local flavors of Tunisia at FASTFOOD ZAYZAFOUNA, a highly-rated restaurant specializing in tongue-based dishes. Indulge in their renowned tongue tagine or sample other traditional delicacies.
+Evening: Immerse yourself in the vibrant ambiance of Cafe al sousi, a charming cafe known for its aromatic coffee and delectable pastries. Unwind with a cup of traditional Tunisian coffee while savoring the atmosphere of this local gem.
+Night: Conclude your day with a visit to Starlight SARL, a highly-rated leather goods manufacturer in Menzel Jemil. Browse through their exquisite collection of handcrafted leather products, and treat yourself to a unique souvenir that captures the essence of your trip.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a cafe located in Menzel Jemil, Tunisia. It is situated at the coordinates (37.246816461761, 9.910547433115) and has a rating of 5.0.
+Restaurant Diar El Jem is a restaurant located on Av. Hedi Chaker, El Jem, Tunisia, with a rating of 4.0 stars based on 37 reviews. Its main category is Restaurant and it opens from 09:00-00:00. It's located at the coordinates (35.3, 10.71667).
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9188,14 +13487,65 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a beautiful water source, check out Ain Bittar located in Ain Bittar, Menzel Jemil. 
-This top-rated destination is perfect for water lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where can you find a popular water destination with high ratings in the vicinity of El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancien amphitheatre d'El Jem
+Mid-Morning: Visit the railway station El Jem and take a guided tour of the historical site
+Midday: Try local cuisine at Fast food Rhouma for a quick and delicious lunch 
+Afternoon: Relax with a tea and enjoy the atmosphere at Cafe Paris. Engage in outdoor activities at Ocean Beach Rimel, such as swimming, sunbathing, or enjoying water sports
+Evening: Have dinner at Grillades mshwy, known for its grilled dishes
+Night: Experience cultural immersion at the Fratello PIZZERIA, savoring authentic Italian cuisine in a charming setting</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bacchus is a 4.4-rated cafe located in Ave Habib Bourguiba, El Jem, Tunisia. It has a wide variety of food and drinks to offer, and is a popular spot for locals and tourists alike. The cafe is open 7 days a week, and has a great atmosphere for relaxing and socializing.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9289,14 +13639,65 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain Najah in Ain Najah, Menzel Jemil. 
-This top-rated destination is perfect for Source d'eau lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>If you're visiting el jem and searching for an exceptional getaway for Source d'eau enthusiasts, what top-rated destination with a 5.0 rating should you consider exploring?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, marvel at its architectural grandeur and immerse yourself in its historical significance.
+Mid-Morning: Visit the Dar El Jem cafe located in the heart of El Jem, indulge in traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater.
+Midday: Try local cuisine at Restaurant Diar El Jem, savor the authentic flavors and culinary delights of the region.
+Afternoon: Engage in outdoor activities at Rimel Beach Menzel Jemil, enjoy the sun, sand, and water while relaxing on the private beach or swimming in the pool.
+Evening: Participate in the Fratello PIZZERIA, relish the delectable pizzas and Italian dishes while enjoying the lively atmosphere.
+Night: Experience cultural immersion at the Cafe Paris, socialize with locals, sip on aromatic tea, and soak in the relaxed ambiance.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.
+Restaurant Diar El Jem is a restaurant located in El Jem, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine. The restaurant is located at 7MXR+X6X, El Jem, Tunisia. It is open from 09:00 to 00:00, and is closed on Sundays. The restaurant has a rating of 4.0 out of 5 on Google Maps.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9390,12 +13791,71 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ain el Hanech located at Ain el Hanech, Menzel Jemil. This top-rated destination is a must-visit spot for Source d'eau lovers. With a rating of 5.0, it's a place worth exploring. To get there, use these GPS coordinates: 36.66, 8.75056.</t>
+          <t>Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>What top-rated destination for Source d'eau lovers is located in Ain el Hanech with GPS coordinates of 36.66, 8.75056?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore the Ancient Amphitheater of El Jem:** Marvel at the architectural grandeur of this historic landmark, one of the largest and best-preserved Roman amphitheaters in the world.
+**Mid-Morning:**
+* **Taste local cuisine at Grillades mshwy:** Savor the flavors of traditional Tunisian grilled dishes in a warm and inviting atmosphere.
+**Midday:**
+* **Visit the Menzel Jemil Sud Market:** Immerse yourself in the local culture and browse a vibrant array of handicrafts, spices, and fresh produce.
+**Afternoon:**
+* **Relax at Rimel Beach Menzel Jemil:** Escape to the serene shores of this private beach club, where you can lounge, swim, and enjoy the picturesque views.
+**Evening:**
+* **Experience cultural immersion at Ain el Hanech:** Find tranquility at this natural spring, a refreshing oasis in the heart of El Jem.
+**Night:**
+* **Dine at Rimel Land seafood restaurant:** Indulge in a culinary masterpiece of fresh seafood, prepared with traditional Tunisian flavors and served in an elegant setting.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lmlwk is a 4.0-rated cafe located in Menzel Jemil, Tunisia. Its exact address is 6WP4+MR mqh~ lmlwk, Menzel Jemil. The cafe does not have a website or a phone number listed, but it does have a featured image on Google Maps. The main category of the cafe is Cafe, and its coordinates are (37.2291348, 9.9224329).
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9497,10 +13957,67 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Espase marmara q`@ 'frH mrmr@ located at 8M2P+GR2 Espase marmara q`@ 'frH mrmr@, C87, El Jem. This top-rated destination is perfect for mlh~ lyly lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, call them at 22 860 915.</t>
-        </is>
-      </c>
-      <c r="AA85" t="inlineStr"/>
+          <t>Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Start the day by Exploring the well-preserved Roman amphitheater, Ancien amphitheatre d'El Jem, a renowned historical site.
+Mid-Morning: Visit Rimel Land, known for its highly rated seafood cuisine. Savor the fresh flavors of the local culinary delights.
+Midday: Enjoy a delicious lunch at Grillades mshwy, a restaurant specializing in grilled dishes and boasting a high rating.
+Afternoon: Spend the afternoon at Rimel Beach Menzel Jemil, a popular beach club offering a private beach, swimming pool, and various amenities. Relax and soak up the sun.
+Evening: Take a leisurely walk through the streets of Menzel Jemil, exploring the bustling markets and admiring the local culture.
+Night: Indulge in a luxurious dining experience at Restaurant Ghali, highly acclaimed for its culinary delights and excellent service.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It offers a wide selection of coffee drinks, as well as a variety of pastries and snacks. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at 6VPW+GH3 Sunday Coffee, Menzel Jemil, and can be contacted at +216 52 948 386.
+Restaurant Ghali is a highly rated dining establishment located in el jem, Tunisia. It has a 5.0 rating based on 3 reviews and is open from 9:00-23:00 every day. Located at the coordinates (37.23744, 9.9221347) on No-Hope St, Restaurant Ghali serves various culinary delights.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9604,12 +14121,65 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated hotel, you should check out Hotel resto Dar Ammar located at Hotel resto Dar Ammar, R87, El Jem 5160. With a rating of 4.1, it's a popular spot among hotel lovers. To get there, use these GPS coordinates: -35.1062488, 138.5069118 or call them at 98 235 565.</t>
+          <t>Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with GPS coordinates -35.1062488, 138.5069118 in el jem?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman amphitheater, Ancien amphitheatre d'El Jem.
+Mid-Morning: Visit the nearby El Jem Voyage travel agency to book a guided tour of the amphitheater and learn about its fascinating history.
+Midday: Try local cuisine at Grillades mshwy, a highly-rated restaurant known for its delicious grilled dishes.
+Afternoon: Relax at Rimel Beach Menzel Jemil, a popular beach club offering a private beach, a swimming pool, and a restaurant.
+Evening: Enjoy scenic views at Ocean Beach Rimel, a western restaurant with a 5.0 rating and a 24-hour營業.
+Night: Experience cultural immersion at FASTFOOD ZAYZAFOUNA, a language-based specialty restaurant famous for its dishes based on tongue.</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lmlwk is a 4.0-rated cafe located in Menzel Jemil, Tunisia. Its exact address is 6WP4+MR mqh~ lmlwk, Menzel Jemil. The cafe does not have a website or a phone number listed, but it does have a featured image on Google Maps. The main category of the cafe is Cafe, and its coordinates are (37.2291348, 9.9224329).
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9715,12 +14285,65 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>Restaurant El Hana is a highly-rated dining spot with a 4.7-star rating. Located at 7PW5+65C, El Jem, this exceptional restaurant is a haven for food enthusiasts. Indulge in their delectable cuisine from 09:00-17:00 every day, except for days when they're closed. If you're seeking more information or wish to make reservations, visit their website or call them at 96 576 417.</t>
+          <t>Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where can you find the highly-rated Restaurant El Hana, a culinary gem nestled at 7PW5+65C in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the Amphitheater of El Jem, marveling at its architectural grandeur.
+Mid-Morning: Visit the El Jem railway station, a vital transportation hub, and delve into the local railway history.
+Midday: Savor a traditional Tunisian lunch at Restaurant Pizzeria Rome, indulging in delectable pizzas and authentic Italian dishes.
+Afternoon: Head to Rimel Beach Menzel Jemil, soak up the sun, and enjoy the refreshing ambiance of the beach club.
+Evening: Experience the enchanting atmosphere of Cafe Paris, sipping aromatic tea and indulging in delectable pastries while soaking in the local culture.
+Night: Immerse yourself in the vibrant ambiance of Menzel Jemil Sud, a popular destination known for its unique charm and local experiences.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nafoura is a cafe located in Menzel Jemil, el jem, with a 4.7-star rating based on 6 reviews. It is open daily from 5:00 AM to 11:00 PM and offers various amenities such as a phone, website, and even a featured image. It is located at 37.2291348 latitude and 9.9224329 longitude.
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9830,12 +14453,65 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Dar El Jem located at Ave Farhat Hached. This top-rated destination is perfect for Cafe and Musee d'art lovers and offers a range of Cafe, Musee d'art, Atelier d'artiste to choose from. With a rating of 4.7, it's a must-visit spot and it's open during these hours: 07:00-00:00. To get there, use these GPS coordinates: 35.501506575272, 11.065588006004. For more details, visit its website at http://www.micromosaictunisia.com/ or call them at 98 277 634.</t>
+          <t>**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Where in el jem can you find a highly rated cafe with top-notch Musee d'art offerings?</t>
+          <t>Day Plan:
+Morning: Explore the impressive Ancient Amphitheater of El Jem, a testament to Roman architectural grandeur.
+Mid-Morning: Visit the nearby El Jem Amphitheater to further immerse yourself in the ancient history and culture.
+Midday: Indulge in delicious Tunisian cuisine at Restaurant El Hana, renowned for its diverse menu and friendly service.
+Afternoon: Unwind and rejuvenate at Rimel Beach Menzel Jemil, where pristine sands, a refreshing pool, and delectable cuisine await.
+Evening: Head to Cafe Hmoudi for an authentic and inviting ambiance, perfect for sipping on flavorful coffee and experiencing the vibrant local culture.
+Night: Embark on a guided tour of the Ancient Amphitheater of El Jem under the captivating moonlight, offering a breathtaking and memorable experience.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Experience the vibrant ambiance of Cafe Hmoudi, located on Hopelessness Blvd in Menzel Jemil. This 5-star-rated cafe caters to your caffeine cravings with its convenient 24-hour operation. Enjoy the delicious offerings in a cozy and inviting atmosphere, making it the perfect spot for a coffee break or a relaxing evening out.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9941,12 +14617,65 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>Restaurant Le Bonheur is a top destination in el jem for Restaurant enthusiasts. Located at 7PV5+238 Restaurant Le Bonheur, C87, El Jem, it offers a range of dining options. With a rating of 4.0 based on 39 reviews, it's a must-visit spot. It's open from 09:00-23:00. To get there, use GPS coordinates (46.034288, 4.0738428). For more details, call 22 976 655.</t>
+          <t>Restaurant Le Bonheur located in El Jem (longitude: 4.0738428, latitude: 46.034288) is rated 4.0 with 39 reviews and offers traditional cuisine.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where can you find Restaurant Le Bonheur in el jem, known for its excellent dining options and high ratings?</t>
+          <t>Day Plan:
+Morning: Explore the historic El Jem Amphitheater, a UNESCO World Heritage Site.
+Mid-Morning: Visit the nearby Rimel Land restaurant for some highly-rated seafood cuisine.
+Midday: Engage in outdoor activities at Rimel Beach Menzel Jemil, known for its private beach and amenities.
+Afternoon: Discover the local language-based specialty restaurant FASTFOOD ZAYZAFOUNA, famous for its tongue-based dishes.
+Evening: Indulge in a relaxing spa experience at a local hotel or spa.
+Night: Participate in a cultural immersion at Cafe Paris, a popular spot for locals and tourists, with its famous tea and coffee offerings.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE RADHOUEN is a highly acclaimed cafe located at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. Known for its exceptional offerings, this cafe has garnered a 5.0 rating from its satisfied patrons. Situated at the coordinates (37.2291348, 9.9224329), CAFE RADHOUEN is conveniently located for both locals and visitors.
+El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10052,12 +14781,69 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated restaurant, check out Restaurant Diar El Jem located at 7MXR+X6X Restaurant Diar El Jem, Av. Hedi Chaker, El Jem. This popular spot has a rating of 4.0 and offers a range of cuisines to choose from. It's open during these hours: 09:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website or call them at 27 444 700.</t>
+          <t>Restaurant Diar El Jem is a restaurant located on Av. Hedi Chaker, El Jem, Tunisia, with a rating of 4.0 stars based on 37 reviews. Its main category is Restaurant and it opens from 09:00-00:00. It's located at the coordinates (35.3, 10.71667).</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where in el jem can you find Restaurant Diar El Jem, a highly-rated restaurant offering various cuisines?</t>
+          <t>Day Plan:
+Morning: Exploring the **Ancien amphitheatre d'El Jem**
+Mid-Morning: Trying local cuisine at **Café Debbabi**
+Midday: Visiting the **El Jem Voyage** travel agency for more information on the city and its attractions
+Afternoon: Enjoying a relaxing spa treatment at **Hotel resto Dar Ammar**
+Evening: Exploring the **Menzel Jemil Sud** and enjoying the scenic views
+Night: Dining at **Rimel Land**, a highly-rated seafood restaurant</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Debbabi**
+**Description:** Located in El Jem, Café Debbabi offers a cozy and welcoming atmosphere for coffee lovers and cafe enthusiasts alike. It is a popular spot for locals and tourists to enjoy a delightful cup of coffee, relax, and socialize.
+**Location:** The café is situated at the convenient location of 7PX5+552 Cafe Debbabi, C93, El Jem. Its coordinates are (35.3, 10.71667).
+**Categories:**
+- Café
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10163,12 +14949,65 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Cafe Venus located at 7PX4+388, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-23:00 but closed on To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at or call them at 98 408 841.</t>
+          <t>Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where in El Jem can you indulge in top-rated Cafe offerings within convenient open hours?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the iconic ruins of the **Ancient Amphitheater of El Jem**, a testament to Roman architectural prowess. Marvel at its grandeur and imagine the spectacles it once hosted.
+Mid-Morning: Immerse yourself in local culture at the lively **Cafe Paris**, renowned for its delectable tea and coffee. Savor the aromatic brews and connect with locals in this convivial atmosphere.
+Midday: Treat your palate to the authentic flavors of Tunisian cuisine at **Restaurant Le Bonheur**. Indulge in traditional dishes lovingly prepared by skilled chefs, creating a culinary journey that will tantalize your taste buds.
+Afternoon: Spend the afternoon at the picturesque **Rimel Beach Menzel Jemil**, where turquoise waters and golden sands beckon. Relax on the private beach, take a refreshing dip in the pool, or indulge in water sports for an invigorating experience.
+Evening: As the sun dips below the horizon, head to **Dar El Jem**. This captivating art hub offers an eclectic blend of artwork and cozy ambiance. Sip on mint tea while admiring local artistry and engaging in thought-provoking conversations.
+Night: Conclude the day with a memorable evening at **El Jem Voyage**. Plan your next adventures with the help of their expert travel services, ensuring a seamless and unforgettable experience in this enchanting region.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar El Jem is a place in El Jem, Tunisia (coordinates: 35.501506575272, 11.065588006004). This place is a cafe that also offers art museum and artist studio services. It is open from 7am to 12am. You can contact them by phone at +216 98 277 634. They also have a website at http://www.micromosaictunisia.com/. Dar El Jem has received 65 reviews and is rated 4.7 out of 5 stars.
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10270,12 +15109,65 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Le Bonheur 2 located at 7PX4+6Q7 Le Bonheur 2, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Le+Bonheur+2/data=!4m7!3m6!1s0x1301fc8329ac4c13:0x164c2a201f3193f0!8m2!3d35.2980465!4d10.7069371!16s%2Fg%2F11c3_b2vv6!19sChIJE0ysKYP8ARMR8JMxHyAqTBY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone].</t>
+          <t>Le Bonheur 2 is a restaurant located in El Jem, Tunisia, offering a variety of dishes at affordable prices. Situated at coordinates (35.3, 10.71667), the restaurant is open from 9:00 AM to 10:00 PM on weekdays and has received positive reviews from customers, with an average rating of 4.3 out of 5.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>What highly-rated restaurant in El Jem caters to restaurant enthusiasts at the GPS coordinates 35.3, 10.71667?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the Amphitheater of El Jem.
+Mid-Morning: Visit the El Jem Voyage travel agency to book a guided tour of the amphitheater.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant El Hana, while admiring the view of the amphitheater from its terrace.
+Afternoon: Take a leisurely swim at the Rimel Beach Menzel Jemil, enjoying the sun and the sea.
+Evening: Head to Cafe Paris for a relaxing evening, sipping on a cup of tea while absorbing the local atmosphere.
+Night: Indulge in a delightful dinner at Rimel Land, savoring the flavors of freshly caught seafood while enjoying the cool evening breeze.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover the charming "Cafe ahbeb", a top-rated cafe nestled in the heart of el jem. Whether you're seeking a delectable coffee break or a relaxing evening out, Cafe ahbeb welcomes you with open arms. Located at 37.2291348 latitude and 9.9224329 longitude, this hidden gem offers a warm and inviting ambiance.
+Restaurant El Hana is a 4.7-rated restaurant in El Jem, Tunisia. It offers a wide range of dishes, including salads, brochettes, grillades, and poulet. The restaurant is known for its great food, friendly staff, and beautiful view of the nearby amphitheater. It is open from 9am to 5pm, closed on Mondays, and is located at 7PW5+65C, El Jem.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10381,12 +15273,65 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Restaurant Rhouma located at 7PV6+H79 Restaurant Rhouma, Ave Taleb Mhiri, El Jem. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:00-00:00, but closed on . To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at  or call them at 55 550 020.</t>
+          <t>Restaurant Rhouma is a restaurant located in the city of el jem. It has a rating of 4.0 based on 23 reviews. The restaurant offers a variety of dishes, including salads, and is open from 11:00 AM to midnight everyday. It has a featured image showcasing the restaurant's ambiance and is situated at the coordinates (35.3, 10.71667).</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Where in el jem can you find Restaurant Rhouma, a top-rated destination for Restaurant lovers with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the impressive Ancient Amphitheater of El Jem, a well-preserved Roman architectural wonder.
+Mid-Morning: Visit the El Jem Museum to delve into the rich history and culture of the region.
+Midday: Indulge in a delectable lunch at Pizza le Coin, savor authentic Italian flavors, and soak in the vibrant ambiance.
+Afternoon: Immerse yourself in the local markets, browse traditional crafts, and relish the vibrant atmosphere of Menzel Jemil.
+Evening: Head to Rimel Land for a memorable seafood dinner, delight in fresh catches, and enjoy the stunning ambiance.
+Night: Embark on a guided night tour of the Ancient Amphitheater of El Jem, marvel at its grandeur under the moonlight, and listen to captivating tales of its past.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lwy'm, a 4.5-rated cafe, is located in el jem, Tunisia (37.2291348, 9.9224329).
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10488,12 +15433,65 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Pizzeria, be sure to check out Restaurant Pizzeria Rome, located at 7PX4+4QG. With a rating of 4.2, this top-rated destination is a must-visit spot for Pizzeria lovers. To get there, use these GPS coordinates: 41.8513181, 12.2008956. For more details, call them at 21 176 394.</t>
+          <t>Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria in El Jem with precise GPS coordinates and a contact number?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman amphitheater, Ancien amphitheatre d'El Jem, renowned for its historical significance and architectural beauty.
+Mid-Morning: Visit the charming Cafe Paris for a delightful tea or coffee experience, immerse yourself in the relaxed ambiance, and enjoy the delicious pastries on offer.
+Midday: Savor the authentic flavors of Tunisian cuisine at Grillades mshwy, known for its delectable grilled dishes, and engage with the friendly locals to learn about the local culture.
+Afternoon: Escape to Rimel Beach Menzel Jemil, unwind on the private beach, take a refreshing dip in the pool, and indulge in the vibrant atmosphere of this popular beach club.
+Evening: Embark on a guided tour of Total, a renowned gas station that offers an array of services, and explore its intriguing facilities, including a car wash, convenience store, and cafe, to gain insights into its operations.
+Night: Experience the lively ambiance of Rimel Land, a highly-rated seafood restaurant, savor the exquisite flavors of the fresh catch, and enjoy the unforgettable dining experience in its inviting setting.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe ahbeb is a cafe located in el jem, Tunisia. It is open from 03:30 pm to midnight, 7 days a week. The cafe serves a variety of food and drinks, and offers free wifi to its customers. Cafe ahbeb is located at 7080 No-Hope St, Menzel Jemil, and can be reached by phone at (216) 54 800 416.
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10599,14 +15597,65 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Restaurant, check out Pizzeria El Capo located at 7PV5+R78 Pizzeria El Capo, Ave Habib Bourguiba. 
-This top-rated spot has many positive reviews and offers pizza to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 16:00-04:00. To get there, use these GPS coordinates: 36.8500785, 10.2632786. For more details, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipOhl3Q077unG4wKr-bZ_loimbG4cJeZIBvASaz4=w408-h906-k-no or call them at 98 210 762.</t>
+          <t>Pizzeria El Capo is a highly-rated restaurant located in El Jem, Tunisia, known for its delicious pizzas. With an impressive 4.9 rating out of 13 reviews, it is a popular spot for locals and tourists alike. The restaurant serves mouth-watering pizzas as its specialty, as highlighted by the numerous positive reviews mentioning the dish. Pizzeria El Capo is conveniently situated at 7PV5+R78, Ave Habib Bourguiba, and is open from 4 PM to 4 AM, making it a great option for a late-night treat.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where in El Jem can you find Pizzeria El Capo, a highly rated restaurant with excellent reviews, offering delicious pizza options?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, marveling at its impressive size and historical significance.
+Mid-Morning: Visit the Espase Marmara Q'@ 'Frh MrMr@ marble quarry to learn about the process of marble quarrying and see the finished products.
+Midday: Try local cuisine at Cafe Ali Ouni, savoring the cozy atmosphere and delightful cafe-style food and drinks.
+Afternoon: Enjoy outdoor activities like hiking or biking at Rimel Beach Menzel Jemil, immersing yourself in the beauty of the natural surroundings.
+Evening: Take a guided tour of the El Jem Amphitheater, gaining insights into its gladiatorial contests and other public spectacles.
+Night: Experience cultural immersion at Cafe Paris, indulging in delicious tea and coffee amidst a relaxed and friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Ali Ouni is a highly-rated cafe located in Menzel Jemil, Tunisia. It offers a range of cafe-style food and drinks, and has a cozy and inviting atmosphere. The cafe is located at the coordinates (37.23744, 9.9221347), in the city of el jem.
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10716,14 +15765,71 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Fast food Rhouma located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 07:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at http://eljem.com/ or call them at 98 277 525.</t>
+          <t>Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>What is the must-visit spot in El Jem that offers a top-rated range of restaurants for food lovers, located at GPS coordinates 35.3, 10.71667?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the ruins of the **Ancient Amphitheater of El Jem**, a majestic Roman relic that offers a glimpse into the grandeur of the past.
+**Mid-Morning:**
+- Try local cuisine at **Restaurant Pizzeria Rome**, known for its authentic Italian pizzas and warm ambiance.
+**Midday:**
+- Visit the **Hotel Julius** for a luxurious lunch and a refreshing dip in their outdoor pool.
+**Afternoon:**
+- Enjoy the sun and sand at **Rimel Beach Menzel Jemil**, a private beach club with amenities for relaxation and entertainment.
+**Evening:**
+- Experience the vibrant atmosphere at **Cafe Paris**, a charming tea room where locals and tourists alike gather for a cup of tea or coffee.
+**Night:**
+- Immerse yourself in the local culture by participating in a traditional Tunisian cooking class at a local restaurant or cultural center.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lwy'm is a cafe located in el jem, Tunisia. It is open from 5am to midnight and has a 4.5-star rating on Google. The cafe has 11 reviews and offers a variety of food and drinks. It is located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a water source located in Ain el Hanech, Menzel Jemil, Tunisia. It offers fresh water and is a great place to relax and enjoy the natural surroundings. The source is located at the coordinates (36.66, 8.75056).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10821,12 +15927,65 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great cafe, check out Cafe Bacchus located at 7PW5+43G Cafe Bacchus, Ave Habib Bourguiba, El Jem. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.4, it's a must-visit spot. For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Bacchus/data=!4m7!3m6!1s0x1301fc9d0f8cf537:0xc668d6feccb275a1!8m2!3d35.2953099!4d10.70769!16s%2Fg%2F11cn6pclxt!19sChIJN_WMD538ARMRoXWyzP7WaMY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Bacchus is a well-rated cafe located in el jem, Tunisia. It offers a cozy ambiance and a variety of cafe beverages. The cafe is situated at the coordinates (36.8296533, 10.3141717).</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a wide selection of options in el jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman Amphitheater of El Jem for a glimpse into historical grandeur.
+Mid-Morning: Visit the El Jem Voyage travel agency to plan an unforgettable tour of the region.
+Midday: Savor local cuisine at Restaurant Ghali, renowned for its culinary delights.
+Afternoon: Engage in outdoor activities at Rimel Beach Menzel Jemil, offering a relaxing beach escape.
+Evening: Immerse in cultural immersion at the Espase marmara q`@ 'frH mrmr@, showcasing the art of marble quarrying.
+Night: Unwind at the Hotel Julius, offering comfortable accommodations and a serene atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lwy'm is a cafe located in el jem, Tunisia. It is open from 5am to midnight and has a 4.5-star rating on Google. The cafe has 11 reviews and offers a variety of food and drinks. It is located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil.
+Restaurant Ghali is a highly rated dining establishment located in el jem, Tunisia. It has a 5.0 rating based on 3 reviews and is open from 9:00-23:00 every day. Located at the coordinates (37.23744, 9.9221347) on No-Hope St, Restaurant Ghali serves various culinary delights.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10924,12 +16083,65 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in El Jem and looking for a great cafe, check out Cafe Bentaja located at 7PM3+GJW Cafe Bentaja, P1. This top-rated destination is perfect for cafe lovers and offers a range of cafe-related items to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bentaja/data=!4m7!3m6!1s0x1301fca17df459df:0x8fd03454d572efa4!8m2!3d35.2838705!4d10.70409!16s%2Fg%2F11cnd4lpjp!19sChIJ31n0faH8ARMRpO9y1VQ00I8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Cafe Bentaja is a cozy cafe located in El Jem, offering a warm and inviting atmosphere for its patrons. Situated at coordinates (35.2937636, 10.7107671), the cafe delights its customers with its delectable menu featuring a variety of cafe treats and beverages. Cafe Bentaja takes pride in its friendly staff and is a popular spot for locals and visitors alike to relax, savor their drinks, and connect with friends and family.</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe called Cafe Bentaja in El Jem, renowned for its exceptional cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore the majestic ruins of Ancien amphitheatre d'El Jem
+Mid-Morning: Visit the Rimel Land restaurant for a delightful seafood lunch
+Midday: Relax and soak up the sun at Rimel Beach Menzel Jemil
+Afternoon: Engage in a guided tour of the historic El Jem Amphitheater
+Evening: Indulge in traditional cuisine at Restaurant Le Bonheur
+Night: Experience the vibrant atmosphere at El Jem Voyage Travel Agency for dinner and entertainment</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nafoura is a cafe located in Menzel Jemil, el jem, with a 4.7-star rating based on 6 reviews. It is open daily from 5:00 AM to 11:00 PM and offers various amenities such as a phone, website, and even a featured image. It is located at 37.2291348 latitude and 9.9224329 longitude.
+Restaurant Le Bonheur located in El Jem (longitude: 4.0738428, latitude: 46.034288) is rated 4.0 with 39 reviews and offers traditional cuisine.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11027,12 +16239,65 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out El jem located at 6PW4+69 El jem, El Hencha. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.1232091, 10.7415639. For more details, visit their website at https://www.google.com/maps/place/El+jem/data=!4m7!3m6!1s0x1301e31bfba59ed9:0x3b5ac6223cf1325f!8m2!3d35.245505!4d10.705984!16s%2Fg%2F11sdqzx0mg!19sChIJ2Z6l-xvjARMRXzLxPCLGWjs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>What top-rated destination in El Jem, known for its excellent dining options and 4.8-star rating, should you consider visiting?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem
+Mid-Morning: Visit El Jem railway station
+Midday: Try local cuisine at Restaurant Pizzeria Rome
+Afternoon: Enjoy scenic views at Rimel Beach Menzel Jemil
+Evening: Participate in an event at El Jem Voyage
+Night: Relax with a drink at Cafe Bentaja</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bentaja is a cozy cafe located in El Jem, offering a warm and inviting atmosphere for its patrons. Situated at coordinates (35.2937636, 10.7107671), the cafe delights its customers with its delectable menu featuring a variety of cafe treats and beverages. Cafe Bentaja takes pride in its friendly staff and is a popular spot for locals and visitors alike to relax, savor their drinks, and connect with friends and family.
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11134,12 +16399,65 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>If you're in El Jem, check out Cafe Machmoun, conveniently located on P1. This cafe is highly recommended for those who love cafes. With a 4.2 rating, it's a great place to go for a caffeine fix or enjoy a delicious snack. Cafe Machmoun is open 24 hours, so it's the perfect spot to visit anytime. For more information, visit their featured image at https://lh5.googleusercontent.com/p/AF1QipP8hg_NLfGgDaDEHfb6S44MrxvLrRdJO0hXljSj=w408-h272-k-no.</t>
+          <t>Cafe Machmoun is a highly-rated cafe located in El Jem, Tunisia. It boasts a 4.2-star rating and is open 24 hours a day. Cafe Machmoun's primary focus is on providing a welcoming ambiance for customers to enjoy a cup of coffee or a bite to eat. It is situated at coordinates (36.8883133, 10.3087339), making it easily accessible to patrons in the area.</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe that's conveniently located and open 24 hours in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, a magnificent Roman architectural marvel.
+Mid-Morning: Visit El Jem Voyage, a local travel agency, to plan your onward journeys and explore options for guided tours.
+Midday: Savor the authentic flavors of Tunisia by dining at Grillades mshwy, known for its tantalizing grilled dishes.
+Afternoon: Immerse yourself in the vibrant atmosphere of Menzel Jemil Sud, a charming town with a unique blend of history and modernity.
+Evening: Delight in the culinary creations of Cafe Paris, renowned for its exceptional tea and coffee. Soak in the relaxed ambiance and savor the local flavors.
+Night: Unwind at Rimel Beach Menzel Jemil, where you can enjoy a refreshing dip in the pool, savor delectable seafood, and indulge in the vibrant nightlife.</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Ali Ouni is a local cafe located at 37.23744, 9.9221347. It has a rating of 5.0 stars out of 1 review. The cafe is open 7 days a week and offers a variety of food and drinks. It is located in the city of el jem.
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11237,12 +16555,65 @@
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great Restaurant , consider Boulangerie Patisserie Issam Eddine at 7PR3+WJV Boulangerie Patisserie Issam Eddine, C87. This top-rated spot is perfect for Restaurant  lovers and offers a range of Restaurant  options. Rated 4.0 out of 5, it's a must-visit.  To get there, use these GPS coordinates: 35.3, 10.71667.</t>
+          <t>Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>If you're in El Jem and craving a top-rated Restaurant with a wide range of options, where should you head, and what sets this spot apart?</t>
+          <t>Day Plan:
+Morning: Exploring the Ancient Amphitheater of El Jem
+Mid-Morning: Trying local cuisine at Restaurant Rhouma
+Midday: Visiting the El Jem Voyage travel agency for tour bookings
+Afternoon: Enjoying scenic views at Rimel Beach Menzel Jemil
+Evening: Shopping at Starlight SARL for leather goods
+Night: Participating in a cultural immersion experience at the El Jem Amphitheater</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le News Du Bled is a cafe located in el jem at the coordinates (37.23618, 9.91448). This cafe with a rating of 5.0 is open from Monday to Thursday from 08:00 to 22:00 and is closed on Friday.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11340,12 +16711,71 @@
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Grillades mshwy located at 8M2Q+7R7 Grillades mshwy, El Jem. This top-rated destination is perfect for Restaurant de grillades lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. Coordinates are: (35.3, 10.71667).</t>
+          <t>Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant de grillades destination in El Jem with geographic coordinates (35.3, 10.71667)?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic landmark, "Ancien amphitheatre d'El Jem." Its impressive architecture and preserved structures offer a glimpse into ancient Roman history.
+Mid-Morning:
+- Visit the "El Jem Voyage" travel agency and book a guided tour to discover the city's hidden gems and learn about its rich cultural heritage.
+Midday:
+- Try local cuisine at "Fratello PIZZERIA" for an authentic and delicious meal featuring their signature pizzas.
+Afternoon:
+- Engage in outdoor activities like swimming and sunbathing at the private beach of "Rimel Beach Menzel Jemil."
+Evening:
+- Enjoy scenic views at the "Ocean Beach Rimel," relishing the beautiful sunset and serene ambiance by the water.
+Night:
+- Experience cultural immersion at the "Cafe Paris," savoring traditional tea and coffee while connecting with locals and immersing yourself in the local atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Pause cafe is a cafe located in El Jem, Tunisia. It is open from 7am to 11pm, and its specialty is coffee. The cafe has a 4.7-star rating on Google and has received 6 reviews.
+Restaurant Ghali is a highly-rated restaurant in Menzel Jemil, Tunisia, located at the coordinates (37.23744, 9.9221347) with a 5.0 rating based on 3 reviews. This restaurant offers a dining experience from 9:00 AM to 11:00 PM every day of the week, specializing in its Restaurant category.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11443,12 +16873,65 @@
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>If you're in El Jem and looking for a delicious cup of coffee, be sure to check out Cafe Debbabi, located at 7PX5+552 Cafe Debbabi, C93, El Jem. This cafe is a favorite among locals and tourists alike, and is known for its friendly staff and amazing coffee. With a rating of 5.0, it's a must-visit spot if you're in the area. Cafe Debbabi is open during the following hours: [workday_timing], but is closed on [closed_on]. To get there, use these GPS coordinates: 35.3, 10.71667.</t>
+          <t>Cafe Debbabi is a highly rated cafe situated in El Jem, Tunisia (35.3, 10.71667). It falls under the 'Cafe' category, indicating its specialization in coffee, tea, and other beverages.</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Cafe Debbabi situated, known for its exquisite coffee and warm ambience?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman amphitheater, the Ancient Amphitheater of El Jem.
+Mid-Morning: Visit the El Jem Voyage travel agency to plan your further travel itinerary and book local experiences.
+Midday: Try local cuisine at El Jem's Grillades mshwy, known for its grilled dishes.
+Afternoon: Enjoy the afternoon sun and clear waters at Rimel Beach Menzel Jemil, a popular beach club.
+Evening: Indulge in a romantic dinner at Ocean Beach Rimel, a western restaurant with a 5.0 rating.
+Night: Experience the local nightlife and live music at Cafe Paris, a highly-rated tea room.</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lqySr is a cafe located in Menzel Jemil, Tunisia. It offers a wide range of coffee and tea, as well as light snacks and pastries. The cafe is located in a convenient location, just a short walk from the city center.
+El Jem is a restaurant in El Jem, Tunisia. It is located at 35.1232091, 10.7415639 and has a rating of 4.8 out of 5. El Jem offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is known for its friendly staff and its relaxed atmosphere.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11550,14 +17033,65 @@
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a delicious meal, check out Restaurant Ghali located at 7080 No-Hope St, Menzel Jemil. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-23:00. To get there, use these GPS coordinates: 37.23744, 9.9221347.</t>
+          <t>Restaurant Ghali is a highly-rated restaurant in Menzel Jemil, Tunisia, located at the coordinates (37.23744, 9.9221347) with a 5.0 rating based on 3 reviews. This restaurant offers a dining experience from 9:00 AM to 11:00 PM every day of the week, specializing in its Restaurant category.</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>For a top-rated dining experience in el jem, what restaurant is located on No-Hope St in Menzel Jemil with an exceptional 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ancien amphitheatre d'El Jem (4.5 rating), a historical site with well-preserved Roman architecture.
+Mid-Morning: Visit Cafe Venus (4.4 rating) for a cozy ambiance and delectable cuisine, offering a cozy ambiance and delectable cuisine.
+Midday: Delight in a buffet-style breakfast at Hotel resto Dar Ammar (4.1 rating), a conveniently located hotel with great reviews for its dining experience.
+Afternoon: Relax at Rimel Beach Menzel Jemil (unrated but popular), a private beach club with amenities such as a swimming pool, restaurant, and bar.
+Evening: Experience the lively local flavors at Grillades mshwy (4.0 rating), a restaurant known for its grilled dishes.
+Night: Immerse yourself in the cultural ambiance of Menzel Jemil Sud (4.1 rating), a popular destination with unique experiences or services.</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11663,12 +17197,65 @@
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>If you're in el jem, Fratello PIZZERIA is a must-visit spot for Pizzeria lovers. Located at BitternessStreet, Menzel Jemil, this top-rated destination offers a range of Pizzeria categories to choose from. With a rating of 4.9, it's open from 09:00-22:00 during the weekdays. To get there, use these GPS coordinates: 37.2291348, 9.9224329. You can also call them at 53 319 611 for more details.</t>
+          <t>Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria in el jem with a range of Pizzeria options and a convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the iconic Ancient Amphitheater of El Jem, a magnificent testament to Roman engineering.
+Mid-Morning: Visit the Espase marmara q`@ 'frH mrmr@ marble quarry and marvel at the intricate process of marble quarrying.
+Midday: Indulge in a delectable traditional Tunisian lunch at one of the highly-rated restaurants in El Jem, such as Cafe Kacem or Fast food Rhouma.
+Afternoon: Unwind with a rejuvenating afternoon at the hammam, a traditional Moroccan bathhouse, for a relaxing and authentic cultural experience.
+Evening: Witness a breathtaking sunset at Rimel Beach Menzel Jemil, a popular beach club known for its serene atmosphere.
+Night: Embark on a guided tour of the El Jem Amphitheater under the glittering night sky, immersing yourself in the history and grandeur of this ancient site.</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Cafe Kacem" is a cafe located in el jem. Its coordinates are (35.3, 10.71667).
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11774,14 +17361,65 @@
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Pizza le coin at 6WQ7+R2H Pizza le coin, P8, Menzel Jemil. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on mercredi. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Pizza+le+coin/data=!4m7!3m6!1s0x12e2e19e81dd1f0f:0x110030dfdc543516!8m2!3d37.2395638!4d9.9125961!16s%2Fg%2F11frtcth4g!19sChIJDx_dgZ7h4hIRFjVU3N8wABE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 370 383.</t>
+          <t>Pizza le coin is a highly rated restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of food options, and is open from 09:00-21:00, except on Wednesdays. You can contact them by phone at 23 370 383, or visit their website for more information.</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant destination with a wide selection of categories, making it a perfect choice for Restaurant lovers in El Jem?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the Ancien amphitheatre d'El Jem
+Mid-Morning: Try local cuisine at Grillades mshwy
+Midday: Visit the Hotel resto Dar Ammar for lunch
+Afternoon: Enjoy a relaxing afternoon at Rimel Beach Menzel Jemil
+Evening: Participate in an exciting event at El Jem Voyage
+Night: Have dinner at FASTFOOD ZAYZAFOUNA</t>
+        </is>
+      </c>
+      <c r="AB106" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lwy'm is a cafe located in el jem, Tunisia. It is open from 5am to midnight and has a 4.5-star rating on Google. The cafe has 11 reviews and offers a variety of food and drinks. It is located at 7W25+HM4 mqh~ lwy'm, lTryq lrimal,, Menzel Jemil.
+Nestled in the heart of El Jem, Restaurant Le Bonheur unveils an enticing dining experience. With a breathtaking rating of 4.0, this culinary haven is renowned for its delightful traditional cuisine, attentively prepared by the skillful chef. Located at the coordinates (46.034288, 4.0738428), Le Bonheur caters to its patrons from 9:00 AM to 11:00 PM daily, except for specified closures.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11883,12 +17521,65 @@
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a great dining experience, head to Restaurant Ghali at 7080 No-Hope St, Menzel Jemil. This top-rated restaurant has a rating of 5.0 and is perfect for those who love Restaurant cuisine. With a range of categories to choose from, there's something for everyone. Restaurant Ghali is open from 09:00-23:00, so you can enjoy a delicious meal any time of day. To get there, use these GPS coordinates: 37.23744, 9.9221347. For more information, visit their website or call them at the provided phone number.</t>
+          <t>Restaurant Ghali is a highly rated dining establishment located in el jem, Tunisia. It has a 5.0 rating based on 3 reviews and is open from 9:00-23:00 every day. Located at the coordinates (37.23744, 9.9221347) on No-Hope St, Restaurant Ghali serves various culinary delights.</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a wide variety of cuisine options, located in el jem and known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman amphitheater, Ancien amphitheatre d'El Jem, a renowned historical site with a rating of 4.5.
+Mid-Morning: Visit the nearby Café Venus, a highly-rated cafe offering a cozy ambiance and delectable offerings.
+Midday: Try local cuisine at El Jem, a restaurant known for its friendly staff and relaxed atmosphere.
+Afternoon: Enjoy a relaxing afternoon tea at Cafe Paris, a tea room popular with locals and tourists alike.
+Evening: Take a guided tour of Hotel resto Dar Ammar, a 4.1-star hotel with a range of amenities.
+Night: Experience cultural immersion at Espace marmara q`@ 'frH mrmr@, a marble quarry that produces high-quality marble used in various applications.</t>
+        </is>
+      </c>
+      <c r="AB107" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Venus is a highly-rated (4.4/5) cafe situated in El Jem, Tunisia (coordinates: 35.3, 10.71667). It offers a cozy ambiance, where customers can enjoy their delectable offerings. Café Venus operates daily from 6 AM to 11 PM, providing extended hours for those seeking a delightful start or end to their day. The cafe's focal point is on providing a memorable dining experience, making it an ideal destination for individuals and groups seeking a superb gastronomic adventure.
+El Jem is a restaurant in El Jem, Tunisia. It is located at 35.1232091, 10.7415639 and has a rating of 4.8 out of 5. El Jem offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is known for its friendly staff and its relaxed atmosphere.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11994,12 +17685,65 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>If you're in el jem and craving for seafood, head to Rimel Land located at 7W39+HX Rimel Land, Menzel Jemil. With 4.7-star ratings, it offers a delightful dining experience. Operating 24 hours, it's a must-visit spot for seafood lovers. For further details, visit its website.</t>
+          <t>Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>Where can you savor delectable seafood in el jem, and what sets it apart as an exceptional dining destination?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient ruins of The Ancient Amphitheater of El Jem, providing a glimpse into Roman history.
+Mid-Morning: Trying local cuisine at Restaurant El Jem, known for its authentic Tunisian flavors and receiving high customer ratings.
+Midday: Visiting El Jem railway station, a beautiful and well-connected transportation hub showcasing architectural charm.
+Afternoon: Enjoying a relaxing retreat at the Hotel resto Dar Ammar, indulging in amenities like the swimming pool and comfortable accommodations.
+Evening: Experiencing the vibrant atmosphere at Cafe Paris, a popular tea room known for its delicious tea and coffee.
+Night: Exploring the bustling Menzel Jemil Sud area, known for its lively ambiance and local flavor, offering a unique blend of shopping, dining, and entertainment options.</t>
+        </is>
+      </c>
+      <c r="AB108" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It's a popular spot for locals and tourists alike, known for its delicious coffee, friendly staff, and cozy atmosphere. The cafe offers a variety of coffee drinks, as well as a selection of pastries and light snacks. It's a great place to relax and enjoy a cup of coffee with friends or get some work done. Sunday Coffee is open from 6am to 12am, 7 days a week.
+El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12101,12 +17845,65 @@
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ocean Beach Rimel located at 7W49+4Q Ocean Beach Rimel, Menzel Jemil. This top-rated destination is perfect for Restaurant occidental lovers and offers a range of Restaurant occidental to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Oc%C3%A9an+Beach+Rimel/data=!4m7!3m6!1s0x12e2e15e90c8efbf:0xc8ddc7cc1abb1ee3!8m2!3d37.2552902!4d9.9193841!16s%2Fg%2F11s565m8j7!19sChIJv-_IkF7h4hIR4x67GszH3cg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant occidental destination with 24-hour availability in el jem, perfect for those seeking a memorable dining experience?</t>
+          <t>Day Plan:
+Morning: Begin the day by exploring the historical wonder, Ancien amphitheatre d'El Jem. Immerse yourself in the grandeur of this ancient Roman Amphitheater.
+Mid-Morning: Visit El Jem Voyage, a well-reputed travel agency, to plan your further explorations in and around El Jem.
+Midday: Indulge in the local cuisine at Pizzeria El Capo, renowned for its highly-rated pizzas.
+Afternoon: Take a leisurely walk around the scenic surroundings of Rimel Beach Menzel Jemil, enjoying the private beach, swimming pool, and beautiful views.
+Evening: Explore the vibrant nightlife at Grillades mshwy, a restaurant known for its grilled platters.
+Night: Unwind and relax at the Hotel Julius in a cozy room or suite, enjoying the outdoor pool and on-site dining options.</t>
+        </is>
+      </c>
+      <c r="AB109" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a local cafe located in el jem, Tunisia. It has a rating of 5.0.
+Pizzeria El Capo is a restaurant located in el jem, Tunisia. Known for its delicious pizzas, the restaurant stays open late to serve customers from 4 p.m. to 4 a.m. It is highly rated, averaging 4.9 stars out of 5, and has received numerous positive reviews for its pizza. The restaurant's exact latitude and longitude are 36.8500785 and 10.2632786, respectively.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12212,16 +18009,65 @@
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a delicious Pizzeria, check out Fratello PIZZERIA located at BitternessStreet, Menzel Jemil. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on []. 
-To get there, use these GPS coordinates: 37.2291348, 9.9224329. 
-For more details, visit their website  or call them at 53 319 611.</t>
+          <t>Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria in El Jem, known for its exceptional Pizzeria offerings?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ancien amphitheatre d'El Jem, a UNESCO World Heritage site that dates back to the Roman Empire.
+Mid-Morning: Visit the Dar El Jem cafe to try traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater.
+Midday: Have lunch at Restaurant Ghali, a highly-rated dining establishment known for its culinary delights.
+Afternoon: Enjoy outdoor activities like kayaking or paddleboarding at Rimel Beach Menzel Jemil, known for its beautiful beach and clear waters.
+Evening: Take a guided tour of El Jem Voyage, a local travel agency, to learn about the history and culture of the region.
+Night: Experience the vibrant nightlife at Starlight SARL, a popular leather goods manufacturer that hosts live music and other special events.</t>
+        </is>
+      </c>
+      <c r="AB110" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Dar El Jem** is a cafe located in the heart of El Jem. It offers a unique experience, allowing visitors to enjoy traditional Tunisian cuisine while admiring the ruins of the nearby Roman amphitheater. The cafe is also home to a museum showcasing the history of the amphitheater and the surrounding region. With its convenient location and warm atmosphere, Dar El Jem is a must-visit for anyone looking to experience the rich history and culture of Tunisia.
+Restaurant Ghali is a highly rated dining establishment located in el jem, Tunisia. It has a 5.0 rating based on 3 reviews and is open from 9:00-23:00 every day. Located at the coordinates (37.23744, 9.9221347) on No-Hope St, Restaurant Ghali serves various culinary delights.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Menzel Jemil, Ain el Hanech is a refreshing source of water, boasting a perfect rating of 5.0. Located at coordinates (36.66, 8.75056), this natural spring offers a serene escape in the city of el jem.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12327,14 +18173,65 @@
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Pizza le coin located at 6WQ7+R2H Pizza le coin, P8, Menzel Jemil. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on mercredi. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/Pizza+le+coin/data=!4m7!3m6!1s0x12e2e19e81dd1f0f:0x110030dfdc543516!8m2!3d37.2395638!4d9.9125961!16s%2Fg%2F11frtcth4g!19sChIJDx_dgZ7h4hIRFjVU3N8wABE?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 370 383.</t>
+          <t>Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining destination in El Jem that offers a diverse selection of restaurant options within walking distance?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ancien amphitheatre d'El Jem, a historical landmark with impressive ruins and captivating history.
+Mid-Morning: Try local cuisine at Fast food Rhouma, a popular restaurant offering a variety of dishes with high ratings.
+Midday: Visit the El Jem railway station, a highly rated transportation hub with convenient services for travelers.
+Afternoon: Enjoy scenic views at Menzel Jemil Sud, a popular destination known for its unique experiences or services.
+Evening: Participate in the cultural immersion at Cafe Bacchus, a well-rated cafe offering a cozy ambiance and local beverages.
+Night: Relax and rejuvenate at Starlight SARL, a highly-rated leather goods manufacturer with a wide selection of products.</t>
+        </is>
+      </c>
+      <c r="AB111" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bacchus is a well-rated cafe located in el jem, Tunisia. It offers a cozy ambiance and a variety of cafe beverages. The cafe is situated at the coordinates (36.8296533, 10.3141717).
+Fast food Rhouma is a restaurant in el jem (Tunisia) offering a variety of dishes. Located at the coordinates (35.3, 10.71667), this restaurant is very popular, with a rating of 4.7 out of 11 reviews.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in Menzel Jemil, Ain Bittar is a natural water source renowned for its crystal-clear water and serene surroundings. Its convenient location at latitude 37.2291348 and longitude 9.9224329 provides easy access for visitors seeking refreshment and tranquility.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12436,12 +18333,65 @@
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out La grillade located at 7080 No-Hope St, Menzel Jemil. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on []. To get there, use these GPS coordinates: 37.2291348, 9.9224329. For more details, visit their website at https://www.google.com/maps/place/La+grillade/data=!4m7!3m6!1s0x12e2e11925e74409:0xf27f9ea8319370b1!8m2!3d37.2347876!4d9.9160187!16s%2Fg%2F11jlwt2ky2!19sChIJCUTnJRnh4hIRsXCTMaief_I?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>La Grillade is a restaurant located in Menzel Jemil, Tunisia, offering a variety of dining options. It has a rating of 4.8 and is open from 9:00 AM to 5:00 PM. The restaurant's exact address is 7080 No-Hope St, Menzel Jemil, and its coordinates are (37.2291348, 9.9224329).</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant called La Grillade with GPS coordinates of 37.2291348, 9.9224329, perfect for Restaurant lovers in el jem?</t>
+          <t>Day Plan:
+Morning: Visit the Ancient Amphitheater of El Jem to explore its grandeur and learn about its historical significance.
+Mid-Morning: Take a guided tour of the El Jem Voyage travel agency to inquire about local tours and activities available in the area.
+Midday: Enjoy a traditional Tunisian lunch at Restaurant Pizzeria Rome, known for its authentic and flavorful dishes.
+Afternoon: Engage in outdoor activities at the scenic Rimel Beach Menzel Jemil, including swimming, sunbathing, or indulging in water sports.
+Evening: Indulge in a shopping experience at Starlight SARL, a highly-rated leather goods manufacturer in Menzel Jemil, to find unique and high-quality souvenirs.
+Night: Visit Grillades mshwy restaurant, known for its grilled cuisine, to savor a delicious dinner and experience local flavors.</t>
+        </is>
+      </c>
+      <c r="AB112" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe de la jeunesse is a highly rated cafe in el jem with a rating of 4.3 based on 4 reviews. It is located at 6WM8+8RH Cafe de la jeunesse, Impasse de Sousse, Menzel Jemil and is open from 06:00 to 21:00.
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12543,12 +18493,65 @@
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out FASTFOOD ZAYZAFOUNA located at 6WP9+7R4 FASTFOOD ZAYZAFOUNA, Rue Hedi Chaker, Menzel Jemil. This top-rated destination is perfect for Restaurant de specialites a base de langue lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-19:00, but closed on dimanche. To get there, use these GPS coordinates: 37.235109817823, 9.91707836753.</t>
+          <t>FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>What top-rated Restaurant de specialites a base de langue spot can you visit in El Jem with GPS coordinates 37.235109817823, 9.91707836753?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient amphitheater of Ancien amphitheatre d'El Jem.
+Mid-Morning: Trying local cuisine at Restaurant El Hana, known for its friendly service and affordable prices.
+Midday: Visiting the El Jem Voyage travel agency to plan an afternoon or evening adventure.
+Afternoon: Going shopping at Starlight SARL, a highly-rated leather goods manufacturer.
+Evening: Enjoying scenic views at Rimel Beach Menzel Jemil, a popular beach club with a private beach and swimming pool.
+Night: Engaging in outdoor activities like playing beach volleyball or taking a stroll along the shore at Rimel Beach Menzel Jemil.</t>
+        </is>
+      </c>
+      <c r="AB113" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12654,12 +18657,65 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>If you're in el jem and seeking a delicious seafood dining experience, head to Rimel Land at 7W39+HX Rimel Land, Menzel Jemil. This top-rated restaurant offers a delectable range of seafood options, perfect for seafood lovers. With a rating of 4.7, it's a must-visit spot to satisfy your seafood cravings. It's open 24 hours a day, so you can enjoy their culinary creations anytime. For more details, visit their website or contact them at 28 230 523.</t>
+          <t>Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>Where in El Jem can you indulge in a highly-rated seafood dining experience that operates 24/7?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient Ancien amphitheatre d'El Jem, a stunning historical site with a captivating history that reflects the grandeur of the Roman Empire.
+Mid-Morning: Trying local cuisine at Grillades mshwy, a well-rated restaurant serving a variety of grilled dishes that will tantalize your taste buds with authentic Tunisian flavors.
+Midday: Visiting the iconic and grand Hotel resto Dar Ammar, a 4.1-rated hotel with a convenient location near the city's amphitheater, offering a delectable buffet-style breakfast to energize you for the rest of your day.
+Afternoon: Participating in the engaging outdoor activities at Rimel Beach Menzel Jemil, a popular beach club offering a private beach, swimming pool, and various recreational activities, allowing you to soak up the sun and indulge in some refreshing water sports.
+Evening: Experiencing the vibrant atmosphere at El Jem Voyage, a travel agency that provides insights into the area's attractions, assists with booking accommodations, and arranges tours, ensuring a seamless and fulfilling travel experience.
+Night: Savoring the flavors of the sea at Rimel Land, a highly-rated seafood restaurant open 24 hours a day, where you can relish the freshest catches and delectable seafood dishes while enjoying the lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB114" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe al sousi is a local cafe located in el jem, Tunisia. It has a rating of 5.0.
+Fast food Rhouma is a restaurant located in el jem, Tunisia. It offers a variety of fast food options, including burgers, sandwiches, and salads. The restaurant is open from 7am to 7pm, Monday through Saturday. It is closed on Sundays. The restaurant is located at 7PV6+P4R Fast food Rhouma, Rue Habib Jaballah, El Jem. It has a rating of 4.7 out of 5 stars on Google Maps.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12761,13 +18817,65 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>If you are in el jem and looking for top-notch Restaurant, Restaurant Ghali is the place to be. This 5.0 rated destination, located at 7080 No-Hope St, Menzel Jemil, el jem, offers a delightful range of Restaurant options. 
-With a stellar rating based on 3 reviews, it is highly recommended. The restaurant is open from 09:00-23:00, so plan your visit accordingly. For more information, check out their website or give them a call.</t>
+          <t>Restaurant Ghali is a highly rated (5.0 / 5) restaurant located at 7080 No-Hope St, Menzel Jemil, Tunisia. It offers a wide range of dishes and services, and its specialties include pizza, pasta, and other Italian dishes. The restaurant is open from 09:00 to 23:00 on all days of the week and is easily accessible by car.</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>Which highly-rated Restaurant in el jem, located at 7080 No-Hope St in Menzel Jemil, offers a top-notch dining experience with a 5.0 rating and rave reviews?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Ancien amphitheatre d'El Jem
+Mid-Morning: Try local cuisine at Grillades mshwy
+Midday: Visit the impressive Espase marmara q`@ 'frH mrmr@ marble quarry
+Afternoon: Enjoy scenic views at Rimel Beach Menzel Jemil
+Evening: Participate in a guided tour of the historic El Jem amphitheater
+Night: Relax with a traditional tea at Cafe Paris</t>
+        </is>
+      </c>
+      <c r="AB115" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE RADHOUEN is a highly acclaimed cafe located at 6WQH+8FR CAFE RADHOUEN, thny@ `yn lnjH, Menzel Jemil. Known for its exceptional offerings, this cafe has garnered a 5.0 rating from its satisfied patrons. Situated at the coordinates (37.2291348, 9.9224329), CAFE RADHOUEN is conveniently located for both locals and visitors.
+Restaurant Le Bonheur located in El Jem (longitude: 4.0738428, latitude: 46.034288) is rated 4.0 with 39 reviews and offers traditional cuisine.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water source located in Ain Bittar, Menzel Jemil, with coordinates (37.2291348, 9.9224329) and a 4.4 rating based on 11 reviews.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12869,12 +18977,69 @@
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Ocean Beach Rimel located at 7W49+4Q Ocean Beach Rimel, Menzel Jemil. This top-rated spot is perfect for Restaurant occidental lovers and offers a range of Restaurant occidental to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24h/24 but closed on []. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
+          <t>Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>Where is a top-rated Restaurant occidental spot located in el jem that offers a range of options and stays open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring the ancient ruins of Ancien amphitheatre d'El Jem
+Mid-Morning: Trying local cuisine at Grillades mshwy
+Midday: Relaxing with a coffee at Café Debbabi
+Afternoon: Enjoying scenic views at Rimel Beach Menzel Jemil
+Evening: Participating in a guided tour of El Jem Voyage
+Night: Experiencing cultural immersion at a traditional Tunisian music concert</t>
+        </is>
+      </c>
+      <c r="AB116" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Debbabi**
+**Description:** Located in El Jem, Café Debbabi offers a cozy and welcoming atmosphere for coffee lovers and cafe enthusiasts alike. It is a popular spot for locals and tourists to enjoy a delightful cup of coffee, relax, and socialize.
+**Location:** The café is situated at the convenient location of 7PX5+552 Cafe Debbabi, C93, El Jem. Its coordinates are (35.3, 10.71667).
+**Categories:**
+- Café
+Restaurant El Hana is a 4.7-rated restaurant in El Jem, Tunisia. It offers a wide range of dishes, including salads, brochettes, grillades, and poulet. The restaurant is known for its great food, friendly staff, and beautiful view of the nearby amphitheater. It is open from 9am to 5pm, closed on Mondays, and is located at 7PW5+65C, El Jem.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -12976,12 +19141,65 @@
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to fill up your tank, check out Aire de repos El Jem agil located at Aire de repos El Jem agil, Air de Service El Djem. This top-rated gas station is perfect for drivers and offers a range of services to choose from. With a rating of 3.6, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website at https://www.google.com/maps/place/Aire+de+repos+El+Jem+agil/data=!4m7!3m6!1s0x1301e36474c7ebd1:0xfc243930ad010ace!8m2!3d35.2580728!4d10.6507206!16s%2Fg%2F11q1dbs3sl!19sChIJ0evHdGTjARMRzgoBrTA5JPw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>Where in el jem can you find a top-rated gas station that offers a range of services and is conveniently open 24/7?</t>
+          <t>Day Plan:
+Morning: Visit the El Jem amphitheater, a grand Roman monument, and explore its impressive architecture and history.
+Mid-Morning: Taste the local cuisine at Restaurant Rhouma, known for its delicious salads and welcoming ambiance.
+Midday: Immerse in the serene atmosphere of the Ain el Hanech, a natural water source offering tranquility and scenic views.
+Afternoon: Head to the Rimel Beach Menzel Jemil, where you can enjoy the sun, swim in the azure waters, and relish the coastal vibes.
+Evening: Indulge in a culinary delight at Fratello PIZZERIA, famous for its mouthwatering pizzas and warm hospitality.
+Night: Experience the lively ambiance of the Cafe Paris, savor aromatic tea or coffee, and soak in the local culture while connecting with the community.</t>
+        </is>
+      </c>
+      <c r="AB117" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Buvette namouchi is a cafe located in el jem, Tunisia. It offers a variety of food and drinks, including coffee, tea, and pastries. The cafe is located at 37.23744°N, 9.9221347°E.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13079,12 +19297,71 @@
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>If you're in el jem, be sure to visit El Jem while you're there. This train station is located at El Jem and is perfect for train station lovers. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.2937636, 10.7107671.</t>
+          <t>El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>What is the name of the train station in El Jem that is highly rated and a must-visit spot?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the Ancient Amphitheater of El Jem, marveling at its architectural grandeur and rich history.
+**Mid-Morning:**
+- Visit the El Jem Voyage travel agency to plan local activities and book transportation.
+**Midday:**
+- Try local cuisine at Pizzeria El Capo, savoring its renowned pizzas and friendly ambiance.
+**Afternoon:**
+- Relax at Ocean Beach Rimel, enjoying the coastal views and indulging in the sun-soaked atmosphere.
+**Evening:**
+- Explore the Menzel Jemil Sud marketplace, discovering unique souvenirs and interacting with friendly locals.
+**Night:**
+- Experience traditional music and dance at Grillades mshwy, while enjoying flavorful grilled dishes. Then, unwind at your cozy hotel, soaking in the tranquility of the evening.</t>
+        </is>
+      </c>
+      <c r="AB118" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE RADHOUEN is a cafe located in el jem, Tunisia (37.2291348, 9.9224329). It has a 5.0 rating based on 1 review and offers a variety of cafe-related services.
+Pizzeria El Capo is a restaurant located in el jem, Tunisia. Known for its delicious pizzas, the restaurant stays open late to serve customers from 4 p.m. to 4 a.m. It is highly rated, averaging 4.9 stars out of 5, and has received numerous positive reviews for its pizza. The restaurant's exact latitude and longitude are 36.8500785 and 10.2632786, respectively.
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13182,14 +19459,65 @@
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated gas station, check out Total located at 7PW5+XFR Total, Ave Mongi Slim. 
-This top-rated destination is perfect for Station-service lovers. With a rating of 4.2, it's a popular spot for locals and tourists alike. 
-To get there, use these GPS coordinates: (35.3, 10.71667).</t>
+          <t>Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated gas station with convenient access in el jem for a memorable Station-service experience?</t>
+          <t>Day Plan:
+Morning: Explore the Ancient Amphitheater of El Jem, showcasing the grandeur of the Roman Empire.
+Mid-Morning: Visit El Jem Voyage, a travel agency, to book a guided tour of the amphitheater for an in-depth understanding of its history and significance.
+Midday: Savor local cuisine at Restaurant Pizzeria Rome, known for its delicious pizzas and a variety of Italian dishes.
+Afternoon: Engage in outdoor activities at Rimel Beach Menzel Jemil, enjoying the private beach, swimming pool, and serene ambiance.
+Evening: Experience cultural immersion at the Espase marmara q`@ 'frH mrmr@, a marble quarry that highlights the region's craftsmanship and natural resources.
+Night: Relax and rejuvenate at the Hotel Julius, unwinding in the outdoor pool or savoring delectable cuisine at the on-site restaurant.</t>
+        </is>
+      </c>
+      <c r="AB119" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.
+Restaurant Ghali is a highly rated (5.0 / 5) restaurant located at 7080 No-Hope St, Menzel Jemil, Tunisia. It offers a wide range of dishes and services, and its specialties include pizza, pasta, and other Italian dishes. The restaurant is open from 09:00 to 23:00 on all days of the week and is easily accessible by car.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the rolling hills of el jem, Ain el Hanech is a natural spring, a vital water source for the local community. Its crystal-clear waters flow year-round, offering a source of refreshment and sustenance for the region.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13287,12 +19615,71 @@
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to buy tickets for bus, check out Louage Station located at 55 Rue De La Grande Mosquee. This top-rated destination is perfect for Agence de vente de tickets de bus lovers. With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 45.115945820064, -68.815921024148.</t>
+          <t>Explore Louage Station, a trusted agency located at Louage Station, 55 Rue De La Grande Mosquee, El Jem. With a focus on providing high-quality bus ticketing services, we ensure a seamless travel experience. Contact us today for more information!</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>Where in El Jem can you purchase bus tickets at a highly rated location for Agence de vente de tickets de bus lovers?</t>
+          <t>Day Plan:
+Morning:
+- Explore the well-preserved Roman amphitheater, The Ancient Amphitheater of El Jem, which dates back to the 3rd century AD, and marvel at its impressive size and architectural features.
+Mid-Morning:
+- Visit the historic El Jem Amphitheatre, a UNESCO World Heritage site, and learn about its significance as a venue for gladiatorial contests and public spectacles during Roman times.
+Midday:
+- Try local cuisine at Restaurant El Hana, known for its delicious salads, brochettes, and grilled chicken. Enjoy the friendly service and reasonable prices.
+Afternoon:
+- Relax on the private beach at Residence Nour errimel MJ, a 4-star accommodation in Menzel Jemil, which also offers an outdoor pool and a restaurant.
+Evening:
+- Enjoy scenic views at Rimel Beach Menzel Jemil, a popular beach club offering amenities like a private beach, a swimming pool, a restaurant, and a bar.
+Night:
+- Experience cultural immersion at the Rimel Land seafood restaurant in Menzel Jemil, known for its highly-rated seafood cuisine and media coverage.</t>
+        </is>
+      </c>
+      <c r="AB120" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mqh~ lqySr** is a cafe located in Menzel Jemil, Tunisia at the coordinates (37.2291348, 9.9224329). It has a rating of 4.0 based on 1 review. The cafe offers a variety of items, including coffee, tea, and pastries. It is also a popular spot for locals to gather and socialize.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is a pizzeria located in El Jem, Tunisia. The restaurant offers a variety of pizzas, as well as other Italian dishes. The restaurant is located at 41.8513181, 12.2008956.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, Tunisia. It offers a variety of amenities, including a private beach, an outdoor pool, and a restaurant. The residence is also conveniently located near a number of attractions, including the Colosseum of El Jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13394,14 +19781,65 @@
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a Poste de peage, be sure to visit Peage El Jem located at Peage El Jem, Peage El Jem, A1. 
-This top-rated posto de peage is perfect for travelers and offers a range of services to choose from. 
-With a rating of 4.3, it's a must-visit spot. Its open 24/24 so you can visit anytime. To get there, use these GPS coordinates: 35.3, 10.71667. For more details, visit their website link here .</t>
+          <t>Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Peage El Jem, perfect for travelers in El Jem, distinguished by its extended operating hours and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore El Jem, the Ancient Roman amphitheater (Coordinates: 35.3, 10.71667).
+Mid-Morning: Visit the El Jem Voyage travel agency (7PX4+G7J Ave. Farhat Hached, El Jem).
+Midday: Try local cuisine at Grillades mshwy restaurant (8M2Q+7R7 Grillades mshwy, El Jem).
+Afternoon: Relax with a quick massage at Hotel resto Dar Ammar (el jem, Tunisia).
+Evening: Explore Menzel Jemil Beach.
+Night: Participate in a cooking class at FASTFOOD ZAYZAFOUNA (Coordinates: 37.235109817823, 9.91707836753).</t>
+        </is>
+      </c>
+      <c r="AB121" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nafoura is a cafe located in Menzel Jemil, Tunisia. It is open from 5:00am to 11:00pm and offers a variety of services including coffee, tea, and snacks. The cafe is located at 6WX5+4RG, Menzel Jemil and has a rating of 4.7.
+Restaurant Rhouma, located in El Jem (35.3,10.71667), offers a variety of dishes including salads. With a rating of 4.0 and 23 reviews, this restaurant has garnered a reputation for its culinary offerings and welcoming atmosphere. Its convenient hours of operation, from 11:00 to 00:00, make it a suitable destination for both lunch and dinner. For more information and images, visit its website or check out its featured image here: https://lh5.googleusercontent.com/p/AF1QipOd46EkJ-T4Vys0NpYf-6h0mOLdl2Ex5dofDmsQ=w519-h240-k-no
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Located in Menzel Jemil (coordinates: 37.2291348, 9.9224329), Rimel Land is highly rated (4.7/5 stars from 3 reviews) for its seafood cuisine. Open 24/7, it has been featured in the media and offers a range of seafood options.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13499,13 +19937,65 @@
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Louage Station located at 55 Rue De La Grande Mosquee. 
-This top-rated destination is perfect for bus ticket agency lovers. With a rating of 2.5, it's a must-visit spot. To get there, use these GPS coordinates: 45.115945820064, -68.815921024148.</t>
+          <t>Louage Station is located in Louage Station in 55 Rue De La Grande Mosquee, El Jem, providing bus tickets and services to travellers in the area. Despite having a rating of 2.5 out of 5 based on 10 reviews, it remains a popular destination for those seeking reliable and affordable transportation options.</t>
         </is>
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>What is the name and distinguishing feature of the top-rated destination in el jem, accessible via GPS coordinates specified in the description?</t>
+          <t>Day Plan:
+Morning: Explore the well-preserved Roman amphitheater, Ancien amphitheatre d'El Jem.
+Mid-Morning: Visit the marble quarry, Espase marmara q`@ 'frH mrmr@, to learn about the marble quarrying process.
+Midday: Try local cuisine at Rimel Land, a highly-rated seafood restaurant.
+Afternoon: Enjoy a relaxing afternoon at Rimel Beach Menzel Jemil, a popular beach club with a private beach and swimming pool.
+Evening: Shop for unique leather goods at Starlight SARL.
+Night: Engage in cultural immersion at the Cafe Paris tea room, a local favorite known for its delicious tea and coffee.</t>
+        </is>
+      </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sunday Coffee is a cafe located in Menzel Jemil, Tunisia. It offers a wide selection of coffee drinks, as well as a variety of pastries and snacks. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at 6VPW+GH3 Sunday Coffee, Menzel Jemil, and can be contacted at +216 52 948 386.
+Pizza le coin is a restaurant located in Menzel Jemil, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open every day except Wednesdays, from 9am to 9pm. It has a rating of 4.4 stars on Google Maps, with 8 reviews. Pizza le coin is located at (37.2291348, 9.9224329).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a place of business which provides accomodation. It is located in Residence Nour errimel MJ, Menzel Jemil, Tunisia in latitude  34.253921291909, longitude -6.594112630279. The business is situated in el jem.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13611,14 +20101,65 @@
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for something fun to do, check out Peage Menzel Jemil located at A4, Peage Menzel Jemil, Menzel Jemil. 
-This top-rated destination is perfect for Poste de peage lovers and offers a range of Poste de peage to choose from. 
-With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on none. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/P%C3%A9age+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e1fe9b66d60f:0x2602a037d02734a9!8m2!3d37.2294777!4d9.948275!16s%2Fg%2F11j7d81md6!19sChIJD9Zmm_7h4hIRqTQn0DegAiY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 555 780.</t>
+          <t>Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>Where in Menzel Jemil can you find a highly rated destination with a wide selection of Poste de peage options?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of the Amphitheater of El Jem
+Mid-Morning: Try local cuisine at Rimel Land for a highly-rated seafood experience
+Midday: Visit the Espase marmara q`@ 'frH mrmr@ marble quarry to witness its impressive operations
+Afternoon: Relax with a swim at Ocean Beach Rimel for a refreshing break
+Evening: Participate in a guided tour of the El Jem Amphitheater to delve into its historical significance
+Night: Enjoy a delightful dinner at Pizza le Coin for an authentic culinary experience</t>
+        </is>
+      </c>
+      <c r="AB123" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Nafoura is a cafe located in Menzel Jemil, Tunisia. It is open from 5:00am to 11:00pm and offers a variety of services including coffee, tea, and snacks. The cafe is located at 6WX5+4RG, Menzel Jemil and has a rating of 4.7.
+Pizza le Coin, located in el Jem at coordinates (37.2291348, 9.9224329), is a highly rated restaurant with a 4.4-star rating and 8 reviews. Open from 9:00 to 21:00 from Thursday to Tuesday, it offers a delightful culinary experience. Explore the heart of el Jem and indulge in the flavors at Pizza le Coin.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located at (37.23618, 9.91448) in Menzel Jemil, Tunisia, is a popular destination with a 4.1 rating based on 14 reviews. While detailed information about the place is currently unavailable, its popularity suggests that it offers unique experiences or services that attract visitors.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain el Hanech is a natural water source located in Ain el Hanech, Menzel Jemil, Tunisia. It has a rating of 5.0 based on one review. It is a popular destination for locals and tourists alike.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13728,12 +20269,65 @@
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a top-rated gas station, check out S/S SHELL MENZEL JEMIL located at S/S SHELL MENZEL JEMIL, GP8, Menzel Jemil 7080. This popular destination is perfect for drivers and offers a range of services to choose from. With a rating of 4.1, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.shell.com/ or call them at 23 600 404.</t>
+          <t>S/S SHELL MENZEL JEMIL is a gas station located in Menzel Jemil, Tunisia (37.23618, 9.91448). It has a 4.1 rating based on 8 reviews and is owned by S/S SHELL MENZEL JEMIL (proprietaire). The gas station offers 24-hour service and its main category is gas station.</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>Where in el jem can you find the popular S/S SHELL MENZEL JEMIL gas station with a high rating and convenient services?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman amphitheater, Ancien amphitheatre d'El Jem, a UNESCO World Heritage Site and one of the largest and most well-preserved amphitheaters in the world.
+Mid-Morning: Try local cuisine at Grillades mshwy, a highly-rated restaurant offering grilled dishes.
+Midday: Visit the El Jem Amphitheater, a magnificent Roman amphitheater known for its size and architectural beauty.
+Afternoon: Relax with a rejuvenating pilgrimage to the pristine water source in Ain Bittar, Menzel Jemil.
+Evening: Enjoy scenic views at Rimel Beach Menzel Jemil, a popular beach club with a private beach, swimming pool, and dining options.
+Night: Experience cultural immersion at a traditional Tunisian music and dance performance at Cafe Bacchus, a well-rated cafe with a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB124" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bacchus is a well-rated cafe located in el jem, Tunisia. It offers a cozy ambiance and a variety of cafe beverages. The cafe is situated at the coordinates (36.8296533, 10.3141717).
+Boulangerie Patisserie Issam Eddine, located in 7PR3+WJV, C87, El Jem, is a popular spot with a 4.0 rating. While it doesn't have a website, the bakery offers a range of services, suitable for those looking for a quick bite.
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+The Hotel Julius in El Jem, Tunisia, offers cozy rooms and suites in an elegant setting. Guests can enjoy the outdoor pool and dine at the on-site restaurant and cafe. The hotel is conveniently located at (35.218759, 10.7068024), near the El Jem Amphitheater and other popular attractions.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud, located in el jem, is a land mass with a 4.1 rating based on 14 reviews. It features in the 'Land mass' category.
+Rimel Land is a seafood restaurant located in Menzel Jemil, Tunisia (coordinates: 37.2538916, 9.9199854). It is highly rated (4.7 out of 5) based on 3 reviews and is open 24 hours a day. The restaurant's featured image showcases its inviting ambiance, and its owner is listed as "Rimel Land (proprietaire)." The restaurant's website and description are currently unavailable.
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Nestled in the heart of Ain Bittar, Menzel Jemil, this exceptional water source beckons you with its pristine, life-giving waters. Located at coordinates (37.2291348, 9.9224329), it boasts a 4.4-star rating based on 11 reviews, a testament to its allure. Although its description remains elusive, its significance as a source of refreshment and sustenance is undeniable. With its convenient accessibility, you can easily embark on a rejuvenating pilgrimage to experience the tranquility and nourishment it offers.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia (37.23618, 9.91448).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13839,12 +20433,65 @@
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a place to pay tolls, check out Peage Menzel Jemil located at A4, Peage Menzel Jemil, Menzel Jemil. This top-rated destination is perfect for Poste de peage lovers and offers a range of Poste de peage to choose from. With a rating of 3.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/P%C3%A9age+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e1fe9b66d60f:0x2602a037d02734a9!8m2!3d37.2294777!4d9.948275!16s%2Fg%2F11j7d81md6!19sChIJD9Zmm_7h4hIRqTQn0DegAiY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 70 555 780.</t>
+          <t>Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>Where in el jem can you find Peage Menzel Jemil, a top-rated toll payment destination for Poste de peage enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the ancient Roman amphitheater, Ancien amphitheatre d'El Jem, for a glimpse into the town's rich history.
+Mid-Morning: Indulge in the exquisite seafood dishes at the highly-rated Rimel Land restaurant, known for its delectable menu and attentive service.
+Midday: Take a guided tour of the El Jem Amphitheater to delve deeper into its significance and architectural wonders.
+Afternoon: Head to Rimel Beach Menzel Jemil and enjoy a relaxing afternoon amidst the picturesque beach club, complete with a private beach, swimming pool, and refreshing beverages.
+Evening: Experience the vibrant local cuisine by trying authentic dishes at Grillades mshwy, a reputable restaurant offering a variety of grilled delights.
+Night: Explore the lively streets of Menzel Jemil, and immerse yourself in the cultural charm of the town while enjoying the local ambiance and hospitality.</t>
+        </is>
+      </c>
+      <c r="AB125" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ lqySr is a cafe located in Menzel Jemil, Tunisia. It offers a wide range of coffee and tea, as well as light snacks and pastries. The cafe is located in a convenient location, just a short walk from the city center.
+Restaurant El Hana is located on the coordinates 33.561917 latitude and -7.608013 longitude in the city of El Jem. It offers a variety of dishes, including salads, brochettes, and grilled chicken. The restaurant is known for its friendly service and reasonable prices. It is also conveniently located near the famous El Jem Amphitheatre, making it a great place to stop for a bite to eat before or after visiting the historic site.
+Restaurant Pizzeria Rome is located in El Jem, near the coastline, at the coordinates (41.8513181, 12.2008956) and offers pizzeria services, as its name suggests.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+**Hotel resto Dar Ammar** is a popular hotel located in El Jem. It offers a wide range of amenities, including a buffet breakfast, free Wi-Fi, and a swimming pool. The hotel is also conveniently located near the city's main attractions, such as the El Jem Amphitheater.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a land mass located in Menzel Jemil, Tunisia. It has an average rating of 4.1 based on 14 reviews and is situated at a latitude of 37.23618 and a longitude of 9.91448.
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Menzel Jemil, el jem. It has a rating of 5.0 based on 1 review. Unfortunately, there is no detailed description, website, or contact information available.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Total is a gas station with a wide selection of services and a convenient location in el jem, Tunisia. It offers its customers a variety of facilities and services, such as a car wash, a convenience store, and a cafe. Total is located at the coordinates (35.3, 10.71667) and has a rating of 4.2 stars based on 19 reviews.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -13932,14 +20579,65 @@
           <t>el jem</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr">
-        <is>
-          <t>If you're in el jem and looking for something fun to do, check out Station de Pneumatique Soussi Freres located at 6WJC+RP7 Station de Pneumatique Soussi Freres, GP8, Menzel Jemil. 
-This top-rated destination is perfect for  lovers and offers a range of  to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.2291348, 9.9224329.</t>
-        </is>
-      </c>
-      <c r="AA126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Visit the well-preserved Roman amphitheater, Ancient Amphitheater of El Jem, for a glimpse into the grandeur of the Roman Empire.
+Mid-Morning: Explore El Jem, a town known for its historical significance, and immerse yourself in its local culture.
+Midday: Try local cuisine at Grillades mshwy, a restaurant known for its grilled dishes and positive reviews.
+Afternoon: Visit Fespaco marmara q`@ 'frH mrmr@, a marble quarry, to learn about the process of marble quarrying and see the finished products.
+Evening: Enjoy scenic views at Rimel Beach Menzel Jemil, a popular beach club offering a private beach, swimming pool, and dining options.
+Night: Experience a musical or theatrical performance at El Jem Voyage, a travel agency that also hosts cultural events.</t>
+        </is>
+      </c>
+      <c r="AB126" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE RADHOUEN is a highly rated (5.0/5) cafe located in el jem, Tunisia. It is conveniently situated at 37.2291348 latitude and 9.9224329 longitude, making it easily accessible for customers. Unfortunately, there is no additional information available about its menu, ambience or other offerings.
+El Jem is a restaurant located in El Hencha, Tunisia. It is rated 4.8 stars out of 5 based on 5 reviews. The restaurant's exact coordinates are (35.1232091, 10.7415639).
+Fratello PIZZERIA, located on BitternessStreet in Menzel Jemil, Tunisia, is a highly-rated pizzeria with a 4.9-star rating out of 10 reviews. The establishment is owned by Fratello PIZZERIA and is open daily from 09:00-22:00. The pizzeria is well-reviewed with reviewers mentioning the pizzeria's excellent food and quick service. The restaurant's menu features a wide variety of pizzas, as well as other Italian dishes.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Hotel resto Dar Ammar is a 4.1-rated hotel in el jem, Tunisia. It offers a buffet-style breakfast, a variety of room choices, and is located conveniently close to the city’s amphitheater. With its convenient location and great reviews, the hotel is a great place to stay for those looking to explore the city.
+Residence Nour errimel MJ is a 4-star accommodation located in Menzel Jemil, offering guests a comfortable and convenient stay. With its prime location and excellent ratings, it is an ideal choice for travelers seeking a comfortable and well-connected base in the area.
+El Jem is a town in Tunisia known for its well-preserved Roman amphitheater, which is one of the largest and most impressive in the world. The amphitheater was built in the 3rd century AD and could accommodate up to 35,000 spectators. It was used for gladiatorial contests and other public spectacles. Today, the amphitheater is a popular tourist destination and is often used for concerts and other events. The town of El Jem is located in central Tunisia, about 150 kilometers south of the capital Tunis.
+The Ancient Amphitheater of El Jem, located in El Jem, is a well-preserved Roman amphitheater built in the 3rd century AD. Coordinates: (35.3, 10.71667). It is known for its impressive size and architectural features, including its three-story facade and 60 arches. The amphitheater offered a seating capacity for around 35,000 spectators and hosted gladiatorial contests and other public events during the Roman era. Today, it is a popular tourist destination, offering visitors a glimpse into the grandeur of the Roman Empire.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Bittar is a water spring located in Ain Bittar, Menzel Jemil, Tunisia. It has a rating of 4.4 based on 11 reviews and its main category is water source. Its coordinates are (37.2291348, 9.9224329).
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant located in Menzel Jemil, offering a 24/7 service. It has a rating of 5.0 based on 1 review, making it a highly recommended place to visit.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.
+Peage El Jem is a toll booth located near the city of El Jem in Tunisia. It is easily accessible from the A1 highway and is open 24 hours a day. Peage El Jem offers a convenient way to pay tolls and continue your journey. It is strategically positioned to facilitate seamless travel and enhance the overall transportation infrastructure in the region.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -14039,12 +20737,65 @@
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>If you're in el jem and looking for a trusted gas station, head to Staroil Menzel Jemil located at 6WFM+HCC Staroil Menzel Jemil, P8, Menzel Jemil. This top-rated destination is open 24 hours a day and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 37.23618, 9.91448. For more details, visit their website at https://www.google.com/maps/place/Staroil+Menzel+Jemil/data=!4m7!3m6!1s0x12e2e0770c1ab34d:0x2b5a88963f4bd23e!8m2!3d37.2239311!4d9.9335215!16s%2Fg%2F1tr46rn9!19sChIJTbMaDHfg4hIRPtJLP5aIWis?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Staroil Menzel Jemil is a gas station located in Menzel Jemil, Tunisia. The station is open 24 hours a day and offers various services for car owners. With its convenient location, the gas station is easily accessible to drivers seeking fuel, maintenance, or other automotive needs.</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>Where in Menzel Jemil can you find a reliably-rated, 24-hour gas station?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancien amphitheatre d'El Jem
+Mid-Morning: Visit Rimel Beach Menzel Jemil and enjoy a refreshing swim in the Mediterranean Sea
+Midday: Try local cuisine at Cafe Venus, known for its delectable dishes and cozy ambiance
+Afternoon: Indulge in some retail therapy at Starlight SARL, renowned for its exquisite leather goods
+Evening: Witness the spectacular sunset over the plains of Menzel Jemil Sud while sipping on traditional tea at Cafe Paris
+Night: Immerse yourself in the vibrant atmosphere of Ocean Beach Rimel and savor mouthwatering seafood delicacies</t>
+        </is>
+      </c>
+      <c r="AB127" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Venus, located in the heart of el jem at coordinates (35.3, 10.71667), offers a cozy ambiance and delectable cuisine. With a rating of 4.4, it is a popular destination. Cafe Venus opens its doors from 6 AM to 11 PM daily, offering an extended range of hours to cater to both early risers and late-night cravings.
+La Grillade is a restaurant located in Menzel Jemil, Tunisia, offering a variety of dining options. It has a rating of 4.8 and is open from 9:00 AM to 5:00 PM. The restaurant's exact address is 7080 No-Hope St, Menzel Jemil, and its coordinates are (37.2291348, 9.9224329).
+Fratello PIZZERIA is located in Menzel Jemil, Tunisia, at coordinates (37.2291348, 9.9224329), offering delicious pizzas. Open from 9 AM to 10 PM, it has received consistently high ratings from customers.
+Cafe Paris is a tea room located in Menzel Jemil, Tunisia, and is known for its delicious tea and coffee. It has a rating of 4.3 and is a popular spot for locals and tourists alike. The tea room is open every day from 9 am to 9 pm and offers a variety of teas, coffees, and pastries. The atmosphere is relaxed and friendly, making it a great place to catch up with friends or enjoy a quiet afternoon tea.
+Nestled in El Jem, Hotel resto Dar Ammar is an established hotel renowned for its 4.1-star rating. It has garnered 167 reviews, highlighting its popularity among guests. Located conveniently at R87, Hotel resto Dar Ammar provides easy access to the city's attractions while offering a range of amenities to enhance your stay.
+Residence Nour errimel MJ is a lodging establishment located in Menzel Jemil, Tunisia at [lon,lat] (34.253921291909, -6.594112630279). It has a rating of 4.0 based on 7 reviews and offers accommodation services.
+El Jem is a renowned railway station located in the city of El Jem, Tunisia. Situated at coordinates (35.2937636, 10.7107671), it offers convenient transportation services for locals and visitors alike. The station has been highly rated by users, receiving an impressive 4.3 stars out of 5 based on 36 reviews. El Jem railway station serves as a vital connection point within the region's transportation network.
+Located in El Jem, Tunisia (35.3, 10.71667), the Ancien amphitheatre d'El Jem is a renowned historical site with a rating of 4.5. This ancient amphitheater serves as a prime destination for history enthusiasts and travelers alike.
+El Jem Voyage is a travel agency located in El Jem, Tunisia. It offers a wide range of travel services, including booking flights, accommodation, and tours. The agency is located at 7PX4+G7J El Jem Voyage, Ave Farhat Hached, El Jem, and is open from Monday to Saturday from 9am to 5pm. The agency has a rating of 4.5 stars on Google, and has received positive reviews for its friendly and helpful staff.
+Rimel Beach Menzel Jemil is a popular beach club located in el jem, Tunisia. The club offers a variety of amenities, including a private beach, a swimming pool, a restaurant, and a bar. Rimel Beach Menzel Jemil is also a popular spot for weddings and other special events. The club is located near the town of Menzel Jemil, which is known for its beautiful beaches and its historic ruins. The beach club offers a unique and beautiful setting for a day of relaxation or celebration.
+Menzel Jemil Sud is a place located in the northern part of Tunisia, in the governorate of el jem. It stands out with a rating of 4.1 out of 5. To know more about this place, its link is provided: https://www.google.com/maps/place/Menzel+Jemil+Sud/data=!4m7!3m6!1s0x12e2e00dca76aafb:0xfe5efb5ac89de785!8m2!3d37.2299388!4d9.9213641!16s%2Fg%2F1v9d4nxp!19sChIJ-6p2yg3g4hIRheedyFr7Xv4?authuser=0&amp;hl=fr&amp;rclk=1
+Rimel Land is a highly rated (4.7/5) seafood restaurant located in Menzel Jemil, el jem, Tunisia. It offers a variety of seafood dishes, and is open 24 hours a day. The restaurant is well-reviewed for its delicious food and attentive service. It's located at the coordinates (37.2291348, 9.9224329).
+Starlight SARL, located at 6WFQ+38M Main Street in Menzel Jemil, is a highly-rated (5.0 stars based on 2 reviews) manufacturer of leather goods. It is open from 8:00 AM to 4:00 PM on weekdays and is closed on Saturdays and Sundays. The company features a wide selection of leather goods, making it a popular destination for shoppers in the area.
+Ain Najah is a water source located in Ain Najah, Menzel Jemil, Tunisia. It's a natural spring with a rating of 5.0 based on 1 review.
+Espase marmara q`@ 'frH mrmr@ is a marble quarry located in Espase marmara q`@ 'frH mrmr@, C87, El Jem, Tunisia. The quarry produces high-quality marble that is used in a variety of applications, including flooring, countertops, and sculptures. The quarry is located near the city of El Jem, which is known for its ancient Roman amphitheater. The quarry is open to the public, and visitors can learn about the process of marble quarrying and see the finished products.
+Grillades mshwy is a restaurant located in El Jem, Tunisia. It offers a variety of grilled dishes and has a rating of 4.0 out of 5 on Google Maps. The restaurant is located at 8M2Q+7R7 Grillades mshwy, El Jem, and can be contacted via their website or phone number.
+Ocean Beach Rimel is a western restaurant in el jem, Tunisia. It has a rating of 5.0 and is open 24 hours a day. It is located at 37.2291348, 9.9224329.
+FASTFOOD ZAYZAFOUNA is a language-based specialty restaurant located in Menzel Jemil, Tunisia. It is famous for its dishes based on tongue, and has a high rating of 5.0. The restaurant is situated at coordinates (37.235109817823, 9.91707836753), and is open during weekdays from 9:00 AM to 7:00 PM. However, it is closed on Sundays.
+Aire de repos El Jem agil is a rest area located in el jem, Tunisia. It offers a 24/7 gas station service. Its coordinates are (35.3, 10.71667).
+Peage Menzel Jemil is a toll booth located in Menzel Jemil, Tunisia, on the A4 highway. It offers 24/7 service and can be reached by phone at 70 555 780. The toll booth is situated at coordinates (37.23618, 9.91448) and its main category is Poste de peage. Its featured image is available at https://lh5.googleusercontent.com/p/AF1QipNYSWZbrfeZ1NTZJVO5engABRF7QhiuQ0Q-Lt8r=w408-h544-k-no.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
